--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D11EBC1B-EACB-6144-830A-4C171AB97F29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EEF82EB-96F8-7F41-ABE4-9FB21B485E14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8ACADFD3-D4EE-4ABF-AACA-8F0EE7039D4B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" xr2:uid="{8ACADFD3-D4EE-4ABF-AACA-8F0EE7039D4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="235">
   <si>
     <t>Compound (SMILES)</t>
   </si>
@@ -603,9 +603,6 @@
   </si>
   <si>
     <t>rNaV1.4 T759C</t>
-  </si>
-  <si>
-    <t>IrNaV1.4 1242C</t>
   </si>
   <si>
     <t>rNaV1.4 A1245C</t>
@@ -1222,8 +1219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81FC3777-24FE-4B88-BA57-2E8BD12CE519}">
   <dimension ref="A1:O253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="72" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="72" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1258,16 +1255,16 @@
         <v>179</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>161</v>
@@ -1276,10 +1273,10 @@
         <v>30</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -1296,7 +1293,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F2" s="3">
         <v>6.1000000000000004E-3</v>
@@ -1344,7 +1341,7 @@
         <v>45</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F3" s="3">
         <v>6.5000000000000002E-2</v>
@@ -1392,7 +1389,7 @@
         <v>46</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F4" s="3">
         <v>0.28000000000000003</v>
@@ -1440,7 +1437,7 @@
         <v>50</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1488,7 +1485,7 @@
         <v>45</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F6" s="7">
         <v>1.2</v>
@@ -1533,7 +1530,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>177</v>
@@ -1584,7 +1581,7 @@
         <v>188</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F8" s="3">
         <v>1.3</v>
@@ -1680,7 +1677,7 @@
         <v>183</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F10" s="3">
         <v>1.6</v>
@@ -1725,7 +1722,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>177</v>
@@ -1776,7 +1773,7 @@
         <v>6</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F12" s="3">
         <v>1.9</v>
@@ -1821,7 +1818,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>177</v>
@@ -1920,7 +1917,7 @@
         <v>25</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F15" s="3">
         <v>2.2999999999999998</v>
@@ -1965,7 +1962,7 @@
         <v>6</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F16" s="10">
         <v>2.9</v>
@@ -2013,7 +2010,7 @@
         <v>189</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F17" s="3">
         <v>3.1</v>
@@ -2061,7 +2058,7 @@
         <v>184</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F18" s="3">
         <v>3.3</v>
@@ -2157,7 +2154,7 @@
         <v>6</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F20" s="3">
         <v>4.5</v>
@@ -2253,7 +2250,7 @@
         <v>23</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F22" s="3">
         <v>4.9000000000000004</v>
@@ -2301,7 +2298,7 @@
         <v>25</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F23" s="3">
         <v>5</v>
@@ -2346,7 +2343,7 @@
         <v>55</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F24" s="3">
         <v>5.7</v>
@@ -2394,7 +2391,7 @@
         <v>6</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F25" s="3">
         <v>6.1</v>
@@ -2442,7 +2439,7 @@
         <v>38</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F26" s="3">
         <v>6.3</v>
@@ -2490,7 +2487,7 @@
         <v>188</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F27" s="3">
         <v>7.2</v>
@@ -2538,7 +2535,7 @@
         <v>47</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F28" s="3">
         <v>7.8</v>
@@ -2586,7 +2583,7 @@
         <v>51</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F29" s="3">
         <v>7.8</v>
@@ -2634,7 +2631,7 @@
         <v>24</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F30" s="3">
         <v>8.1999999999999993</v>
@@ -2682,7 +2679,7 @@
         <v>23</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F31" s="3">
         <v>8.6999999999999993</v>
@@ -2728,7 +2725,7 @@
         <v>6</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F32" s="7">
         <v>9</v>
@@ -2776,7 +2773,7 @@
         <v>183</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F33" s="3">
         <v>9.1999999999999993</v>
@@ -2824,7 +2821,7 @@
         <v>45</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F34" s="3">
         <v>10</v>
@@ -2872,7 +2869,7 @@
         <v>6</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F35" s="3">
         <v>11</v>
@@ -2917,7 +2914,7 @@
         <v>91</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>177</v>
@@ -2968,7 +2965,7 @@
         <v>38</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F37" s="3">
         <v>13</v>
@@ -3016,7 +3013,7 @@
         <v>185</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F38" s="3">
         <v>14</v>
@@ -3064,7 +3061,7 @@
         <v>6</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F39" s="7">
         <v>14.9</v>
@@ -3112,7 +3109,7 @@
         <v>38</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F40" s="3">
         <v>15</v>
@@ -3160,7 +3157,7 @@
         <v>6</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F41" s="3">
         <v>17</v>
@@ -3208,7 +3205,7 @@
         <v>37</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F42" s="3">
         <v>17</v>
@@ -3256,7 +3253,7 @@
         <v>6</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F43" s="10">
         <v>17.100000000000001</v>
@@ -3304,7 +3301,7 @@
         <v>20</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F44" s="7">
         <v>18.600000000000001</v>
@@ -3352,7 +3349,7 @@
         <v>20</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F45" s="3">
         <v>19</v>
@@ -3397,7 +3394,7 @@
         <v>91</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>177</v>
@@ -3427,7 +3424,7 @@
       </c>
       <c r="N46" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>ligand_IrNaV1.4.1242C_STX.N21.3</v>
+        <v>ligand_rNaV1.4.1242C_STX.N21.3</v>
       </c>
       <c r="O46" s="2">
         <f t="shared" si="3"/>
@@ -3448,7 +3445,7 @@
         <v>6</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F47" s="3">
         <v>19</v>
@@ -3496,7 +3493,7 @@
         <v>28</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F48" s="3">
         <v>21</v>
@@ -3541,7 +3538,7 @@
         <v>91</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>177</v>
@@ -3592,7 +3589,7 @@
         <v>25</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F50" s="3">
         <v>22</v>
@@ -3640,7 +3637,7 @@
         <v>6</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F51" s="3">
         <v>22</v>
@@ -3688,7 +3685,7 @@
         <v>28</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F52" s="3">
         <v>23</v>
@@ -3736,7 +3733,7 @@
         <v>28</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F53" s="3">
         <v>23</v>
@@ -3784,7 +3781,7 @@
         <v>187</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F54" s="3">
         <v>23</v>
@@ -3832,7 +3829,7 @@
         <v>45</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F55" s="3">
         <v>24</v>
@@ -3880,7 +3877,7 @@
         <v>22</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F56" s="3">
         <v>24</v>
@@ -3928,7 +3925,7 @@
         <v>184</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F57" s="3">
         <v>25</v>
@@ -3976,7 +3973,7 @@
         <v>6</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F58" s="7">
         <v>26</v>
@@ -4024,7 +4021,7 @@
         <v>24</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F59" s="3">
         <v>26</v>
@@ -4072,7 +4069,7 @@
         <v>189</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F60" s="3">
         <v>29</v>
@@ -4120,7 +4117,7 @@
         <v>45</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F61" s="3">
         <v>32</v>
@@ -4168,7 +4165,7 @@
         <v>6</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F62" s="3">
         <v>34</v>
@@ -4216,7 +4213,7 @@
         <v>6</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F63" s="3">
         <v>35</v>
@@ -4264,7 +4261,7 @@
         <v>6</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F64" s="3">
         <v>35</v>
@@ -4312,7 +4309,7 @@
         <v>41</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F65" s="3">
         <v>36</v>
@@ -4360,7 +4357,7 @@
         <v>45</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F66" s="3">
         <v>38</v>
@@ -4408,7 +4405,7 @@
         <v>45</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F67" s="3">
         <v>38</v>
@@ -4456,7 +4453,7 @@
         <v>45</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F68" s="3">
         <v>38</v>
@@ -4504,7 +4501,7 @@
         <v>23</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F69" s="3">
         <v>38</v>
@@ -4552,7 +4549,7 @@
         <v>37</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F70" s="3">
         <v>39</v>
@@ -4600,7 +4597,7 @@
         <v>41</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F71" s="3">
         <v>41</v>
@@ -4696,7 +4693,7 @@
         <v>37</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F73" s="3">
         <v>43</v>
@@ -4744,7 +4741,7 @@
         <v>22</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F74" s="3">
         <v>44</v>
@@ -4792,7 +4789,7 @@
         <v>6</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F75" s="3">
         <v>46</v>
@@ -4840,7 +4837,7 @@
         <v>186</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F76" s="3">
         <v>48</v>
@@ -4888,7 +4885,7 @@
         <v>6</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F77" s="3">
         <v>54</v>
@@ -4936,7 +4933,7 @@
         <v>45</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F78" s="3">
         <v>56</v>
@@ -4984,7 +4981,7 @@
         <v>23</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F79" s="7">
         <v>63</v>
@@ -5032,7 +5029,7 @@
         <v>45</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F80" s="3">
         <v>66</v>
@@ -5128,7 +5125,7 @@
         <v>183</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F82" s="3">
         <v>77</v>
@@ -5176,7 +5173,7 @@
         <v>6</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F83" s="3">
         <v>78</v>
@@ -5224,7 +5221,7 @@
         <v>41</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F84" s="3">
         <v>78</v>
@@ -5272,7 +5269,7 @@
         <v>23</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F85" s="3">
         <v>80</v>
@@ -5320,7 +5317,7 @@
         <v>184</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F86" s="3">
         <v>80</v>
@@ -5368,7 +5365,7 @@
         <v>6</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F87" s="3">
         <v>83</v>
@@ -5416,7 +5413,7 @@
         <v>6</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F88" s="10">
         <v>83</v>
@@ -5464,7 +5461,7 @@
         <v>22</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F89" s="7">
         <v>84</v>
@@ -5512,7 +5509,7 @@
         <v>6</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F90" s="3">
         <v>86</v>
@@ -5560,7 +5557,7 @@
         <v>6</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F91" s="3">
         <v>87</v>
@@ -5608,7 +5605,7 @@
         <v>24</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F92" s="10">
         <v>90</v>
@@ -5656,7 +5653,7 @@
         <v>45</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F93" s="10">
         <v>92</v>
@@ -5704,7 +5701,7 @@
         <v>6</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F94" s="3">
         <v>92</v>
@@ -5752,7 +5749,7 @@
         <v>55</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F95" s="3">
         <v>92</v>
@@ -5800,7 +5797,7 @@
         <v>57</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F96" s="3">
         <v>92</v>
@@ -5848,7 +5845,7 @@
         <v>188</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F97" s="3">
         <v>100</v>
@@ -5896,7 +5893,7 @@
         <v>28</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F98" s="3">
         <v>102</v>
@@ -5992,7 +5989,7 @@
         <v>187</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F100" s="3">
         <v>123</v>
@@ -6040,7 +6037,7 @@
         <v>6</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F101" s="3">
         <v>124</v>
@@ -6088,7 +6085,7 @@
         <v>45</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F102" s="3">
         <v>126</v>
@@ -6136,7 +6133,7 @@
         <v>6</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F103" s="3">
         <v>126</v>
@@ -6184,7 +6181,7 @@
         <v>23</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F104" s="3">
         <v>132</v>
@@ -6232,7 +6229,7 @@
         <v>6</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F105" s="3">
         <v>135</v>
@@ -6280,7 +6277,7 @@
         <v>187</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F106" s="3">
         <v>151</v>
@@ -6376,7 +6373,7 @@
         <v>24</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F108" s="3">
         <v>165</v>
@@ -6424,7 +6421,7 @@
         <v>6</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F109" s="3">
         <v>180</v>
@@ -6472,7 +6469,7 @@
         <v>6</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F110" s="3">
         <v>180</v>
@@ -6520,7 +6517,7 @@
         <v>182</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F111" s="3">
         <v>182</v>
@@ -6568,7 +6565,7 @@
         <v>32</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F112" s="3">
         <v>204</v>
@@ -6616,7 +6613,7 @@
         <v>6</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F113" s="3">
         <v>210</v>
@@ -6665,7 +6662,7 @@
         <v>6</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F114" s="3">
         <v>215</v>
@@ -6713,7 +6710,7 @@
         <v>22</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F115" s="3">
         <v>228</v>
@@ -6761,7 +6758,7 @@
         <v>186</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F116" s="3">
         <v>233</v>
@@ -6809,7 +6806,7 @@
         <v>22</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F117" s="3">
         <v>241</v>
@@ -6905,7 +6902,7 @@
         <v>46</v>
       </c>
       <c r="E119" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F119" s="10">
         <v>256</v>
@@ -6953,7 +6950,7 @@
         <v>186</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F120" s="3">
         <v>256</v>
@@ -7001,7 +6998,7 @@
         <v>45</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F121" s="3">
         <v>257</v>
@@ -7049,7 +7046,7 @@
         <v>38</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F122" s="3">
         <v>261</v>
@@ -7097,7 +7094,7 @@
         <v>55</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F123" s="3">
         <v>268</v>
@@ -7145,7 +7142,7 @@
         <v>180</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F124" s="3">
         <v>316</v>
@@ -7193,7 +7190,7 @@
         <v>38</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F125" s="3">
         <v>322</v>
@@ -7241,7 +7238,7 @@
         <v>45</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F126" s="3">
         <v>324</v>
@@ -7289,7 +7286,7 @@
         <v>6</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F127" s="3">
         <v>338</v>
@@ -7337,7 +7334,7 @@
         <v>46</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F128" s="3">
         <v>344</v>
@@ -7385,7 +7382,7 @@
         <v>24</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F129" s="3">
         <v>347</v>
@@ -7433,7 +7430,7 @@
         <v>6</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F130" s="3">
         <v>370</v>
@@ -7481,7 +7478,7 @@
         <v>32</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F131" s="3">
         <v>387</v>
@@ -7529,7 +7526,7 @@
         <v>41</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F132" s="3">
         <v>395</v>
@@ -7577,7 +7574,7 @@
         <v>6</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F133" s="3">
         <v>400</v>
@@ -7622,7 +7619,7 @@
         <v>185</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F134" s="3">
         <v>435</v>
@@ -7670,7 +7667,7 @@
         <v>182</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F135" s="3">
         <v>458</v>
@@ -7718,7 +7715,7 @@
         <v>22</v>
       </c>
       <c r="E136" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F136" s="7">
         <v>466</v>
@@ -7766,7 +7763,7 @@
         <v>52</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F137" s="3">
         <v>483</v>
@@ -7814,7 +7811,7 @@
         <v>32</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F138" s="3">
         <v>493</v>
@@ -7862,7 +7859,7 @@
         <v>6</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F139" s="3">
         <v>530</v>
@@ -7910,7 +7907,7 @@
         <v>51</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F140" s="3">
         <v>530</v>
@@ -7958,7 +7955,7 @@
         <v>185</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F141" s="3">
         <v>537</v>
@@ -8003,7 +8000,7 @@
         <v>6</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F142" s="3">
         <v>570</v>
@@ -8051,7 +8048,7 @@
         <v>45</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F143" s="3">
         <v>590</v>
@@ -8099,7 +8096,7 @@
         <v>41</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F144" s="3">
         <v>671</v>
@@ -8147,7 +8144,7 @@
         <v>36</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F145" s="3">
         <v>690</v>
@@ -8195,7 +8192,7 @@
         <v>20</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F146" s="3">
         <v>702</v>
@@ -8243,7 +8240,7 @@
         <v>28</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F147" s="3">
         <v>733</v>
@@ -8291,7 +8288,7 @@
         <v>182</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F148" s="3">
         <v>735</v>
@@ -8339,7 +8336,7 @@
         <v>29</v>
       </c>
       <c r="E149" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F149" s="7">
         <v>735.3</v>
@@ -8387,7 +8384,7 @@
         <v>38</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F150" s="3">
         <v>749</v>
@@ -8483,7 +8480,7 @@
         <v>180</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F152" s="3">
         <v>784</v>
@@ -8531,7 +8528,7 @@
         <v>6</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F153" s="3">
         <v>879</v>
@@ -8579,7 +8576,7 @@
         <v>37</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F154" s="3">
         <v>887</v>
@@ -8627,7 +8624,7 @@
         <v>36</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F155" s="3">
         <v>917</v>
@@ -8675,7 +8672,7 @@
         <v>50</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F156" s="3">
         <v>950</v>
@@ -8723,7 +8720,7 @@
         <v>36</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F157" s="3">
         <v>979</v>
@@ -8771,7 +8768,7 @@
         <v>180</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F158" s="3">
         <v>988</v>
@@ -8819,7 +8816,7 @@
         <v>6</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F159" s="3">
         <v>1000</v>
@@ -8867,7 +8864,7 @@
         <v>6</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F160" s="3">
         <v>1040</v>
@@ -8915,7 +8912,7 @@
         <v>37</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F161" s="3">
         <v>1044</v>
@@ -8963,7 +8960,7 @@
         <v>24</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F162" s="3">
         <v>1068</v>
@@ -9011,7 +9008,7 @@
         <v>24</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F163" s="3">
         <v>1084</v>
@@ -9059,7 +9056,7 @@
         <v>37</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F164" s="3">
         <v>1091</v>
@@ -9155,7 +9152,7 @@
         <v>28</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F166" s="3">
         <v>1098</v>
@@ -9251,7 +9248,7 @@
         <v>24</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F168" s="3">
         <v>1153</v>
@@ -9299,7 +9296,7 @@
         <v>6</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F169" s="3">
         <v>1200</v>
@@ -9347,7 +9344,7 @@
         <v>41</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F170" s="3">
         <v>1234</v>
@@ -9395,7 +9392,7 @@
         <v>24</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F171" s="3">
         <v>1257</v>
@@ -9443,7 +9440,7 @@
         <v>46</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F172" s="3">
         <v>1400</v>
@@ -9491,7 +9488,7 @@
         <v>20</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F173" s="3">
         <v>1513</v>
@@ -9536,7 +9533,7 @@
         <v>61</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F174" s="3">
         <v>1755.6</v>
@@ -9584,7 +9581,7 @@
         <v>28</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F175" s="3">
         <v>1843</v>
@@ -9632,7 +9629,7 @@
         <v>23</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F176" s="3">
         <v>1875</v>
@@ -9680,7 +9677,7 @@
         <v>6</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F177" s="3">
         <v>1890</v>
@@ -9728,7 +9725,7 @@
         <v>40</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F178" s="3">
         <v>1892</v>
@@ -9776,7 +9773,7 @@
         <v>63</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F179" s="3">
         <v>1971.2</v>
@@ -9872,7 +9869,7 @@
         <v>6</v>
       </c>
       <c r="E181" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F181" s="10">
         <v>2260</v>
@@ -9920,7 +9917,7 @@
         <v>22</v>
       </c>
       <c r="E182" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F182" s="3">
         <v>2382</v>
@@ -9968,7 +9965,7 @@
         <v>64</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F183" s="3">
         <v>2525.6</v>
@@ -10016,7 +10013,7 @@
         <v>61</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F184" s="3">
         <v>2872.8</v>
@@ -10064,7 +10061,7 @@
         <v>27</v>
       </c>
       <c r="E185" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F185" s="10">
         <v>2975.4</v>
@@ -10112,7 +10109,7 @@
         <v>40</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F186" s="3">
         <v>2983</v>
@@ -10160,7 +10157,7 @@
         <v>36</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F187" s="3">
         <v>3019</v>
@@ -10208,7 +10205,7 @@
         <v>33</v>
       </c>
       <c r="E188" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F188" s="3">
         <v>3102</v>
@@ -10256,7 +10253,7 @@
         <v>38</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F189" s="3">
         <v>3420</v>
@@ -10304,7 +10301,7 @@
         <v>38</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F190" s="3">
         <v>3624</v>
@@ -10352,7 +10349,7 @@
         <v>37</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F191" s="3">
         <v>3776</v>
@@ -10400,7 +10397,7 @@
         <v>6</v>
       </c>
       <c r="E192" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F192" s="3">
         <v>3800</v>
@@ -10448,7 +10445,7 @@
         <v>180</v>
       </c>
       <c r="E193" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F193" s="3">
         <v>3851</v>
@@ -10496,7 +10493,7 @@
         <v>32</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F194" s="3">
         <v>3972</v>
@@ -10508,7 +10505,7 @@
         <v>7</v>
       </c>
       <c r="I194" s="3">
-        <f t="shared" ref="I194:I257" si="12">-LOG(J194)</f>
+        <f t="shared" ref="I194:I253" si="12">-LOG(J194)</f>
         <v>5.7020207558406373</v>
       </c>
       <c r="J194" s="3">
@@ -10544,7 +10541,7 @@
         <v>180</v>
       </c>
       <c r="E195" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F195" s="3">
         <v>4012</v>
@@ -10592,7 +10589,7 @@
         <v>24</v>
       </c>
       <c r="E196" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F196" s="3">
         <v>4094</v>
@@ -10640,7 +10637,7 @@
         <v>36</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F197" s="3">
         <v>4120</v>
@@ -10688,7 +10685,7 @@
         <v>46</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F198" s="3">
         <v>4500</v>
@@ -10736,7 +10733,7 @@
         <v>46</v>
       </c>
       <c r="E199" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F199" s="3">
         <v>4566</v>
@@ -10784,7 +10781,7 @@
         <v>40</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F200" s="3">
         <v>4604</v>
@@ -10832,7 +10829,7 @@
         <v>28</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F201" s="3">
         <v>4971</v>
@@ -10880,7 +10877,7 @@
         <v>39</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F202" s="3">
         <v>5658</v>
@@ -10928,7 +10925,7 @@
         <v>32</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F203" s="3">
         <v>6559</v>
@@ -10976,7 +10973,7 @@
         <v>40</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F204" s="3">
         <v>6836</v>
@@ -11024,7 +11021,7 @@
         <v>32</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F205" s="3">
         <v>7361</v>
@@ -11072,7 +11069,7 @@
         <v>39</v>
       </c>
       <c r="E206" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F206" s="3">
         <v>7589</v>
@@ -11120,7 +11117,7 @@
         <v>6</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F207" s="3">
         <v>8300</v>
@@ -11168,7 +11165,7 @@
         <v>41</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F208" s="3">
         <v>8382</v>
@@ -11216,7 +11213,7 @@
         <v>41</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F209" s="3">
         <v>9605</v>
@@ -11264,7 +11261,7 @@
         <v>39</v>
       </c>
       <c r="E210" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F210" s="7">
         <v>9834</v>
@@ -11312,7 +11309,7 @@
         <v>180</v>
       </c>
       <c r="E211" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F211" s="3">
         <v>10656</v>
@@ -11360,7 +11357,7 @@
         <v>56</v>
       </c>
       <c r="E212" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F212" s="3">
         <v>10900</v>
@@ -11408,7 +11405,7 @@
         <v>64</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F213" s="3">
         <v>10961.1</v>
@@ -11456,7 +11453,7 @@
         <v>33</v>
       </c>
       <c r="E214" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F214" s="3">
         <v>14550</v>
@@ -11504,7 +11501,7 @@
         <v>36</v>
       </c>
       <c r="E215" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F215" s="3">
         <v>14861</v>
@@ -11552,7 +11549,7 @@
         <v>6</v>
       </c>
       <c r="E216" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F216" s="3">
         <v>15000</v>
@@ -11600,7 +11597,7 @@
         <v>35</v>
       </c>
       <c r="E217" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F217" s="3">
         <v>20400</v>
@@ -11648,7 +11645,7 @@
         <v>24</v>
       </c>
       <c r="E218" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F218" s="3">
         <v>20653</v>
@@ -11696,7 +11693,7 @@
         <v>40</v>
       </c>
       <c r="E219" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F219" s="3">
         <v>20823</v>
@@ -11744,7 +11741,7 @@
         <v>35</v>
       </c>
       <c r="E220" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F220" s="3">
         <v>22600</v>
@@ -11792,7 +11789,7 @@
         <v>32</v>
       </c>
       <c r="E221" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F221" s="3">
         <v>28750</v>
@@ -11840,7 +11837,7 @@
         <v>6</v>
       </c>
       <c r="E222" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F222" s="3">
         <v>33000</v>
@@ -11888,7 +11885,7 @@
         <v>35</v>
       </c>
       <c r="E223" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F223" s="3">
         <v>34200</v>
@@ -11936,7 +11933,7 @@
         <v>33</v>
       </c>
       <c r="E224" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F224" s="3">
         <v>35040</v>
@@ -11984,7 +11981,7 @@
         <v>63</v>
       </c>
       <c r="E225" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F225" s="3">
         <v>41604.300000000003</v>
@@ -12032,7 +12029,7 @@
         <v>40</v>
       </c>
       <c r="E226" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F226" s="3">
         <v>41665</v>
@@ -12080,7 +12077,7 @@
         <v>6</v>
       </c>
       <c r="E227" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F227" s="3">
         <v>43000</v>
@@ -12128,7 +12125,7 @@
         <v>32</v>
       </c>
       <c r="E228" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F228" s="3">
         <v>50000</v>
@@ -12176,7 +12173,7 @@
         <v>32</v>
       </c>
       <c r="E229" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F229" s="3">
         <v>50000</v>
@@ -12224,7 +12221,7 @@
         <v>39</v>
       </c>
       <c r="E230" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F230" s="3">
         <v>50000</v>
@@ -12272,7 +12269,7 @@
         <v>39</v>
       </c>
       <c r="E231" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F231" s="3">
         <v>50000</v>
@@ -12320,7 +12317,7 @@
         <v>39</v>
       </c>
       <c r="E232" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F232" s="3">
         <v>50000</v>
@@ -12368,7 +12365,7 @@
         <v>39</v>
       </c>
       <c r="E233" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F233" s="3">
         <v>50000</v>
@@ -12416,7 +12413,7 @@
         <v>39</v>
       </c>
       <c r="E234" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F234" s="3">
         <v>50000</v>
@@ -12464,7 +12461,7 @@
         <v>55</v>
       </c>
       <c r="E235" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F235" s="3">
         <v>50000</v>
@@ -12512,7 +12509,7 @@
         <v>40</v>
       </c>
       <c r="E236" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F236" s="3">
         <v>50000</v>
@@ -12560,7 +12557,7 @@
         <v>40</v>
       </c>
       <c r="E237" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F237" s="3">
         <v>50000</v>
@@ -12608,7 +12605,7 @@
         <v>37</v>
       </c>
       <c r="E238" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F238" s="3">
         <v>50000</v>
@@ -12656,7 +12653,7 @@
         <v>36</v>
       </c>
       <c r="E239" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F239" s="3">
         <v>50000</v>
@@ -12704,7 +12701,7 @@
         <v>36</v>
       </c>
       <c r="E240" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F240" s="3">
         <v>50000</v>
@@ -12800,7 +12797,7 @@
         <v>62</v>
       </c>
       <c r="E242" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F242" s="3">
         <v>50195.6</v>
@@ -12848,7 +12845,7 @@
         <v>26</v>
       </c>
       <c r="E243" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F243" s="3">
         <v>77309.100000000006</v>
@@ -12896,7 +12893,7 @@
         <v>27</v>
       </c>
       <c r="E244" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F244" s="10">
         <v>81460.399999999994</v>
@@ -12944,7 +12941,7 @@
         <v>65</v>
       </c>
       <c r="E245" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F245" s="3">
         <v>93979.199999999997</v>
@@ -12992,7 +12989,7 @@
         <v>35</v>
       </c>
       <c r="E246" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F246" s="3">
         <v>102600</v>
@@ -13040,7 +13037,7 @@
         <v>29</v>
       </c>
       <c r="E247" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F247" s="10">
         <v>107094.39999999999</v>
@@ -13088,7 +13085,7 @@
         <v>62</v>
       </c>
       <c r="E248" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F248" s="3">
         <v>109645.2</v>
@@ -13136,7 +13133,7 @@
         <v>26</v>
       </c>
       <c r="E249" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F249" s="3">
         <v>110017.60000000001</v>
@@ -13184,7 +13181,7 @@
         <v>65</v>
       </c>
       <c r="E250" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F250" s="3">
         <v>114193.8</v>
@@ -13232,7 +13229,7 @@
         <v>35</v>
       </c>
       <c r="E251" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F251" s="3">
         <v>126800</v>
@@ -13280,7 +13277,7 @@
         <v>33</v>
       </c>
       <c r="E252" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F252" s="3">
         <v>129900</v>
@@ -13328,7 +13325,7 @@
         <v>6</v>
       </c>
       <c r="E253" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F253" s="3">
         <v>257000</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11202"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janet Liu\Documents\2019-2020\CS221\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EEF82EB-96F8-7F41-ABE4-9FB21B485E14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B566C7-D0DA-4A08-A4B9-91A0BE7E076E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" xr2:uid="{8ACADFD3-D4EE-4ABF-AACA-8F0EE7039D4B}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14746" xr2:uid="{8ACADFD3-D4EE-4ABF-AACA-8F0EE7039D4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="235">
   <si>
     <t>Compound (SMILES)</t>
   </si>
@@ -1217,25 +1215,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81FC3777-24FE-4B88-BA57-2E8BD12CE519}">
-  <dimension ref="A1:O253"/>
+  <dimension ref="A1:O252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="72" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="C140" zoomScale="72" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="D166" sqref="D166"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="18.83203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="111.83203125" style="3" customWidth="1"/>
+    <col min="1" max="2" width="18.796875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="111.796875" style="3" customWidth="1"/>
     <col min="4" max="4" width="34.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="30.5" style="4" customWidth="1"/>
-    <col min="6" max="12" width="18.83203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="30.46484375" style="4" customWidth="1"/>
+    <col min="6" max="12" width="18.796875" style="3" customWidth="1"/>
     <col min="14" max="14" width="49.6640625" style="2" customWidth="1"/>
     <col min="15" max="15" width="15" style="2" customWidth="1"/>
     <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -1279,7 +1277,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -1327,7 +1325,7 @@
         <v>11.515700160653214</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -1375,7 +1373,7 @@
         <v>10.488116639021126</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -1423,7 +1421,7 @@
         <v>9.8538719643217618</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
@@ -1471,7 +1469,7 @@
         <v>9.3010299956639813</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
@@ -1519,7 +1517,7 @@
         <v>9.2218487496163561</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1567,7 +1565,7 @@
         <v>9.2218487496163561</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1615,7 +1613,7 @@
         <v>9.1870866433571443</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
@@ -1663,7 +1661,7 @@
         <v>9.1870866433571443</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -1711,7 +1709,7 @@
         <v>9.0969100130080562</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
@@ -1759,7 +1757,7 @@
         <v>9.0457574905606748</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
@@ -1807,7 +1805,7 @@
         <v>9.0222763947111524</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
@@ -1855,7 +1853,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1903,7 +1901,7 @@
         <v>8.9788107009300617</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>5</v>
       </c>
@@ -1948,7 +1946,7 @@
         <v>8.9393021596463882</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="10" t="s">
         <v>5</v>
       </c>
@@ -1996,7 +1994,7 @@
         <v>8.8386319977650256</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>5</v>
       </c>
@@ -2044,7 +2042,7 @@
         <v>8.8096683018297082</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
         <v>5</v>
       </c>
@@ -2092,7 +2090,7 @@
         <v>8.7825160557860933</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>5</v>
       </c>
@@ -2140,7 +2138,7 @@
         <v>8.6575773191777934</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>5</v>
       </c>
@@ -2188,7 +2186,7 @@
         <v>8.6478174818886373</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
         <v>5</v>
       </c>
@@ -2236,7 +2234,7 @@
         <v>8.6382721639824069</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>5</v>
       </c>
@@ -2284,7 +2282,7 @@
         <v>8.6108339156354674</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
         <v>19</v>
       </c>
@@ -2329,7 +2327,7 @@
         <v>8.6020599913279625</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>5</v>
       </c>
@@ -2377,7 +2375,7 @@
         <v>8.5451551399914898</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
         <v>5</v>
       </c>
@@ -2425,7 +2423,7 @@
         <v>8.5157001606532141</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
         <v>5</v>
       </c>
@@ -2473,7 +2471,7 @@
         <v>8.5016894462103991</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
         <v>5</v>
       </c>
@@ -2521,7 +2519,7 @@
         <v>8.4436974992327123</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
         <v>19</v>
       </c>
@@ -2569,7 +2567,7 @@
         <v>8.4089353929735005</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="s">
         <v>19</v>
       </c>
@@ -2617,7 +2615,7 @@
         <v>8.4089353929735005</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
         <v>5</v>
       </c>
@@ -2665,7 +2663,7 @@
         <v>8.3872161432802645</v>
       </c>
     </row>
-    <row r="31" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
         <v>19</v>
       </c>
@@ -2711,7 +2709,7 @@
         <v>8.361510743045363</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A32" s="7" t="s">
         <v>5</v>
       </c>
@@ -2759,7 +2757,7 @@
         <v>8.346787486224656</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
         <v>5</v>
       </c>
@@ -2807,7 +2805,7 @@
         <v>8.3372421683184257</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
         <v>5</v>
       </c>
@@ -2855,7 +2853,7 @@
         <v>8.3010299956639813</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A35" s="3" t="s">
         <v>5</v>
       </c>
@@ -2903,7 +2901,7 @@
         <v>8.2596373105057559</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
         <v>5</v>
       </c>
@@ -2951,7 +2949,7 @@
         <v>8.2218487496163561</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A37" s="3" t="s">
         <v>5</v>
       </c>
@@ -2999,7 +2997,7 @@
         <v>8.1870866433571443</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
         <v>5</v>
       </c>
@@ -3047,7 +3045,7 @@
         <v>8.1549019599857431</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A39" s="7" t="s">
         <v>17</v>
       </c>
@@ -3095,7 +3093,7 @@
         <v>8.1278437272517063</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
         <v>5</v>
       </c>
@@ -3143,7 +3141,7 @@
         <v>8.1249387366082999</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A41" s="3" t="s">
         <v>5</v>
       </c>
@@ -3191,7 +3189,7 @@
         <v>8.0705810742857071</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
         <v>5</v>
       </c>
@@ -3239,7 +3237,7 @@
         <v>8.0705810742857071</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A43" s="10" t="s">
         <v>19</v>
       </c>
@@ -3287,7 +3285,7 @@
         <v>8.0680338852718272</v>
       </c>
     </row>
-    <row r="44" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A44" s="7" t="s">
         <v>19</v>
       </c>
@@ -3335,7 +3333,7 @@
         <v>8.0315170514460643</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A45" s="3" t="s">
         <v>5</v>
       </c>
@@ -3383,7 +3381,7 @@
         <v>8.0222763947111524</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
         <v>5</v>
       </c>
@@ -3431,7 +3429,7 @@
         <v>8.0222763947111524</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A47" s="3" t="s">
         <v>5</v>
       </c>
@@ -3479,7 +3477,7 @@
         <v>8.0222763947111524</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
         <v>5</v>
       </c>
@@ -3527,7 +3525,7 @@
         <v>7.9788107009300617</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A49" s="3" t="s">
         <v>5</v>
       </c>
@@ -3575,7 +3573,7 @@
         <v>7.9788107009300617</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
         <v>17</v>
       </c>
@@ -3623,7 +3621,7 @@
         <v>7.9586073148417746</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A51" s="3" t="s">
         <v>17</v>
       </c>
@@ -3671,7 +3669,7 @@
         <v>7.9586073148417746</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
         <v>5</v>
       </c>
@@ -3719,7 +3717,7 @@
         <v>7.9393021596463882</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A53" s="3" t="s">
         <v>5</v>
       </c>
@@ -3767,7 +3765,7 @@
         <v>7.9393021596463882</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
         <v>5</v>
       </c>
@@ -3815,7 +3813,7 @@
         <v>7.9393021596463882</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A55" s="3" t="s">
         <v>5</v>
       </c>
@@ -3863,7 +3861,7 @@
         <v>7.9208187539523749</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
         <v>5</v>
       </c>
@@ -3911,7 +3909,7 @@
         <v>7.9208187539523749</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A57" s="3" t="s">
         <v>5</v>
       </c>
@@ -3959,7 +3957,7 @@
         <v>7.9030899869919438</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A58" s="7" t="s">
         <v>5</v>
       </c>
@@ -4007,7 +4005,7 @@
         <v>7.8860566476931631</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A59" s="3" t="s">
         <v>5</v>
       </c>
@@ -4055,7 +4053,7 @@
         <v>7.8860566476931631</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
         <v>5</v>
       </c>
@@ -4103,7 +4101,7 @@
         <v>7.8386319977650247</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A61" s="3" t="s">
         <v>5</v>
       </c>
@@ -4151,7 +4149,7 @@
         <v>7.795880017344075</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
         <v>5</v>
       </c>
@@ -4199,7 +4197,7 @@
         <v>7.7695510786217259</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A63" s="3" t="s">
         <v>5</v>
       </c>
@@ -4247,7 +4245,7 @@
         <v>7.7569619513137056</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
         <v>5</v>
       </c>
@@ -4295,7 +4293,7 @@
         <v>7.7569619513137056</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A65" s="3" t="s">
         <v>5</v>
       </c>
@@ -4343,7 +4341,7 @@
         <v>7.7447274948966935</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A66" s="3" t="s">
         <v>5</v>
       </c>
@@ -4391,7 +4389,7 @@
         <v>7.7212463990471711</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A67" s="3" t="s">
         <v>5</v>
       </c>
@@ -4439,7 +4437,7 @@
         <v>7.7212463990471711</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
         <v>5</v>
       </c>
@@ -4487,7 +4485,7 @@
         <v>7.7212463990471711</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A69" s="3" t="s">
         <v>17</v>
       </c>
@@ -4535,7 +4533,7 @@
         <v>7.7212463990471711</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
         <v>5</v>
       </c>
@@ -4583,7 +4581,7 @@
         <v>7.7099653886374817</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A71" s="3" t="s">
         <v>5</v>
       </c>
@@ -4631,7 +4629,7 @@
         <v>7.6882461389442458</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
         <v>5</v>
       </c>
@@ -4679,7 +4677,7 @@
         <v>7.6777807052660805</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A73" s="3" t="s">
         <v>5</v>
       </c>
@@ -4727,7 +4725,7 @@
         <v>7.6675615400843951</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A74" s="3" t="s">
         <v>5</v>
       </c>
@@ -4775,7 +4773,7 @@
         <v>7.6575773191777934</v>
       </c>
     </row>
-    <row r="75" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A75" s="3" t="s">
         <v>5</v>
       </c>
@@ -4823,7 +4821,7 @@
         <v>7.6382721639824069</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A76" s="3" t="s">
         <v>5</v>
       </c>
@@ -4871,7 +4869,7 @@
         <v>7.6197887582883936</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A77" s="3" t="s">
         <v>5</v>
       </c>
@@ -4919,7 +4917,7 @@
         <v>7.5686362358410131</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A78" s="3" t="s">
         <v>5</v>
       </c>
@@ -4967,7 +4965,7 @@
         <v>7.5528419686577806</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A79" s="7" t="s">
         <v>5</v>
       </c>
@@ -5015,7 +5013,7 @@
         <v>7.5016894462103991</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A80" s="3" t="s">
         <v>5</v>
       </c>
@@ -5063,7 +5061,7 @@
         <v>7.4814860601221129</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A81" s="3" t="s">
         <v>5</v>
       </c>
@@ -5111,7 +5109,7 @@
         <v>7.4749551929631544</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
         <v>5</v>
       </c>
@@ -5159,7 +5157,7 @@
         <v>7.414539270491499</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A83" s="3" t="s">
         <v>5</v>
       </c>
@@ -5207,7 +5205,7 @@
         <v>7.4089353929735005</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A84" s="3" t="s">
         <v>5</v>
       </c>
@@ -5255,7 +5253,7 @@
         <v>7.4089353929735005</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A85" s="3" t="s">
         <v>5</v>
       </c>
@@ -5303,7 +5301,7 @@
         <v>7.3979400086720375</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="s">
         <v>5</v>
       </c>
@@ -5351,7 +5349,7 @@
         <v>7.3979400086720375</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A87" s="3" t="s">
         <v>5</v>
       </c>
@@ -5399,7 +5397,7 @@
         <v>7.3819519032879075</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A88" s="10" t="s">
         <v>5</v>
       </c>
@@ -5447,7 +5445,7 @@
         <v>7.3819519032879075</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A89" s="7" t="s">
         <v>5</v>
       </c>
@@ -5495,7 +5493,7 @@
         <v>7.3767507096020992</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
         <v>5</v>
       </c>
@@ -5543,7 +5541,7 @@
         <v>7.3665315444204138</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A91" s="3" t="s">
         <v>5</v>
       </c>
@@ -5591,7 +5589,7 @@
         <v>7.361510743045363</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A92" s="10" t="s">
         <v>19</v>
       </c>
@@ -5639,7 +5637,7 @@
         <v>7.346787486224656</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A93" s="10" t="s">
         <v>5</v>
       </c>
@@ -5687,7 +5685,7 @@
         <v>7.3372421683184257</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A94" s="3" t="s">
         <v>5</v>
       </c>
@@ -5735,7 +5733,7 @@
         <v>7.3372421683184257</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A95" s="3" t="s">
         <v>5</v>
       </c>
@@ -5783,7 +5781,7 @@
         <v>7.3372421683184257</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A96" s="3" t="s">
         <v>5</v>
       </c>
@@ -5831,7 +5829,7 @@
         <v>7.3372421683184257</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A97" s="3" t="s">
         <v>5</v>
       </c>
@@ -5879,7 +5877,7 @@
         <v>7.3010299956639813</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A98" s="3" t="s">
         <v>5</v>
       </c>
@@ -5927,7 +5925,7 @@
         <v>7.2924298239020633</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A99" s="3" t="s">
         <v>5</v>
       </c>
@@ -5975,7 +5973,7 @@
         <v>7.2636034977233574</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A100" s="3" t="s">
         <v>5</v>
       </c>
@@ -6023,7 +6021,7 @@
         <v>7.2111248842245832</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A101" s="3" t="s">
         <v>5</v>
       </c>
@@ -6071,7 +6069,7 @@
         <v>7.2076083105017466</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A102" s="3" t="s">
         <v>5</v>
       </c>
@@ -6119,7 +6117,7 @@
         <v>7.2006594505464188</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A103" s="3" t="s">
         <v>5</v>
       </c>
@@ -6167,7 +6165,7 @@
         <v>7.2006594505464188</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A104" s="3" t="s">
         <v>5</v>
       </c>
@@ -6215,7 +6213,7 @@
         <v>7.1804560644581317</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A105" s="3" t="s">
         <v>5</v>
       </c>
@@ -6263,7 +6261,7 @@
         <v>7.1706962271689747</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A106" s="3" t="s">
         <v>5</v>
       </c>
@@ -6311,7 +6309,7 @@
         <v>7.1220530483708115</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A107" s="3" t="s">
         <v>5</v>
       </c>
@@ -6359,7 +6357,7 @@
         <v>7.1051303432547472</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A108" s="3" t="s">
         <v>5</v>
       </c>
@@ -6407,7 +6405,7 @@
         <v>7.0835460514500745</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A109" s="3" t="s">
         <v>17</v>
       </c>
@@ -6455,7 +6453,7 @@
         <v>7.0457574905606748</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A110" s="3" t="s">
         <v>5</v>
       </c>
@@ -6503,7 +6501,7 @@
         <v>7.0457574905606748</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A111" s="3" t="s">
         <v>5</v>
       </c>
@@ -6551,7 +6549,7 @@
         <v>7.0409586076789061</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A112" s="3" t="s">
         <v>5</v>
       </c>
@@ -6599,7 +6597,7 @@
         <v>6.991399828238082</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A113" s="3" t="s">
         <v>5</v>
       </c>
@@ -6648,7 +6646,7 @@
         <v>6.9788107009300617</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A114" s="3" t="s">
         <v>5</v>
       </c>
@@ -6696,7 +6694,7 @@
         <v>6.9685915357483754</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A115" s="3" t="s">
         <v>17</v>
       </c>
@@ -6744,7 +6742,7 @@
         <v>6.9430951486635273</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A116" s="3" t="s">
         <v>5</v>
       </c>
@@ -6792,7 +6790,7 @@
         <v>6.9336740746379624</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A117" s="3" t="s">
         <v>5</v>
       </c>
@@ -6840,7 +6838,7 @@
         <v>6.9190129530891129</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A118" s="3" t="s">
         <v>5</v>
       </c>
@@ -6888,7 +6886,7 @@
         <v>6.9013562741829428</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A119" s="10" t="s">
         <v>5</v>
       </c>
@@ -6936,7 +6934,7 @@
         <v>6.8927900303521312</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A120" s="3" t="s">
         <v>5</v>
       </c>
@@ -6984,7 +6982,7 @@
         <v>6.8927900303521312</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A121" s="3" t="s">
         <v>5</v>
       </c>
@@ -7032,7 +7030,7 @@
         <v>6.8910968723326871</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A122" s="3" t="s">
         <v>5</v>
       </c>
@@ -7080,7 +7078,7 @@
         <v>6.8843894883257004</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A123" s="3" t="s">
         <v>5</v>
       </c>
@@ -7128,7 +7126,7 @@
         <v>6.8728952016351927</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A124" s="3" t="s">
         <v>5</v>
       </c>
@@ -7176,7 +7174,7 @@
         <v>6.8013429130455769</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A125" s="3" t="s">
         <v>5</v>
       </c>
@@ -7224,7 +7222,7 @@
         <v>6.79317412396815</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A126" s="3" t="s">
         <v>5</v>
       </c>
@@ -7272,7 +7270,7 @@
         <v>6.7904849854573692</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A127" s="3" t="s">
         <v>5</v>
       </c>
@@ -7320,7 +7318,7 @@
         <v>6.7721132953863261</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A128" s="3" t="s">
         <v>5</v>
       </c>
@@ -7368,7 +7366,7 @@
         <v>6.7644715530924513</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A129" s="3" t="s">
         <v>5</v>
       </c>
@@ -7416,7 +7414,7 @@
         <v>6.7607005208731072</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A130" s="3" t="s">
         <v>5</v>
       </c>
@@ -7442,11 +7440,11 @@
         <v>7</v>
       </c>
       <c r="I130" s="3">
-        <f t="shared" ref="I130:I193" si="8">-LOG(J130)</f>
+        <f t="shared" ref="I130:I192" si="8">-LOG(J130)</f>
         <v>6.7328282715969863</v>
       </c>
       <c r="J130" s="3">
-        <f t="shared" ref="J130:J193" si="9">F130/2/10^9</f>
+        <f t="shared" ref="J130:J192" si="9">F130/2/10^9</f>
         <v>1.85E-7</v>
       </c>
       <c r="K130" s="3">
@@ -7464,7 +7462,7 @@
         <v>6.7328282715969863</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A131" s="3" t="s">
         <v>5</v>
       </c>
@@ -7504,15 +7502,15 @@
         <v>31</v>
       </c>
       <c r="N131" s="2" t="str">
-        <f t="shared" ref="N131:N194" si="10">CONCATENATE("ligand_",SUBSTITUTE(SUBSTITUTE(D131," ","."),"/","."),"_",B131)</f>
+        <f t="shared" ref="N131:N193" si="10">CONCATENATE("ligand_",SUBSTITUTE(SUBSTITUTE(D131," ","."),"/","."),"_",B131)</f>
         <v>ligand_rNaV1.4.E403D_STX.N21.2</v>
       </c>
       <c r="O131" s="2">
-        <f t="shared" ref="O131:O194" si="11">I131</f>
+        <f t="shared" ref="O131:O193" si="11">I131</f>
         <v>6.7133190306450699</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A132" s="3" t="s">
         <v>5</v>
       </c>
@@ -7560,7 +7558,7 @@
         <v>6.7044329000375207</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A133" s="3" t="s">
         <v>5</v>
       </c>
@@ -7605,7 +7603,7 @@
         <v>6.6989700043360187</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A134" s="3" t="s">
         <v>5</v>
       </c>
@@ -7653,7 +7651,7 @@
         <v>6.6625407387093443</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A135" s="3" t="s">
         <v>5</v>
       </c>
@@ -7701,7 +7699,7 @@
         <v>6.6401645176601116</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A136" s="7" t="s">
         <v>19</v>
       </c>
@@ -7749,7 +7747,7 @@
         <v>6.6326440789739811</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A137" s="3" t="s">
         <v>5</v>
       </c>
@@ -7797,7 +7795,7 @@
         <v>6.6170828649124687</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A138" s="3" t="s">
         <v>5</v>
       </c>
@@ -7845,7 +7843,7 @@
         <v>6.6081830763867515</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A139" s="3" t="s">
         <v>5</v>
       </c>
@@ -7893,7 +7891,7 @@
         <v>6.5767541260631921</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A140" s="3" t="s">
         <v>5</v>
       </c>
@@ -7941,7 +7939,7 @@
         <v>6.5767541260631921</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A141" s="3" t="s">
         <v>5</v>
       </c>
@@ -7986,7 +7984,7 @@
         <v>6.5710557099644253</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A142" s="3" t="s">
         <v>5</v>
       </c>
@@ -8034,7 +8032,7 @@
         <v>6.5451551399914898</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A143" s="3" t="s">
         <v>5</v>
       </c>
@@ -8082,7 +8080,7 @@
         <v>6.5301779840218375</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A144" s="3" t="s">
         <v>5</v>
       </c>
@@ -8130,7 +8128,7 @@
         <v>6.4743074754949888</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A145" s="3" t="s">
         <v>5</v>
       </c>
@@ -8178,7 +8176,7 @@
         <v>6.4621809049267256</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A146" s="3" t="s">
         <v>5</v>
       </c>
@@ -8226,7 +8224,7 @@
         <v>6.4546928835341761</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A147" s="3" t="s">
         <v>5</v>
       </c>
@@ -8274,7 +8272,7 @@
         <v>6.435926021022853</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A148" s="3" t="s">
         <v>5</v>
       </c>
@@ -8322,7 +8320,7 @@
         <v>6.4347426565797861</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A149" s="7" t="s">
         <v>19</v>
       </c>
@@ -8370,7 +8368,7 @@
         <v>6.434565429692241</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A150" s="3" t="s">
         <v>5</v>
       </c>
@@ -8418,7 +8416,7 @@
         <v>6.4265481779645146</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A151" s="3" t="s">
         <v>5</v>
       </c>
@@ -8466,7 +8464,7 @@
         <v>6.4072682336060378</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A152" s="3" t="s">
         <v>5</v>
       </c>
@@ -8514,7 +8512,7 @@
         <v>6.4067139329795424</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A153" s="3" t="s">
         <v>5</v>
       </c>
@@ -8562,7 +8560,7 @@
         <v>6.3570411205902095</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A154" s="3" t="s">
         <v>5</v>
       </c>
@@ -8610,7 +8608,7 @@
         <v>6.3531063758322546</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A155" s="3" t="s">
         <v>5</v>
       </c>
@@ -8658,7 +8656,7 @@
         <v>6.3386606599939599</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A156" s="3" t="s">
         <v>19</v>
       </c>
@@ -8706,7 +8704,7 @@
         <v>6.3233063903751336</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A157" s="3" t="s">
         <v>5</v>
       </c>
@@ -8754,7 +8752,7 @@
         <v>6.3102473038608435</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A158" s="3" t="s">
         <v>5</v>
       </c>
@@ -8802,7 +8800,7 @@
         <v>6.3062730510763529</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A159" s="3" t="s">
         <v>5</v>
       </c>
@@ -8850,7 +8848,7 @@
         <v>6.3010299956639813</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A160" s="3" t="s">
         <v>5</v>
       </c>
@@ -8898,7 +8896,7 @@
         <v>6.2839966563652006</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A161" s="3" t="s">
         <v>5</v>
       </c>
@@ -8946,7 +8944,7 @@
         <v>6.2823294969977379</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A162" s="3" t="s">
         <v>5</v>
       </c>
@@ -8994,7 +8992,7 @@
         <v>6.2724587429714438</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A163" s="3" t="s">
         <v>17</v>
       </c>
@@ -9042,7 +9040,7 @@
         <v>6.2660007134616134</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A164" s="3" t="s">
         <v>5</v>
       </c>
@@ -9090,7 +9088,7 @@
         <v>6.263205245075639</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A165" s="3" t="s">
         <v>5</v>
       </c>
@@ -9138,7 +9136,7 @@
         <v>6.261615876487844</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A166" s="3" t="s">
         <v>5</v>
       </c>
@@ -9186,7 +9184,7 @@
         <v>6.2604276555499085</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A167" s="3" t="s">
         <v>5</v>
       </c>
@@ -9234,86 +9232,86 @@
         <v>6.2437443512457662</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A168" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="F168" s="3">
-        <v>1153</v>
+        <v>1200</v>
       </c>
       <c r="G168" s="3">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H168" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I168" s="3">
         <f t="shared" si="8"/>
-        <v>6.2392006883692819</v>
+        <v>6.2218487496163561</v>
       </c>
       <c r="J168" s="3">
         <f t="shared" si="9"/>
-        <v>5.7650000000000001E-7</v>
+        <v>5.9999999999999997E-7</v>
       </c>
       <c r="K168" s="3">
         <v>0</v>
       </c>
       <c r="L168" s="3" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="N168" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>ligand_rNaV1.4.M1240T.D1241I_STX</v>
+        <v>ligand_rNaV1.4_STX.C10.1.C13.2</v>
       </c>
       <c r="O168" s="2">
         <f t="shared" si="11"/>
-        <v>6.2392006883692819</v>
-      </c>
-    </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
+        <v>6.2218487496163561</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A169" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E169" s="6" t="s">
-        <v>195</v>
+        <v>41</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="F169" s="3">
-        <v>1200</v>
+        <v>1234</v>
       </c>
       <c r="G169" s="3">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="H169" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I169" s="3">
         <f t="shared" si="8"/>
-        <v>6.2218487496163561</v>
+        <v>6.209714835966758</v>
       </c>
       <c r="J169" s="3">
         <f t="shared" si="9"/>
-        <v>5.9999999999999997E-7</v>
+        <v>6.1699999999999998E-7</v>
       </c>
       <c r="K169" s="3">
         <v>0</v>
@@ -9323,45 +9321,45 @@
       </c>
       <c r="N169" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>ligand_rNaV1.4_STX.C10.1.C13.2</v>
+        <v>ligand_rNaV1.4.M1240A_STX.C10.1</v>
       </c>
       <c r="O169" s="2">
         <f t="shared" si="11"/>
-        <v>6.2218487496163561</v>
-      </c>
-    </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
+        <v>6.209714835966758</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A170" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E170" s="4" t="s">
-        <v>203</v>
+        <v>24</v>
+      </c>
+      <c r="E170" s="6" t="s">
+        <v>205</v>
       </c>
       <c r="F170" s="3">
-        <v>1234</v>
+        <v>1257</v>
       </c>
       <c r="G170" s="3">
-        <v>36</v>
+        <v>137</v>
       </c>
       <c r="H170" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I170" s="3">
         <f t="shared" si="8"/>
-        <v>6.209714835966758</v>
+        <v>6.2016947179780235</v>
       </c>
       <c r="J170" s="3">
         <f t="shared" si="9"/>
-        <v>6.1699999999999998E-7</v>
+        <v>6.285E-7</v>
       </c>
       <c r="K170" s="3">
         <v>0</v>
@@ -9371,234 +9369,234 @@
       </c>
       <c r="N170" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>ligand_rNaV1.4.M1240A_STX.C10.1</v>
+        <v>ligand_rNaV1.4.M1240T.D1241I_STX.C10.1.C13.2</v>
       </c>
       <c r="O170" s="2">
         <f t="shared" si="11"/>
-        <v>6.209714835966758</v>
-      </c>
-    </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
+        <v>6.2016947179780235</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A171" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>85</v>
+        <v>133</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="F171" s="3">
-        <v>1257</v>
+        <v>1400</v>
       </c>
       <c r="G171" s="3">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="H171" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I171" s="3">
         <f t="shared" si="8"/>
-        <v>6.2016947179780235</v>
+        <v>6.1549019599857431</v>
       </c>
       <c r="J171" s="3">
         <f t="shared" si="9"/>
-        <v>6.285E-7</v>
+        <v>6.9999999999999997E-7</v>
       </c>
       <c r="K171" s="3">
         <v>0</v>
       </c>
       <c r="L171" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="N171" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>ligand_rNaV1.4.M1240T.D1241I_STX.C10.1.C13.2</v>
+        <v>ligand_hNaV1.5_STX.N21.25</v>
       </c>
       <c r="O171" s="2">
         <f t="shared" si="11"/>
-        <v>6.2016947179780235</v>
-      </c>
-    </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
+        <v>6.1549019599857431</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A172" s="3" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E172" s="6" t="s">
-        <v>196</v>
+        <v>20</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>205</v>
       </c>
       <c r="F172" s="3">
-        <v>1400</v>
+        <v>1513</v>
       </c>
       <c r="G172" s="3">
-        <v>170</v>
+        <v>55</v>
       </c>
       <c r="H172" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I172" s="3">
         <f t="shared" si="8"/>
-        <v>6.1549019599857431</v>
+        <v>6.1211910676407948</v>
       </c>
       <c r="J172" s="3">
         <f t="shared" si="9"/>
-        <v>6.9999999999999997E-7</v>
+        <v>7.5649999999999998E-7</v>
       </c>
       <c r="K172" s="3">
         <v>0</v>
-      </c>
-      <c r="L172" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="N172" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>ligand_hNaV1.5_STX.N21.25</v>
+        <v>ligand_hNaV1.7_GTX.3</v>
       </c>
       <c r="O172" s="2">
         <f t="shared" si="11"/>
-        <v>6.1549019599857431</v>
-      </c>
-    </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
+        <v>6.1211910676407948</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A173" s="3" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>144</v>
+        <v>8</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="F173" s="3">
-        <v>1513</v>
+        <v>1755.6</v>
       </c>
       <c r="G173" s="3">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="H173" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I173" s="3">
         <f t="shared" si="8"/>
-        <v>6.1211910676407948</v>
+        <v>6.0566044234910459</v>
       </c>
       <c r="J173" s="3">
         <f t="shared" si="9"/>
-        <v>7.5649999999999998E-7</v>
+        <v>8.7779999999999999E-7</v>
       </c>
       <c r="K173" s="3">
         <v>0</v>
+      </c>
+      <c r="L173" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="N173" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>ligand_hNaV1.7_GTX.3</v>
+        <v>ligand_rNaV1.4.D400A_STX</v>
       </c>
       <c r="O173" s="2">
         <f t="shared" si="11"/>
-        <v>6.1211910676407948</v>
-      </c>
-    </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
+        <v>6.0566044234910459</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A174" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="F174" s="3">
-        <v>1755.6</v>
+        <v>1843</v>
       </c>
       <c r="G174" s="3">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="H174" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I174" s="3">
         <f t="shared" si="8"/>
-        <v>6.0566044234910459</v>
+        <v>6.0355046604449072</v>
       </c>
       <c r="J174" s="3">
         <f t="shared" si="9"/>
-        <v>8.7779999999999999E-7</v>
+        <v>9.2149999999999999E-7</v>
       </c>
       <c r="K174" s="3">
         <v>0</v>
       </c>
       <c r="L174" s="3" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="N174" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>ligand_rNaV1.4.D400A_STX</v>
+        <v>ligand_rNaV1.4.D1241A_STX.N7.1</v>
       </c>
       <c r="O174" s="2">
         <f t="shared" si="11"/>
-        <v>6.0566044234910459</v>
-      </c>
-    </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
+        <v>6.0355046604449072</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A175" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E175" s="4" t="s">
-        <v>198</v>
+        <v>23</v>
+      </c>
+      <c r="E175" s="6" t="s">
+        <v>199</v>
       </c>
       <c r="F175" s="3">
-        <v>1843</v>
+        <v>1875</v>
       </c>
       <c r="G175" s="3">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="H175" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I175" s="3">
         <f t="shared" si="8"/>
-        <v>6.0355046604449072</v>
+        <v>6.0280287236002437</v>
       </c>
       <c r="J175" s="3">
         <f t="shared" si="9"/>
-        <v>9.2149999999999999E-7</v>
+        <v>9.3750000000000002E-7</v>
       </c>
       <c r="K175" s="3">
         <v>0</v>
@@ -9608,110 +9606,110 @@
       </c>
       <c r="N175" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>ligand_rNaV1.4.D1241A_STX.N7.1</v>
+        <v>ligand_rNaV1.4.D1241I_STX.C10.1</v>
       </c>
       <c r="O175" s="2">
         <f t="shared" si="11"/>
-        <v>6.0355046604449072</v>
-      </c>
-    </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
+        <v>6.0280287236002437</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A176" s="3" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>11</v>
+        <v>148</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E176" s="6" t="s">
-        <v>199</v>
+        <v>6</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>195</v>
       </c>
       <c r="F176" s="3">
-        <v>1875</v>
+        <v>1890</v>
       </c>
       <c r="G176" s="3">
-        <v>172</v>
+        <v>50</v>
       </c>
       <c r="H176" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I176" s="3">
         <f t="shared" si="8"/>
-        <v>6.0280287236002437</v>
+        <v>6.0245681914907374</v>
       </c>
       <c r="J176" s="3">
         <f t="shared" si="9"/>
-        <v>9.3750000000000002E-7</v>
+        <v>9.4499999999999995E-7</v>
       </c>
       <c r="K176" s="3">
         <v>0</v>
       </c>
       <c r="L176" s="3" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="N176" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>ligand_rNaV1.4.D1241I_STX.C10.1</v>
+        <v>ligand_rNaV1.4_GTX.3.1</v>
       </c>
       <c r="O176" s="2">
         <f t="shared" si="11"/>
-        <v>6.0280287236002437</v>
-      </c>
-    </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
+        <v>6.0245681914907374</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A177" s="3" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>145</v>
+        <v>5</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>148</v>
+        <v>8</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="F177" s="3">
-        <v>1890</v>
+        <v>1892</v>
       </c>
       <c r="G177" s="3">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="H177" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I177" s="3">
         <f t="shared" si="8"/>
-        <v>6.0245681914907374</v>
+        <v>6.0241088635982072</v>
       </c>
       <c r="J177" s="3">
         <f t="shared" si="9"/>
-        <v>9.4499999999999995E-7</v>
+        <v>9.4600000000000003E-7</v>
       </c>
       <c r="K177" s="3">
         <v>0</v>
       </c>
       <c r="L177" s="3" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="N177" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>ligand_rNaV1.4_GTX.3.1</v>
+        <v>ligand_rNaV1.4.W1239A_STX</v>
       </c>
       <c r="O177" s="2">
         <f t="shared" si="11"/>
-        <v>6.0245681914907374</v>
-      </c>
-    </row>
-    <row r="178" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>6.0241088635982072</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A178" s="3" t="s">
         <v>5</v>
       </c>
@@ -9722,253 +9720,253 @@
         <v>8</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="F178" s="3">
-        <v>1892</v>
+        <v>1971.2</v>
       </c>
       <c r="G178" s="3">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H178" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I178" s="3">
         <f t="shared" si="8"/>
-        <v>6.0241088635982072</v>
+        <v>6.0062993051796498</v>
       </c>
       <c r="J178" s="3">
         <f t="shared" si="9"/>
-        <v>9.4600000000000003E-7</v>
+        <v>9.8559999999999993E-7</v>
       </c>
       <c r="K178" s="3">
         <v>0</v>
       </c>
       <c r="L178" s="3" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="N178" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>ligand_rNaV1.4.W1239A_STX</v>
+        <v>ligand_rNaV1.4.M1240E_STX</v>
       </c>
       <c r="O178" s="2">
         <f t="shared" si="11"/>
-        <v>6.0241088635982072</v>
-      </c>
-    </row>
-    <row r="179" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>6.0062993051796498</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A179" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>63</v>
+        <v>181</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>220</v>
+        <v>178</v>
       </c>
       <c r="F179" s="3">
-        <v>1971.2</v>
+        <v>2167</v>
       </c>
       <c r="G179" s="3">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="H179" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I179" s="3">
         <f t="shared" si="8"/>
-        <v>6.0062993051796498</v>
+        <v>5.9651710843441634</v>
       </c>
       <c r="J179" s="3">
         <f t="shared" si="9"/>
-        <v>9.8559999999999993E-7</v>
+        <v>1.0835000000000001E-6</v>
       </c>
       <c r="K179" s="3">
         <v>0</v>
       </c>
       <c r="L179" s="3" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="N179" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>ligand_rNaV1.4.M1240E_STX</v>
+        <v>ligand_rNaV1.4.M1240T.D1241A_STX.C13.3</v>
       </c>
       <c r="O179" s="2">
         <f t="shared" si="11"/>
-        <v>6.0062993051796498</v>
-      </c>
-    </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A180" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C180" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D180" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="E180" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="F180" s="3">
-        <v>2167</v>
-      </c>
-      <c r="G180" s="3">
-        <v>214</v>
-      </c>
-      <c r="H180" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I180" s="3">
+        <v>5.9651710843441634</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A180" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B180" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C180" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D180" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E180" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="F180" s="10">
+        <v>2260</v>
+      </c>
+      <c r="G180" s="10">
+        <v>0</v>
+      </c>
+      <c r="H180" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I180" s="10">
         <f t="shared" si="8"/>
-        <v>5.9651710843441634</v>
+        <v>5.9469215565165801</v>
       </c>
       <c r="J180" s="3">
         <f t="shared" si="9"/>
-        <v>1.0835000000000001E-6</v>
-      </c>
-      <c r="K180" s="3">
-        <v>0</v>
-      </c>
-      <c r="L180" s="3" t="s">
-        <v>31</v>
+        <v>1.13E-6</v>
+      </c>
+      <c r="K180" s="10">
+        <v>0</v>
+      </c>
+      <c r="L180" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="N180" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>ligand_rNaV1.4.M1240T.D1241A_STX.C13.3</v>
+        <v>ligand_rNaV1.4_STX.C11.1</v>
       </c>
       <c r="O180" s="2">
         <f t="shared" si="11"/>
-        <v>5.9651710843441634</v>
-      </c>
-    </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A181" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B181" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C181" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D181" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E181" s="14" t="s">
+        <v>5.9469215565165801</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A181" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E181" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="F181" s="10">
-        <v>2260</v>
-      </c>
-      <c r="G181" s="10">
-        <v>0</v>
-      </c>
-      <c r="H181" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I181" s="10">
+      <c r="F181" s="3">
+        <v>2382</v>
+      </c>
+      <c r="G181" s="3">
+        <v>201</v>
+      </c>
+      <c r="H181" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I181" s="3">
         <f t="shared" si="8"/>
-        <v>5.9469215565165801</v>
+        <v>5.9240882385172222</v>
       </c>
       <c r="J181" s="3">
         <f t="shared" si="9"/>
-        <v>1.13E-6</v>
-      </c>
-      <c r="K181" s="10">
-        <v>0</v>
-      </c>
-      <c r="L181" s="10" t="s">
-        <v>58</v>
+        <v>1.1909999999999999E-6</v>
+      </c>
+      <c r="K181" s="3">
+        <v>0</v>
+      </c>
+      <c r="L181" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="N181" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>ligand_rNaV1.4_STX.C11.1</v>
+        <v>ligand_rNaV1.4.M1240T_STX.C10.1</v>
       </c>
       <c r="O181" s="2">
         <f t="shared" si="11"/>
-        <v>5.9469215565165801</v>
-      </c>
-    </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
+        <v>5.9240882385172222</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A182" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E182" s="6" t="s">
-        <v>195</v>
+        <v>64</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>217</v>
       </c>
       <c r="F182" s="3">
-        <v>2382</v>
+        <v>2525.6</v>
       </c>
       <c r="G182" s="3">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="H182" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I182" s="3">
         <f t="shared" si="8"/>
-        <v>5.9240882385172222</v>
+        <v>5.8986654267798206</v>
       </c>
       <c r="J182" s="3">
         <f t="shared" si="9"/>
-        <v>1.1909999999999999E-6</v>
+        <v>1.2628E-6</v>
       </c>
       <c r="K182" s="3">
         <v>0</v>
       </c>
       <c r="L182" s="3" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="N182" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>ligand_rNaV1.4.M1240T_STX.C10.1</v>
+        <v>ligand_rNaV1.4.K1237A_STX</v>
       </c>
       <c r="O182" s="2">
         <f t="shared" si="11"/>
-        <v>5.9240882385172222</v>
-      </c>
-    </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
+        <v>5.8986654267798206</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A183" s="3" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F183" s="3">
-        <v>2525.6</v>
+        <v>2872.8</v>
       </c>
       <c r="G183" s="3">
         <v>0</v>
@@ -9978,11 +9976,11 @@
       </c>
       <c r="I183" s="3">
         <f t="shared" si="8"/>
-        <v>5.8986654267798206</v>
+        <v>5.8427246035459648</v>
       </c>
       <c r="J183" s="3">
         <f t="shared" si="9"/>
-        <v>1.2628E-6</v>
+        <v>1.4364000000000001E-6</v>
       </c>
       <c r="K183" s="3">
         <v>0</v>
@@ -9992,141 +9990,141 @@
       </c>
       <c r="N183" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>ligand_rNaV1.4.K1237A_STX</v>
+        <v>ligand_rNaV1.4.D400A_TTX</v>
       </c>
       <c r="O183" s="2">
         <f t="shared" si="11"/>
-        <v>5.8986654267798206</v>
-      </c>
-    </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A184" s="3" t="s">
+        <v>5.8427246035459648</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A184" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B184" s="3" t="s">
+      <c r="B184" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C184" s="3" t="s">
+      <c r="C184" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D184" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E184" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="F184" s="3">
-        <v>2872.8</v>
-      </c>
-      <c r="G184" s="3">
-        <v>0</v>
-      </c>
-      <c r="H184" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I184" s="3">
+      <c r="D184" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E184" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="F184" s="10">
+        <v>2975.4</v>
+      </c>
+      <c r="G184" s="10">
+        <v>0</v>
+      </c>
+      <c r="H184" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I184" s="10">
         <f t="shared" si="8"/>
-        <v>5.8427246035459648</v>
+        <v>5.8274846369892277</v>
       </c>
       <c r="J184" s="3">
         <f t="shared" si="9"/>
-        <v>1.4364000000000001E-6</v>
-      </c>
-      <c r="K184" s="3">
-        <v>0</v>
-      </c>
-      <c r="L184" s="3" t="s">
+        <v>1.4877E-6</v>
+      </c>
+      <c r="K184" s="10">
+        <v>0</v>
+      </c>
+      <c r="L184" s="10" t="s">
         <v>58</v>
       </c>
       <c r="N184" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>ligand_rNaV1.4.D400A_TTX</v>
+        <v>ligand_rNaV1.4.E758Q_TTX</v>
       </c>
       <c r="O184" s="2">
         <f t="shared" si="11"/>
-        <v>5.8427246035459648</v>
-      </c>
-    </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A185" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B185" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C185" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D185" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E185" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="F185" s="10">
-        <v>2975.4</v>
-      </c>
-      <c r="G185" s="10">
-        <v>0</v>
-      </c>
-      <c r="H185" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I185" s="10">
+        <v>5.8274846369892277</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A185" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F185" s="3">
+        <v>2983</v>
+      </c>
+      <c r="G185" s="3">
+        <v>114</v>
+      </c>
+      <c r="H185" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I185" s="3">
         <f t="shared" si="8"/>
-        <v>5.8274846369892277</v>
+        <v>5.8263767423019184</v>
       </c>
       <c r="J185" s="3">
         <f t="shared" si="9"/>
-        <v>1.4877E-6</v>
-      </c>
-      <c r="K185" s="10">
-        <v>0</v>
-      </c>
-      <c r="L185" s="10" t="s">
-        <v>58</v>
+        <v>1.4915E-6</v>
+      </c>
+      <c r="K185" s="3">
+        <v>0</v>
+      </c>
+      <c r="L185" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="N185" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>ligand_rNaV1.4.E758Q_TTX</v>
+        <v>ligand_rNaV1.4.W1239A_STX.N21.1</v>
       </c>
       <c r="O185" s="2">
         <f t="shared" si="11"/>
-        <v>5.8274846369892277</v>
-      </c>
-    </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
+        <v>5.8263767423019184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A186" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F186" s="3">
-        <v>2983</v>
+        <v>3019</v>
       </c>
       <c r="G186" s="3">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="H186" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I186" s="3">
         <f t="shared" si="8"/>
-        <v>5.8263767423019184</v>
+        <v>5.8211668826408838</v>
       </c>
       <c r="J186" s="3">
         <f t="shared" si="9"/>
-        <v>1.4915E-6</v>
+        <v>1.5094999999999999E-6</v>
       </c>
       <c r="K186" s="3">
         <v>0</v>
@@ -10136,45 +10134,45 @@
       </c>
       <c r="N186" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>ligand_rNaV1.4.W1239A_STX.N21.1</v>
+        <v>ligand_rNaV1.4.Y401A_STX.C13.1</v>
       </c>
       <c r="O186" s="2">
         <f t="shared" si="11"/>
-        <v>5.8263767423019184</v>
-      </c>
-    </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
+        <v>5.8211668826408838</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A187" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E187" s="4" t="s">
-        <v>229</v>
+        <v>33</v>
+      </c>
+      <c r="E187" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="F187" s="3">
-        <v>3019</v>
+        <v>3102</v>
       </c>
       <c r="G187" s="3">
-        <v>146</v>
+        <v>235</v>
       </c>
       <c r="H187" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I187" s="3">
         <f t="shared" si="8"/>
-        <v>5.8211668826408838</v>
+        <v>5.809388202186395</v>
       </c>
       <c r="J187" s="3">
         <f t="shared" si="9"/>
-        <v>1.5094999999999999E-6</v>
+        <v>1.5510000000000001E-6</v>
       </c>
       <c r="K187" s="3">
         <v>0</v>
@@ -10184,45 +10182,45 @@
       </c>
       <c r="N187" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>ligand_rNaV1.4.Y401A_STX.C13.1</v>
+        <v>ligand_rNaV1.4.E403D.M1240T.D1241I_STX.C13.2</v>
       </c>
       <c r="O187" s="2">
         <f t="shared" si="11"/>
-        <v>5.8211668826408838</v>
-      </c>
-    </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
+        <v>5.809388202186395</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A188" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E188" s="6" t="s">
-        <v>213</v>
+        <v>38</v>
+      </c>
+      <c r="E188" s="4" t="s">
+        <v>216</v>
       </c>
       <c r="F188" s="3">
-        <v>3102</v>
+        <v>3420</v>
       </c>
       <c r="G188" s="3">
-        <v>235</v>
+        <v>146</v>
       </c>
       <c r="H188" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I188" s="3">
         <f t="shared" si="8"/>
-        <v>5.809388202186395</v>
+        <v>5.7670038896078459</v>
       </c>
       <c r="J188" s="3">
         <f t="shared" si="9"/>
-        <v>1.5510000000000001E-6</v>
+        <v>1.7099999999999999E-6</v>
       </c>
       <c r="K188" s="3">
         <v>0</v>
@@ -10232,22 +10230,22 @@
       </c>
       <c r="N188" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>ligand_rNaV1.4.E403D.M1240T.D1241I_STX.C13.2</v>
+        <v>ligand_rNaV1.4.I757A_STX.N7.1</v>
       </c>
       <c r="O188" s="2">
         <f t="shared" si="11"/>
-        <v>5.809388202186395</v>
-      </c>
-    </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
+        <v>5.7670038896078459</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A189" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D189" s="3" t="s">
         <v>38</v>
@@ -10256,21 +10254,21 @@
         <v>216</v>
       </c>
       <c r="F189" s="3">
-        <v>3420</v>
+        <v>3624</v>
       </c>
       <c r="G189" s="3">
-        <v>146</v>
+        <v>199</v>
       </c>
       <c r="H189" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I189" s="3">
         <f t="shared" si="8"/>
-        <v>5.7670038896078459</v>
+        <v>5.7418418066592061</v>
       </c>
       <c r="J189" s="3">
         <f t="shared" si="9"/>
-        <v>1.7099999999999999E-6</v>
+        <v>1.812E-6</v>
       </c>
       <c r="K189" s="3">
         <v>0</v>
@@ -10280,45 +10278,45 @@
       </c>
       <c r="N189" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>ligand_rNaV1.4.I757A_STX.N7.1</v>
+        <v>ligand_rNaV1.4.I757A_STX.N9.1</v>
       </c>
       <c r="O189" s="2">
         <f t="shared" si="11"/>
-        <v>5.7670038896078459</v>
-      </c>
-    </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
+        <v>5.7418418066592061</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A190" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="F190" s="3">
-        <v>3624</v>
+        <v>3776</v>
       </c>
       <c r="G190" s="3">
-        <v>199</v>
+        <v>947</v>
       </c>
       <c r="H190" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I190" s="3">
         <f t="shared" si="8"/>
-        <v>5.7418418066592061</v>
+        <v>5.7239980100379499</v>
       </c>
       <c r="J190" s="3">
         <f t="shared" si="9"/>
-        <v>1.812E-6</v>
+        <v>1.888E-6</v>
       </c>
       <c r="K190" s="3">
         <v>0</v>
@@ -10328,141 +10326,141 @@
       </c>
       <c r="N190" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>ligand_rNaV1.4.I757A_STX.N9.1</v>
+        <v>ligand_rNaV1.4.W756A_STX.N7.1</v>
       </c>
       <c r="O190" s="2">
         <f t="shared" si="11"/>
-        <v>5.7418418066592061</v>
-      </c>
-    </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
+        <v>5.7239980100379499</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A191" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>69</v>
+        <v>130</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>9</v>
+        <v>129</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E191" s="4" t="s">
-        <v>228</v>
+        <v>6</v>
+      </c>
+      <c r="E191" s="6" t="s">
+        <v>195</v>
       </c>
       <c r="F191" s="3">
-        <v>3776</v>
+        <v>3800</v>
       </c>
       <c r="G191" s="3">
-        <v>947</v>
+        <v>900</v>
       </c>
       <c r="H191" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I191" s="3">
         <f t="shared" si="8"/>
-        <v>5.7239980100379499</v>
+        <v>5.7212463990471711</v>
       </c>
       <c r="J191" s="3">
         <f t="shared" si="9"/>
-        <v>1.888E-6</v>
+        <v>1.9E-6</v>
       </c>
       <c r="K191" s="3">
         <v>0</v>
       </c>
       <c r="L191" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="N191" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>ligand_rNaV1.4.W756A_STX.N7.1</v>
+        <v>ligand_rNaV1.4_STX.2</v>
       </c>
       <c r="O191" s="2">
         <f t="shared" si="11"/>
-        <v>5.7239980100379499</v>
-      </c>
-    </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
+        <v>5.7212463990471711</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A192" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>130</v>
+        <v>66</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>6</v>
+        <v>180</v>
       </c>
       <c r="E192" s="6" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="F192" s="3">
-        <v>3800</v>
+        <v>3851</v>
       </c>
       <c r="G192" s="3">
-        <v>900</v>
+        <v>224</v>
       </c>
       <c r="H192" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I192" s="3">
         <f t="shared" si="8"/>
-        <v>5.7212463990471711</v>
+        <v>5.7154564770412497</v>
       </c>
       <c r="J192" s="3">
         <f t="shared" si="9"/>
-        <v>1.9E-6</v>
+        <v>1.9255E-6</v>
       </c>
       <c r="K192" s="3">
         <v>0</v>
       </c>
       <c r="L192" s="3" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="N192" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>ligand_rNaV1.4_STX.2</v>
+        <v>ligand_rNaV1.4.M1240A.D1241A_STX.C13.3</v>
       </c>
       <c r="O192" s="2">
         <f t="shared" si="11"/>
-        <v>5.7212463990471711</v>
-      </c>
-    </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
+        <v>5.7154564770412497</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A193" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E193" s="6" t="s">
-        <v>218</v>
+        <v>32</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>212</v>
       </c>
       <c r="F193" s="3">
-        <v>3851</v>
+        <v>3972</v>
       </c>
       <c r="G193" s="3">
-        <v>224</v>
+        <v>150</v>
       </c>
       <c r="H193" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I193" s="3">
-        <f t="shared" si="8"/>
-        <v>5.7154564770412497</v>
+        <f t="shared" ref="I193:I252" si="12">-LOG(J193)</f>
+        <v>5.7020207558406373</v>
       </c>
       <c r="J193" s="3">
-        <f t="shared" si="9"/>
-        <v>1.9255E-6</v>
+        <f t="shared" ref="J193:J252" si="13">F193/2/10^9</f>
+        <v>1.9860000000000001E-6</v>
       </c>
       <c r="K193" s="3">
         <v>0</v>
@@ -10472,45 +10470,45 @@
       </c>
       <c r="N193" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>ligand_rNaV1.4.M1240A.D1241A_STX.C13.3</v>
+        <v>ligand_rNaV1.4.E403D_STX.C10.1</v>
       </c>
       <c r="O193" s="2">
         <f t="shared" si="11"/>
-        <v>5.7154564770412497</v>
-      </c>
-    </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
+        <v>5.7020207558406373</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A194" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E194" s="4" t="s">
-        <v>212</v>
+        <v>180</v>
+      </c>
+      <c r="E194" s="6" t="s">
+        <v>218</v>
       </c>
       <c r="F194" s="3">
-        <v>3972</v>
+        <v>4012</v>
       </c>
       <c r="G194" s="3">
-        <v>150</v>
+        <v>28</v>
       </c>
       <c r="H194" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I194" s="3">
-        <f t="shared" ref="I194:I253" si="12">-LOG(J194)</f>
-        <v>5.7020207558406373</v>
+        <f t="shared" si="12"/>
+        <v>5.6976690713156009</v>
       </c>
       <c r="J194" s="3">
-        <f t="shared" ref="J194:J253" si="13">F194/2/10^9</f>
-        <v>1.9860000000000001E-6</v>
+        <f t="shared" si="13"/>
+        <v>2.0059999999999999E-6</v>
       </c>
       <c r="K194" s="3">
         <v>0</v>
@@ -10519,46 +10517,46 @@
         <v>31</v>
       </c>
       <c r="N194" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>ligand_rNaV1.4.E403D_STX.C10.1</v>
+        <f t="shared" ref="N194:N252" si="14">CONCATENATE("ligand_",SUBSTITUTE(SUBSTITUTE(D194," ","."),"/","."),"_",B194)</f>
+        <v>ligand_rNaV1.4.M1240A.D1241A_STX.C13.2</v>
       </c>
       <c r="O194" s="2">
-        <f t="shared" si="11"/>
-        <v>5.7020207558406373</v>
-      </c>
-    </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ref="O194:O252" si="15">I194</f>
+        <v>5.6976690713156009</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A195" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>180</v>
+        <v>24</v>
       </c>
       <c r="E195" s="6" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="F195" s="3">
-        <v>4012</v>
+        <v>4094</v>
       </c>
       <c r="G195" s="3">
-        <v>28</v>
+        <v>492</v>
       </c>
       <c r="H195" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I195" s="3">
         <f t="shared" si="12"/>
-        <v>5.6976690713156009</v>
+        <v>5.6888821573374946</v>
       </c>
       <c r="J195" s="3">
         <f t="shared" si="13"/>
-        <v>2.0059999999999999E-6</v>
+        <v>2.0470000000000001E-6</v>
       </c>
       <c r="K195" s="3">
         <v>0</v>
@@ -10567,46 +10565,46 @@
         <v>31</v>
       </c>
       <c r="N195" s="2" t="str">
-        <f t="shared" ref="N195:N253" si="14">CONCATENATE("ligand_",SUBSTITUTE(SUBSTITUTE(D195," ","."),"/","."),"_",B195)</f>
-        <v>ligand_rNaV1.4.M1240A.D1241A_STX.C13.2</v>
+        <f t="shared" si="14"/>
+        <v>ligand_rNaV1.4.M1240T.D1241I_STX.C13.3</v>
       </c>
       <c r="O195" s="2">
-        <f t="shared" ref="O195:O253" si="15">I195</f>
-        <v>5.6976690713156009</v>
-      </c>
-    </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" si="15"/>
+        <v>5.6888821573374946</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A196" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E196" s="6" t="s">
-        <v>205</v>
+        <v>36</v>
+      </c>
+      <c r="E196" s="4" t="s">
+        <v>229</v>
       </c>
       <c r="F196" s="3">
-        <v>4094</v>
+        <v>4120</v>
       </c>
       <c r="G196" s="3">
-        <v>492</v>
+        <v>57</v>
       </c>
       <c r="H196" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I196" s="3">
         <f t="shared" si="12"/>
-        <v>5.6888821573374946</v>
+        <v>5.6861327796308467</v>
       </c>
       <c r="J196" s="3">
         <f t="shared" si="13"/>
-        <v>2.0470000000000001E-6</v>
+        <v>2.0600000000000002E-6</v>
       </c>
       <c r="K196" s="3">
         <v>0</v>
@@ -10616,70 +10614,70 @@
       </c>
       <c r="N196" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.M1240T.D1241I_STX.C13.3</v>
+        <v>ligand_rNaV1.4.Y401A_STX.C10.1</v>
       </c>
       <c r="O196" s="2">
         <f t="shared" si="15"/>
-        <v>5.6888821573374946</v>
-      </c>
-    </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
+        <v>5.6861327796308467</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A197" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E197" s="4" t="s">
-        <v>229</v>
+        <v>46</v>
+      </c>
+      <c r="E197" s="6" t="s">
+        <v>196</v>
       </c>
       <c r="F197" s="3">
-        <v>4120</v>
+        <v>4500</v>
       </c>
       <c r="G197" s="3">
-        <v>57</v>
+        <v>800</v>
       </c>
       <c r="H197" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I197" s="3">
         <f t="shared" si="12"/>
-        <v>5.6861327796308467</v>
+        <v>5.6478174818886373</v>
       </c>
       <c r="J197" s="3">
         <f t="shared" si="13"/>
-        <v>2.0600000000000002E-6</v>
+        <v>2.2500000000000001E-6</v>
       </c>
       <c r="K197" s="3">
         <v>0</v>
       </c>
       <c r="L197" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="N197" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.Y401A_STX.C10.1</v>
+        <v>ligand_hNaV1.5_STX.N21.3</v>
       </c>
       <c r="O197" s="2">
         <f t="shared" si="15"/>
-        <v>5.6861327796308467</v>
-      </c>
-    </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
+        <v>5.6478174818886373</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A198" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="D198" s="3" t="s">
         <v>46</v>
@@ -10688,69 +10686,69 @@
         <v>196</v>
       </c>
       <c r="F198" s="3">
-        <v>4500</v>
+        <v>4566</v>
       </c>
       <c r="G198" s="3">
-        <v>800</v>
+        <v>88</v>
       </c>
       <c r="H198" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I198" s="3">
         <f t="shared" si="12"/>
-        <v>5.6478174818886373</v>
+        <v>5.6414940885097646</v>
       </c>
       <c r="J198" s="3">
         <f t="shared" si="13"/>
-        <v>2.2500000000000001E-6</v>
+        <v>2.283E-6</v>
       </c>
       <c r="K198" s="3">
         <v>0</v>
       </c>
       <c r="L198" s="3" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="N198" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>ligand_hNaV1.5_STX.N21.3</v>
+        <v>ligand_hNaV1.5_STX.C13.2</v>
       </c>
       <c r="O198" s="2">
         <f t="shared" si="15"/>
-        <v>5.6478174818886373</v>
-      </c>
-    </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
+        <v>5.6414940885097646</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A199" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E199" s="6" t="s">
-        <v>196</v>
+        <v>40</v>
+      </c>
+      <c r="E199" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="F199" s="3">
-        <v>4566</v>
+        <v>4604</v>
       </c>
       <c r="G199" s="3">
-        <v>88</v>
+        <v>262</v>
       </c>
       <c r="H199" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I199" s="3">
         <f t="shared" si="12"/>
-        <v>5.6414940885097646</v>
+        <v>5.6378946807062267</v>
       </c>
       <c r="J199" s="3">
         <f t="shared" si="13"/>
-        <v>2.283E-6</v>
+        <v>2.3020000000000002E-6</v>
       </c>
       <c r="K199" s="3">
         <v>0</v>
@@ -10760,45 +10758,45 @@
       </c>
       <c r="N199" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>ligand_hNaV1.5_STX.C13.2</v>
+        <v>ligand_rNaV1.4.W1239A_STX.C13.1</v>
       </c>
       <c r="O199" s="2">
         <f t="shared" si="15"/>
-        <v>5.6414940885097646</v>
-      </c>
-    </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
+        <v>5.6378946807062267</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A200" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="F200" s="3">
-        <v>4604</v>
+        <v>4971</v>
       </c>
       <c r="G200" s="3">
-        <v>262</v>
+        <v>962</v>
       </c>
       <c r="H200" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I200" s="3">
         <f t="shared" si="12"/>
-        <v>5.6378946807062267</v>
+        <v>5.6045862325249818</v>
       </c>
       <c r="J200" s="3">
         <f t="shared" si="13"/>
-        <v>2.3020000000000002E-6</v>
+        <v>2.4855000000000002E-6</v>
       </c>
       <c r="K200" s="3">
         <v>0</v>
@@ -10808,45 +10806,45 @@
       </c>
       <c r="N200" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.W1239A_STX.C13.1</v>
+        <v>ligand_rNaV1.4.D1241A_STX.N9.1</v>
       </c>
       <c r="O200" s="2">
         <f t="shared" si="15"/>
-        <v>5.6378946807062267</v>
-      </c>
-    </row>
-    <row r="201" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>5.6045862325249818</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A201" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F201" s="3">
-        <v>4971</v>
+        <v>5658</v>
       </c>
       <c r="G201" s="3">
-        <v>962</v>
+        <v>35</v>
       </c>
       <c r="H201" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I201" s="3">
         <f t="shared" si="12"/>
-        <v>5.6045862325249818</v>
+        <v>5.5483670525430089</v>
       </c>
       <c r="J201" s="3">
         <f t="shared" si="13"/>
-        <v>2.4855000000000002E-6</v>
+        <v>2.8289999999999999E-6</v>
       </c>
       <c r="K201" s="3">
         <v>0</v>
@@ -10856,45 +10854,45 @@
       </c>
       <c r="N201" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.D1241A_STX.N9.1</v>
+        <v>ligand_rNaV1.4.E758D_STX.N21.1</v>
       </c>
       <c r="O201" s="2">
         <f t="shared" si="15"/>
-        <v>5.6045862325249818</v>
-      </c>
-    </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
+        <v>5.5483670525430089</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A202" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="F202" s="3">
-        <v>5658</v>
+        <v>6559</v>
       </c>
       <c r="G202" s="3">
-        <v>35</v>
+        <v>520</v>
       </c>
       <c r="H202" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I202" s="3">
         <f t="shared" si="12"/>
-        <v>5.5483670525430089</v>
+        <v>5.4841923647619462</v>
       </c>
       <c r="J202" s="3">
         <f t="shared" si="13"/>
-        <v>2.8289999999999999E-6</v>
+        <v>3.2795000000000001E-6</v>
       </c>
       <c r="K202" s="3">
         <v>0</v>
@@ -10904,45 +10902,45 @@
       </c>
       <c r="N202" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.E758D_STX.N21.1</v>
+        <v>ligand_rNaV1.4.E403D_STX.C13.1</v>
       </c>
       <c r="O202" s="2">
         <f t="shared" si="15"/>
-        <v>5.5483670525430089</v>
-      </c>
-    </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
+        <v>5.4841923647619462</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A203" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="F203" s="3">
-        <v>6559</v>
+        <v>6836</v>
       </c>
       <c r="G203" s="3">
-        <v>520</v>
+        <v>172</v>
       </c>
       <c r="H203" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I203" s="3">
         <f t="shared" si="12"/>
-        <v>5.4841923647619462</v>
+        <v>5.4662279416152817</v>
       </c>
       <c r="J203" s="3">
         <f t="shared" si="13"/>
-        <v>3.2795000000000001E-6</v>
+        <v>3.4180000000000001E-6</v>
       </c>
       <c r="K203" s="3">
         <v>0</v>
@@ -10952,45 +10950,45 @@
       </c>
       <c r="N203" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.E403D_STX.C13.1</v>
+        <v>ligand_rNaV1.4.W1239A_STX.N21.2</v>
       </c>
       <c r="O203" s="2">
         <f t="shared" si="15"/>
-        <v>5.4841923647619462</v>
-      </c>
-    </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
+        <v>5.4662279416152817</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A204" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="F204" s="3">
-        <v>6836</v>
+        <v>7361</v>
       </c>
       <c r="G204" s="3">
-        <v>172</v>
+        <v>524</v>
       </c>
       <c r="H204" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I204" s="3">
         <f t="shared" si="12"/>
-        <v>5.4662279416152817</v>
+        <v>5.4340931779323416</v>
       </c>
       <c r="J204" s="3">
         <f t="shared" si="13"/>
-        <v>3.4180000000000001E-6</v>
+        <v>3.6805000000000002E-6</v>
       </c>
       <c r="K204" s="3">
         <v>0</v>
@@ -11000,45 +10998,45 @@
       </c>
       <c r="N204" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.W1239A_STX.N21.2</v>
+        <v>ligand_rNaV1.4.E403D_STX.C13.2</v>
       </c>
       <c r="O204" s="2">
         <f t="shared" si="15"/>
-        <v>5.4662279416152817</v>
-      </c>
-    </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
+        <v>5.4340931779323416</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A205" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="F205" s="3">
-        <v>7361</v>
+        <v>7589</v>
       </c>
       <c r="G205" s="3">
-        <v>524</v>
+        <v>94</v>
       </c>
       <c r="H205" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I205" s="3">
         <f t="shared" si="12"/>
-        <v>5.4340931779323416</v>
+        <v>5.4208454428375479</v>
       </c>
       <c r="J205" s="3">
         <f t="shared" si="13"/>
-        <v>3.6805000000000002E-6</v>
+        <v>3.7944999999999998E-6</v>
       </c>
       <c r="K205" s="3">
         <v>0</v>
@@ -11048,118 +11046,118 @@
       </c>
       <c r="N205" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.E403D_STX.C13.2</v>
+        <v>ligand_rNaV1.4.E758D_STX.N21.2</v>
       </c>
       <c r="O205" s="2">
         <f t="shared" si="15"/>
-        <v>5.4340931779323416</v>
-      </c>
-    </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
+        <v>5.4208454428375479</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A206" s="3" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>68</v>
+        <v>146</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="E206" s="4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F206" s="3">
-        <v>7589</v>
+        <v>8300</v>
       </c>
       <c r="G206" s="3">
-        <v>94</v>
+        <v>800</v>
       </c>
       <c r="H206" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I206" s="3">
         <f t="shared" si="12"/>
-        <v>5.4208454428375479</v>
+        <v>5.3819519032879075</v>
       </c>
       <c r="J206" s="3">
         <f t="shared" si="13"/>
-        <v>3.7944999999999998E-6</v>
+        <v>4.1500000000000001E-6</v>
       </c>
       <c r="K206" s="3">
         <v>0</v>
       </c>
       <c r="L206" s="3" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="N206" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.E758D_STX.N21.2</v>
+        <v>ligand_rNaV1.4_GTX.3.2</v>
       </c>
       <c r="O206" s="2">
         <f t="shared" si="15"/>
-        <v>5.4208454428375479</v>
-      </c>
-    </row>
-    <row r="207" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>5.3819519032879075</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A207" s="3" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>146</v>
+        <v>69</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>147</v>
+        <v>9</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F207" s="3">
-        <v>8300</v>
+        <v>8382</v>
       </c>
       <c r="G207" s="3">
-        <v>800</v>
+        <v>328</v>
       </c>
       <c r="H207" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I207" s="3">
         <f t="shared" si="12"/>
-        <v>5.3819519032879075</v>
+        <v>5.3776823391661557</v>
       </c>
       <c r="J207" s="3">
         <f t="shared" si="13"/>
-        <v>4.1500000000000001E-6</v>
+        <v>4.1910000000000002E-6</v>
       </c>
       <c r="K207" s="3">
         <v>0</v>
       </c>
       <c r="L207" s="3" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="N207" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4_GTX.3.2</v>
+        <v>ligand_rNaV1.4.M1240A_STX.N7.1</v>
       </c>
       <c r="O207" s="2">
         <f t="shared" si="15"/>
-        <v>5.3819519032879075</v>
-      </c>
-    </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
+        <v>5.3776823391661557</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A208" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D208" s="3" t="s">
         <v>41</v>
@@ -11168,21 +11166,21 @@
         <v>203</v>
       </c>
       <c r="F208" s="3">
-        <v>8382</v>
+        <v>9605</v>
       </c>
       <c r="G208" s="3">
-        <v>328</v>
+        <v>745</v>
       </c>
       <c r="H208" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I208" s="3">
         <f t="shared" si="12"/>
-        <v>5.3776823391661557</v>
+        <v>5.3185326264662685</v>
       </c>
       <c r="J208" s="3">
         <f t="shared" si="13"/>
-        <v>4.1910000000000002E-6</v>
+        <v>4.8025000000000002E-6</v>
       </c>
       <c r="K208" s="3">
         <v>0</v>
@@ -11192,285 +11190,285 @@
       </c>
       <c r="N208" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.M1240A_STX.N7.1</v>
+        <v>ligand_rNaV1.4.M1240A_STX.N9.1</v>
       </c>
       <c r="O208" s="2">
         <f t="shared" si="15"/>
-        <v>5.3776823391661557</v>
-      </c>
-    </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A209" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B209" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C209" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D209" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E209" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F209" s="3">
-        <v>9605</v>
-      </c>
-      <c r="G209" s="3">
-        <v>745</v>
-      </c>
-      <c r="H209" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I209" s="3">
+        <v>5.3185326264662685</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A209" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B209" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C209" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D209" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E209" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="F209" s="7">
+        <v>9834</v>
+      </c>
+      <c r="G209" s="7">
+        <v>182</v>
+      </c>
+      <c r="H209" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I209" s="7">
         <f t="shared" si="12"/>
-        <v>5.3185326264662685</v>
+        <v>5.3082997917098389</v>
       </c>
       <c r="J209" s="3">
         <f t="shared" si="13"/>
-        <v>4.8025000000000002E-6</v>
-      </c>
-      <c r="K209" s="3">
-        <v>0</v>
-      </c>
-      <c r="L209" s="3" t="s">
+        <v>4.9169999999999997E-6</v>
+      </c>
+      <c r="K209" s="7">
+        <v>0</v>
+      </c>
+      <c r="L209" s="7" t="s">
         <v>31</v>
       </c>
       <c r="N209" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.M1240A_STX.N9.1</v>
+        <v>ligand_rNaV1.4.E758D_STX</v>
       </c>
       <c r="O209" s="2">
         <f t="shared" si="15"/>
-        <v>5.3185326264662685</v>
-      </c>
-    </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A210" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B210" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C210" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D210" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E210" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="F210" s="7">
-        <v>9834</v>
-      </c>
-      <c r="G210" s="7">
-        <v>182</v>
-      </c>
-      <c r="H210" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I210" s="7">
+        <v>5.3082997917098389</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A210" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E210" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="F210" s="3">
+        <v>10656</v>
+      </c>
+      <c r="G210" s="3">
+        <v>587</v>
+      </c>
+      <c r="H210" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I210" s="3">
         <f t="shared" si="12"/>
-        <v>5.3082997917098389</v>
+        <v>5.2734357838377557</v>
       </c>
       <c r="J210" s="3">
         <f t="shared" si="13"/>
-        <v>4.9169999999999997E-6</v>
-      </c>
-      <c r="K210" s="7">
-        <v>0</v>
-      </c>
-      <c r="L210" s="7" t="s">
+        <v>5.3279999999999996E-6</v>
+      </c>
+      <c r="K210" s="3">
+        <v>0</v>
+      </c>
+      <c r="L210" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N210" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.E758D_STX</v>
+        <v>ligand_rNaV1.4.M1240A.D1241A_STX.C10.1</v>
       </c>
       <c r="O210" s="2">
         <f t="shared" si="15"/>
-        <v>5.3082997917098389</v>
-      </c>
-    </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
+        <v>5.2734357838377557</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A211" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>180</v>
+        <v>56</v>
       </c>
       <c r="E211" s="6" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="F211" s="3">
-        <v>10656</v>
+        <v>10900</v>
       </c>
       <c r="G211" s="3">
-        <v>587</v>
+        <v>1200</v>
       </c>
       <c r="H211" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I211" s="3">
         <f t="shared" si="12"/>
-        <v>5.2734357838377557</v>
+        <v>5.2636034977233574</v>
       </c>
       <c r="J211" s="3">
         <f t="shared" si="13"/>
-        <v>5.3279999999999996E-6</v>
+        <v>5.4500000000000003E-6</v>
       </c>
       <c r="K211" s="3">
         <v>0</v>
       </c>
       <c r="L211" s="3" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="N211" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.M1240A.D1241A_STX.C10.1</v>
+        <v>ligand_rNaV1.8_STX</v>
       </c>
       <c r="O211" s="2">
         <f t="shared" si="15"/>
-        <v>5.2734357838377557</v>
-      </c>
-    </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
+        <v>5.2636034977233574</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A212" s="3" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E212" s="6" t="s">
-        <v>230</v>
+        <v>64</v>
+      </c>
+      <c r="E212" s="4" t="s">
+        <v>217</v>
       </c>
       <c r="F212" s="3">
-        <v>10900</v>
+        <v>10961.1</v>
       </c>
       <c r="G212" s="3">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="H212" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I212" s="3">
         <f t="shared" si="12"/>
-        <v>5.2636034977233574</v>
+        <v>5.2611758557530095</v>
       </c>
       <c r="J212" s="3">
         <f t="shared" si="13"/>
-        <v>5.4500000000000003E-6</v>
+        <v>5.4805500000000004E-6</v>
       </c>
       <c r="K212" s="3">
         <v>0</v>
       </c>
       <c r="L212" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="N212" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>ligand_rNaV1.8_STX</v>
+        <v>ligand_rNaV1.4.K1237A_TTX</v>
       </c>
       <c r="O212" s="2">
         <f t="shared" si="15"/>
-        <v>5.2636034977233574</v>
-      </c>
-    </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
+        <v>5.2611758557530095</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A213" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E213" s="4" t="s">
-        <v>217</v>
+        <v>33</v>
+      </c>
+      <c r="E213" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="F213" s="3">
-        <v>10961.1</v>
+        <v>14550</v>
       </c>
       <c r="G213" s="3">
-        <v>0</v>
+        <v>468</v>
       </c>
       <c r="H213" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I213" s="3">
         <f t="shared" si="12"/>
-        <v>5.2611758557530095</v>
+        <v>5.1381670023420547</v>
       </c>
       <c r="J213" s="3">
         <f t="shared" si="13"/>
-        <v>5.4805500000000004E-6</v>
+        <v>7.2749999999999998E-6</v>
       </c>
       <c r="K213" s="3">
         <v>0</v>
       </c>
       <c r="L213" s="3" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="N213" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.K1237A_TTX</v>
+        <v>ligand_rNaV1.4.E403D.M1240T.D1241I_STX.C10.1.C13.2</v>
       </c>
       <c r="O213" s="2">
         <f t="shared" si="15"/>
-        <v>5.2611758557530095</v>
-      </c>
-    </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
+        <v>5.1381670023420547</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A214" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E214" s="6" t="s">
-        <v>213</v>
+        <v>36</v>
+      </c>
+      <c r="E214" s="4" t="s">
+        <v>229</v>
       </c>
       <c r="F214" s="3">
-        <v>14550</v>
+        <v>14861</v>
       </c>
       <c r="G214" s="3">
-        <v>468</v>
+        <v>1980</v>
       </c>
       <c r="H214" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I214" s="3">
         <f t="shared" si="12"/>
-        <v>5.1381670023420547</v>
+        <v>5.128981961483726</v>
       </c>
       <c r="J214" s="3">
         <f t="shared" si="13"/>
-        <v>7.2749999999999998E-6</v>
+        <v>7.4305000000000003E-6</v>
       </c>
       <c r="K214" s="3">
         <v>0</v>
@@ -11480,141 +11478,141 @@
       </c>
       <c r="N214" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.E403D.M1240T.D1241I_STX.C10.1.C13.2</v>
+        <v>ligand_rNaV1.4.Y401A_STX.C13.2</v>
       </c>
       <c r="O214" s="2">
         <f t="shared" si="15"/>
-        <v>5.1381670023420547</v>
-      </c>
-    </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
+        <v>5.128981961483726</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A215" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>73</v>
+        <v>174</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>15</v>
+        <v>175</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E215" s="4" t="s">
-        <v>229</v>
+        <v>6</v>
+      </c>
+      <c r="E215" s="6" t="s">
+        <v>195</v>
       </c>
       <c r="F215" s="3">
-        <v>14861</v>
+        <v>15000</v>
       </c>
       <c r="G215" s="3">
-        <v>1980</v>
+        <v>1300</v>
       </c>
       <c r="H215" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I215" s="3">
         <f t="shared" si="12"/>
-        <v>5.128981961483726</v>
+        <v>5.1249387366082999</v>
       </c>
       <c r="J215" s="3">
         <f t="shared" si="13"/>
-        <v>7.4305000000000003E-6</v>
+        <v>7.5000000000000002E-6</v>
       </c>
       <c r="K215" s="3">
         <v>0</v>
       </c>
       <c r="L215" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N215" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.Y401A_STX.C13.2</v>
+        <v>ligand_rNaV1.4_STX.C12.2</v>
       </c>
       <c r="O215" s="2">
         <f t="shared" si="15"/>
-        <v>5.128981961483726</v>
-      </c>
-    </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
+        <v>5.1249387366082999</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A216" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>174</v>
+        <v>5</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>175</v>
+        <v>8</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E216" s="6" t="s">
-        <v>195</v>
+        <v>35</v>
+      </c>
+      <c r="E216" s="4" t="s">
+        <v>207</v>
       </c>
       <c r="F216" s="3">
-        <v>15000</v>
+        <v>20400</v>
       </c>
       <c r="G216" s="3">
-        <v>1300</v>
+        <v>1020</v>
       </c>
       <c r="H216" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I216" s="3">
         <f t="shared" si="12"/>
-        <v>5.1249387366082999</v>
+        <v>4.991399828238082</v>
       </c>
       <c r="J216" s="3">
         <f t="shared" si="13"/>
-        <v>7.5000000000000002E-6</v>
+        <v>1.0200000000000001E-5</v>
       </c>
       <c r="K216" s="3">
         <v>0</v>
       </c>
       <c r="L216" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N216" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4_STX.C12.2</v>
+        <v>ligand_rNaV1.4.Y401S_STX</v>
       </c>
       <c r="O216" s="2">
         <f t="shared" si="15"/>
-        <v>5.1249387366082999</v>
-      </c>
-    </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
+        <v>4.991399828238082</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A217" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E217" s="4" t="s">
-        <v>207</v>
+        <v>24</v>
+      </c>
+      <c r="E217" s="6" t="s">
+        <v>205</v>
       </c>
       <c r="F217" s="3">
-        <v>20400</v>
+        <v>20653</v>
       </c>
       <c r="G217" s="3">
-        <v>1020</v>
+        <v>669</v>
       </c>
       <c r="H217" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I217" s="3">
         <f t="shared" si="12"/>
-        <v>4.991399828238082</v>
+        <v>4.9860468506248576</v>
       </c>
       <c r="J217" s="3">
         <f t="shared" si="13"/>
-        <v>1.0200000000000001E-5</v>
+        <v>1.03265E-5</v>
       </c>
       <c r="K217" s="3">
         <v>0</v>
@@ -11624,45 +11622,45 @@
       </c>
       <c r="N217" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.Y401S_STX</v>
+        <v>ligand_rNaV1.4.M1240T.D1241I_STX.C10.1</v>
       </c>
       <c r="O217" s="2">
         <f t="shared" si="15"/>
-        <v>4.991399828238082</v>
-      </c>
-    </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
+        <v>4.9860468506248576</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A218" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E218" s="6" t="s">
-        <v>205</v>
+        <v>40</v>
+      </c>
+      <c r="E218" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="F218" s="3">
-        <v>20653</v>
+        <v>20823</v>
       </c>
       <c r="G218" s="3">
-        <v>669</v>
+        <v>1670</v>
       </c>
       <c r="H218" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I218" s="3">
         <f t="shared" si="12"/>
-        <v>4.9860468506248576</v>
+        <v>4.982486696541959</v>
       </c>
       <c r="J218" s="3">
         <f t="shared" si="13"/>
-        <v>1.03265E-5</v>
+        <v>1.04115E-5</v>
       </c>
       <c r="K218" s="3">
         <v>0</v>
@@ -11672,141 +11670,141 @@
       </c>
       <c r="N218" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.M1240T.D1241I_STX.C10.1</v>
+        <v>ligand_rNaV1.4.W1239A_STX.C13.2</v>
       </c>
       <c r="O218" s="2">
         <f t="shared" si="15"/>
-        <v>4.9860468506248576</v>
-      </c>
-    </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
+        <v>4.982486696541959</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A219" s="3" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>15</v>
+        <v>143</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E219" s="4" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="F219" s="3">
-        <v>20823</v>
+        <v>22600</v>
       </c>
       <c r="G219" s="3">
-        <v>1670</v>
+        <v>1620</v>
       </c>
       <c r="H219" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I219" s="3">
         <f t="shared" si="12"/>
-        <v>4.982486696541959</v>
+        <v>4.9469215565165801</v>
       </c>
       <c r="J219" s="3">
         <f t="shared" si="13"/>
-        <v>1.04115E-5</v>
+        <v>1.13E-5</v>
       </c>
       <c r="K219" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L219" s="3" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="N219" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.W1239A_STX.C13.2</v>
+        <v>ligand_rNaV1.4.Y401S_GTX.2</v>
       </c>
       <c r="O219" s="2">
         <f t="shared" si="15"/>
-        <v>4.982486696541959</v>
-      </c>
-    </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
+        <v>4.9469215565165801</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A220" s="3" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>143</v>
+        <v>85</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E220" s="4" t="s">
-        <v>207</v>
+        <v>32</v>
+      </c>
+      <c r="E220" s="6" t="s">
+        <v>212</v>
       </c>
       <c r="F220" s="3">
-        <v>22600</v>
+        <v>28750</v>
       </c>
       <c r="G220" s="3">
-        <v>1620</v>
+        <v>2990</v>
       </c>
       <c r="H220" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I220" s="3">
         <f t="shared" si="12"/>
-        <v>4.9469215565165801</v>
+        <v>4.842392146638332</v>
       </c>
       <c r="J220" s="3">
         <f t="shared" si="13"/>
-        <v>1.13E-5</v>
+        <v>1.4375E-5</v>
       </c>
       <c r="K220" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L220" s="3" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="N220" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.Y401S_GTX.2</v>
+        <v>ligand_rNaV1.4.E403D_STX.C10.1.C13.2</v>
       </c>
       <c r="O220" s="2">
         <f t="shared" si="15"/>
-        <v>4.9469215565165801</v>
-      </c>
-    </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
+        <v>4.842392146638332</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A221" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="E221" s="6" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="F221" s="3">
-        <v>28750</v>
+        <v>33000</v>
       </c>
       <c r="G221" s="3">
-        <v>2990</v>
+        <v>2000</v>
       </c>
       <c r="H221" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I221" s="3">
         <f t="shared" si="12"/>
-        <v>4.842392146638332</v>
+        <v>4.7825160557860933</v>
       </c>
       <c r="J221" s="3">
         <f t="shared" si="13"/>
-        <v>1.4375E-5</v>
+        <v>1.6500000000000001E-5</v>
       </c>
       <c r="K221" s="3">
         <v>0</v>
@@ -11816,310 +11814,310 @@
       </c>
       <c r="N221" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.E403D_STX.C10.1.C13.2</v>
+        <v>ligand_rNaV1.4_STX.C11.4</v>
       </c>
       <c r="O221" s="2">
         <f t="shared" si="15"/>
-        <v>4.842392146638332</v>
-      </c>
-    </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
+        <v>4.7825160557860933</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A222" s="3" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E222" s="6" t="s">
-        <v>195</v>
+        <v>35</v>
+      </c>
+      <c r="E222" s="4" t="s">
+        <v>207</v>
       </c>
       <c r="F222" s="3">
-        <v>33000</v>
+        <v>34200</v>
       </c>
       <c r="G222" s="3">
-        <v>2000</v>
+        <v>8400</v>
       </c>
       <c r="H222" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I222" s="3">
         <f t="shared" si="12"/>
-        <v>4.7825160557860933</v>
+        <v>4.7670038896078459</v>
       </c>
       <c r="J222" s="3">
         <f t="shared" si="13"/>
-        <v>1.6500000000000001E-5</v>
+        <v>1.7099999999999999E-5</v>
       </c>
       <c r="K222" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L222" s="3" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="N222" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4_STX.C11.4</v>
+        <v>ligand_rNaV1.4.Y401S_GTX.3</v>
       </c>
       <c r="O222" s="2">
         <f t="shared" si="15"/>
-        <v>4.7825160557860933</v>
-      </c>
-    </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
+        <v>4.7670038896078459</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A223" s="3" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>144</v>
+        <v>8</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E223" s="4" t="s">
-        <v>207</v>
+        <v>33</v>
+      </c>
+      <c r="E223" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="F223" s="3">
-        <v>34200</v>
+        <v>35040</v>
       </c>
       <c r="G223" s="3">
-        <v>8400</v>
+        <v>4290</v>
       </c>
       <c r="H223" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I223" s="3">
         <f t="shared" si="12"/>
-        <v>4.7670038896078459</v>
+        <v>4.7564658981679377</v>
       </c>
       <c r="J223" s="3">
         <f t="shared" si="13"/>
-        <v>1.7099999999999999E-5</v>
+        <v>1.7520000000000002E-5</v>
       </c>
       <c r="K223" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L223" s="3" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="N223" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.Y401S_GTX.3</v>
+        <v>ligand_rNaV1.4.E403D.M1240T.D1241I_STX</v>
       </c>
       <c r="O223" s="2">
         <f t="shared" si="15"/>
-        <v>4.7670038896078459</v>
-      </c>
-    </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
+        <v>4.7564658981679377</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A224" s="3" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E224" s="6" t="s">
-        <v>213</v>
+        <v>63</v>
+      </c>
+      <c r="E224" s="4" t="s">
+        <v>220</v>
       </c>
       <c r="F224" s="3">
-        <v>35040</v>
+        <v>41604.300000000003</v>
       </c>
       <c r="G224" s="3">
-        <v>4290</v>
+        <v>0</v>
       </c>
       <c r="H224" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I224" s="3">
         <f t="shared" si="12"/>
-        <v>4.7564658981679377</v>
+        <v>4.6818917763410086</v>
       </c>
       <c r="J224" s="3">
         <f t="shared" si="13"/>
-        <v>1.7520000000000002E-5</v>
+        <v>2.0802150000000002E-5</v>
       </c>
       <c r="K224" s="3">
         <v>0</v>
       </c>
       <c r="L224" s="3" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="N224" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.E403D.M1240T.D1241I_STX</v>
+        <v>ligand_rNaV1.4.M1240E_TTX</v>
       </c>
       <c r="O224" s="2">
         <f t="shared" si="15"/>
-        <v>4.7564658981679377</v>
-      </c>
-    </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
+        <v>4.6818917763410086</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A225" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="E225" s="4" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="F225" s="3">
-        <v>41604.300000000003</v>
+        <v>41665</v>
       </c>
       <c r="G225" s="3">
-        <v>0</v>
+        <v>2130</v>
       </c>
       <c r="H225" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I225" s="3">
         <f t="shared" si="12"/>
-        <v>4.6818917763410086</v>
+        <v>4.6812586095023079</v>
       </c>
       <c r="J225" s="3">
         <f t="shared" si="13"/>
-        <v>2.0802150000000002E-5</v>
+        <v>2.0832500000000001E-5</v>
       </c>
       <c r="K225" s="3">
         <v>0</v>
       </c>
       <c r="L225" s="3" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="N225" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.M1240E_TTX</v>
+        <v>ligand_rNaV1.4.W1239A_STX.C10.1</v>
       </c>
       <c r="O225" s="2">
         <f t="shared" si="15"/>
-        <v>4.6818917763410086</v>
-      </c>
-    </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
+        <v>4.6812586095023079</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A226" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>71</v>
+        <v>154</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>11</v>
+        <v>152</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="E226" s="4" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="F226" s="3">
-        <v>41665</v>
+        <v>43000</v>
       </c>
       <c r="G226" s="3">
-        <v>2130</v>
+        <v>4000</v>
       </c>
       <c r="H226" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I226" s="3">
         <f t="shared" si="12"/>
-        <v>4.6812586095023079</v>
+        <v>4.6675615400843951</v>
       </c>
       <c r="J226" s="3">
         <f t="shared" si="13"/>
-        <v>2.0832500000000001E-5</v>
+        <v>2.1500000000000001E-5</v>
       </c>
       <c r="K226" s="3">
         <v>0</v>
       </c>
       <c r="L226" s="3" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="N226" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.W1239A_STX.C10.1</v>
+        <v>ligand_rNaV1.4_STX.C11.4.N21.31</v>
       </c>
       <c r="O226" s="2">
         <f t="shared" si="15"/>
-        <v>4.6812586095023079</v>
-      </c>
-    </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
+        <v>4.6675615400843951</v>
+      </c>
+    </row>
+    <row r="227" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A227" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>154</v>
+        <v>69</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>152</v>
+        <v>9</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="E227" s="4" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="F227" s="3">
-        <v>43000</v>
+        <v>50000</v>
       </c>
       <c r="G227" s="3">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="H227" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I227" s="3">
         <f t="shared" si="12"/>
-        <v>4.6675615400843951</v>
+        <v>4.6020599913279625</v>
       </c>
       <c r="J227" s="3">
         <f t="shared" si="13"/>
-        <v>2.1500000000000001E-5</v>
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="K227" s="3">
         <v>0</v>
       </c>
       <c r="L227" s="3" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="N227" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4_STX.C11.4.N21.31</v>
+        <v>ligand_rNaV1.4.E403D_STX.N7.1</v>
       </c>
       <c r="O227" s="2">
         <f t="shared" si="15"/>
-        <v>4.6675615400843951</v>
-      </c>
-    </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
+        <v>4.6020599913279625</v>
+      </c>
+    </row>
+    <row r="228" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A228" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D228" s="3" t="s">
         <v>32</v>
@@ -12152,28 +12150,28 @@
       </c>
       <c r="N228" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.E403D_STX.N7.1</v>
+        <v>ligand_rNaV1.4.E403D_STX.N9.1</v>
       </c>
       <c r="O228" s="2">
         <f t="shared" si="15"/>
         <v>4.6020599913279625</v>
       </c>
     </row>
-    <row r="229" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A229" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E229" s="4" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="F229" s="3">
         <v>50000</v>
@@ -12200,22 +12198,22 @@
       </c>
       <c r="N229" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.E403D_STX.N9.1</v>
+        <v>ligand_rNaV1.4.E758D_STX.C10.1</v>
       </c>
       <c r="O229" s="2">
         <f t="shared" si="15"/>
         <v>4.6020599913279625</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A230" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D230" s="3" t="s">
         <v>39</v>
@@ -12248,22 +12246,22 @@
       </c>
       <c r="N230" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.E758D_STX.C10.1</v>
+        <v>ligand_rNaV1.4.E758D_STX.C13.1</v>
       </c>
       <c r="O230" s="2">
         <f t="shared" si="15"/>
         <v>4.6020599913279625</v>
       </c>
     </row>
-    <row r="231" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A231" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D231" s="3" t="s">
         <v>39</v>
@@ -12296,22 +12294,22 @@
       </c>
       <c r="N231" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.E758D_STX.C13.1</v>
+        <v>ligand_rNaV1.4.E758D_STX.C13.2</v>
       </c>
       <c r="O231" s="2">
         <f t="shared" si="15"/>
         <v>4.6020599913279625</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A232" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D232" s="3" t="s">
         <v>39</v>
@@ -12344,22 +12342,22 @@
       </c>
       <c r="N232" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.E758D_STX.C13.2</v>
+        <v>ligand_rNaV1.4.E758D_STX.N7.1</v>
       </c>
       <c r="O232" s="2">
         <f t="shared" si="15"/>
         <v>4.6020599913279625</v>
       </c>
     </row>
-    <row r="233" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A233" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D233" s="3" t="s">
         <v>39</v>
@@ -12392,28 +12390,28 @@
       </c>
       <c r="N233" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.E758D_STX.N7.1</v>
+        <v>ligand_rNaV1.4.E758D_STX.N9.1</v>
       </c>
       <c r="O233" s="2">
         <f t="shared" si="15"/>
         <v>4.6020599913279625</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A234" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E234" s="4" t="s">
-        <v>201</v>
+        <v>55</v>
+      </c>
+      <c r="E234" s="6" t="s">
+        <v>219</v>
       </c>
       <c r="F234" s="3">
         <v>50000</v>
@@ -12436,32 +12434,32 @@
         <v>0</v>
       </c>
       <c r="L234" s="3" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="N234" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.E758D_STX.N9.1</v>
+        <v>ligand_rNaV1.4.M1240C_STX.N21.11</v>
       </c>
       <c r="O234" s="2">
         <f t="shared" si="15"/>
         <v>4.6020599913279625</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A235" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E235" s="6" t="s">
-        <v>219</v>
+        <v>40</v>
+      </c>
+      <c r="E235" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="F235" s="3">
         <v>50000</v>
@@ -12484,26 +12482,26 @@
         <v>0</v>
       </c>
       <c r="L235" s="3" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="N235" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.M1240C_STX.N21.11</v>
+        <v>ligand_rNaV1.4.W1239A_STX.N7.1</v>
       </c>
       <c r="O235" s="2">
         <f t="shared" si="15"/>
         <v>4.6020599913279625</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A236" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D236" s="3" t="s">
         <v>40</v>
@@ -12536,14 +12534,14 @@
       </c>
       <c r="N236" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.W1239A_STX.N7.1</v>
+        <v>ligand_rNaV1.4.W1239A_STX.N9.1</v>
       </c>
       <c r="O236" s="2">
         <f t="shared" si="15"/>
         <v>4.6020599913279625</v>
       </c>
     </row>
-    <row r="237" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A237" s="3" t="s">
         <v>5</v>
       </c>
@@ -12554,10 +12552,10 @@
         <v>10</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E237" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F237" s="3">
         <v>50000</v>
@@ -12584,28 +12582,28 @@
       </c>
       <c r="N237" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.W1239A_STX.N9.1</v>
+        <v>ligand_rNaV1.4.W756A_STX.N9.1</v>
       </c>
       <c r="O237" s="2">
         <f t="shared" si="15"/>
         <v>4.6020599913279625</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A238" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E238" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F238" s="3">
         <v>50000</v>
@@ -12632,22 +12630,22 @@
       </c>
       <c r="N238" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.W756A_STX.N9.1</v>
+        <v>ligand_rNaV1.4.Y401A_STX.N7.1</v>
       </c>
       <c r="O238" s="2">
         <f t="shared" si="15"/>
         <v>4.6020599913279625</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A239" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D239" s="3" t="s">
         <v>36</v>
@@ -12680,28 +12678,28 @@
       </c>
       <c r="N239" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.Y401A_STX.N7.1</v>
+        <v>ligand_rNaV1.4.Y401A_STX.N9.1</v>
       </c>
       <c r="O239" s="2">
         <f t="shared" si="15"/>
         <v>4.6020599913279625</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A240" s="3" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E240" s="4" t="s">
-        <v>229</v>
+        <v>177</v>
       </c>
       <c r="F240" s="3">
         <v>50000</v>
@@ -12724,35 +12722,35 @@
         <v>0</v>
       </c>
       <c r="L240" s="3" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="N240" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.Y401A_STX.N9.1</v>
+        <v>ligand_rNaV1.4.Y401C.S_TTX</v>
       </c>
       <c r="O240" s="2">
         <f t="shared" si="15"/>
         <v>4.6020599913279625</v>
       </c>
     </row>
-    <row r="241" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A241" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E241" s="4" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="F241" s="3">
-        <v>50000</v>
+        <v>50195.6</v>
       </c>
       <c r="G241" s="3">
         <v>0</v>
@@ -12762,11 +12760,11 @@
       </c>
       <c r="I241" s="3">
         <f t="shared" si="12"/>
-        <v>4.6020599913279625</v>
+        <v>4.6003643458390755</v>
       </c>
       <c r="J241" s="3">
         <f t="shared" si="13"/>
-        <v>2.5000000000000001E-5</v>
+        <v>2.5097799999999999E-5</v>
       </c>
       <c r="K241" s="3">
         <v>0</v>
@@ -12776,31 +12774,31 @@
       </c>
       <c r="N241" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.Y401C.S_TTX</v>
+        <v>ligand_rNaV1.4.E755A_STX</v>
       </c>
       <c r="O241" s="2">
         <f t="shared" si="15"/>
-        <v>4.6020599913279625</v>
-      </c>
-    </row>
-    <row r="242" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>4.6003643458390755</v>
+      </c>
+    </row>
+    <row r="242" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A242" s="3" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E242" s="4" t="s">
-        <v>215</v>
+        <v>26</v>
+      </c>
+      <c r="E242" s="6" t="s">
+        <v>214</v>
       </c>
       <c r="F242" s="3">
-        <v>50195.6</v>
+        <v>77309.100000000006</v>
       </c>
       <c r="G242" s="3">
         <v>0</v>
@@ -12810,11 +12808,11 @@
       </c>
       <c r="I242" s="3">
         <f t="shared" si="12"/>
-        <v>4.6003643458390755</v>
+        <v>4.4127993782375334</v>
       </c>
       <c r="J242" s="3">
         <f t="shared" si="13"/>
-        <v>2.5097799999999999E-5</v>
+        <v>3.8654550000000004E-5</v>
       </c>
       <c r="K242" s="3">
         <v>0</v>
@@ -12824,271 +12822,271 @@
       </c>
       <c r="N242" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.E755A_STX</v>
+        <v>ligand_rNaV1.4.E403Q_TTX</v>
       </c>
       <c r="O242" s="2">
         <f t="shared" si="15"/>
-        <v>4.6003643458390755</v>
-      </c>
-    </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A243" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B243" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C243" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D243" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E243" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="F243" s="3">
-        <v>77309.100000000006</v>
-      </c>
-      <c r="G243" s="3">
-        <v>0</v>
-      </c>
-      <c r="H243" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I243" s="3">
+        <v>4.4127993782375334</v>
+      </c>
+    </row>
+    <row r="243" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A243" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B243" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C243" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D243" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E243" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="F243" s="10">
+        <v>81460.399999999994</v>
+      </c>
+      <c r="G243" s="10">
+        <v>0</v>
+      </c>
+      <c r="H243" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I243" s="10">
         <f t="shared" si="12"/>
-        <v>4.4127993782375334</v>
+        <v>4.3900834573659262</v>
       </c>
       <c r="J243" s="3">
         <f t="shared" si="13"/>
-        <v>3.8654550000000004E-5</v>
-      </c>
-      <c r="K243" s="3">
-        <v>0</v>
-      </c>
-      <c r="L243" s="3" t="s">
+        <v>4.0730199999999998E-5</v>
+      </c>
+      <c r="K243" s="10">
+        <v>0</v>
+      </c>
+      <c r="L243" s="10" t="s">
         <v>58</v>
       </c>
       <c r="N243" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.E403Q_TTX</v>
+        <v>ligand_rNaV1.4.E758Q_STX</v>
       </c>
       <c r="O243" s="2">
         <f t="shared" si="15"/>
-        <v>4.4127993782375334</v>
-      </c>
-    </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A244" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B244" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C244" s="10" t="s">
+        <v>4.3900834573659262</v>
+      </c>
+    </row>
+    <row r="244" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A244" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C244" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D244" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E244" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="F244" s="10">
-        <v>81460.399999999994</v>
-      </c>
-      <c r="G244" s="10">
-        <v>0</v>
-      </c>
-      <c r="H244" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I244" s="10">
+      <c r="D244" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E244" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F244" s="3">
+        <v>93979.199999999997</v>
+      </c>
+      <c r="G244" s="3">
+        <v>0</v>
+      </c>
+      <c r="H244" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I244" s="3">
         <f t="shared" si="12"/>
-        <v>4.3900834573659262</v>
+        <v>4.3279982519026099</v>
       </c>
       <c r="J244" s="3">
         <f t="shared" si="13"/>
-        <v>4.0730199999999998E-5</v>
-      </c>
-      <c r="K244" s="10">
-        <v>0</v>
-      </c>
-      <c r="L244" s="10" t="s">
+        <v>4.6989600000000002E-5</v>
+      </c>
+      <c r="K244" s="3">
+        <v>0</v>
+      </c>
+      <c r="L244" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N244" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.E758Q_STX</v>
+        <v>ligand_rNaV1.4.M1240K_STX</v>
       </c>
       <c r="O244" s="2">
         <f t="shared" si="15"/>
-        <v>4.3900834573659262</v>
-      </c>
-    </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
+        <v>4.3279982519026099</v>
+      </c>
+    </row>
+    <row r="245" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A245" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="E245" s="4" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="F245" s="3">
-        <v>93979.199999999997</v>
+        <v>102600</v>
       </c>
       <c r="G245" s="3">
-        <v>0</v>
+        <v>9280</v>
       </c>
       <c r="H245" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I245" s="3">
         <f t="shared" si="12"/>
-        <v>4.3279982519026099</v>
+        <v>4.2898826348881833</v>
       </c>
       <c r="J245" s="3">
         <f t="shared" si="13"/>
-        <v>4.6989600000000002E-5</v>
+        <v>5.13E-5</v>
       </c>
       <c r="K245" s="3">
         <v>0</v>
       </c>
       <c r="L245" s="3" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="N245" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.M1240K_STX</v>
+        <v>ligand_rNaV1.4.Y401S_STX.C11.6</v>
       </c>
       <c r="O245" s="2">
         <f t="shared" si="15"/>
-        <v>4.3279982519026099</v>
-      </c>
-    </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A246" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B246" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C246" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D246" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E246" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="F246" s="3">
-        <v>102600</v>
-      </c>
-      <c r="G246" s="3">
-        <v>9280</v>
-      </c>
-      <c r="H246" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I246" s="3">
+        <v>4.2898826348881833</v>
+      </c>
+    </row>
+    <row r="246" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A246" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B246" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C246" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D246" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E246" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="F246" s="10">
+        <v>107094.39999999999</v>
+      </c>
+      <c r="G246" s="10">
+        <v>0</v>
+      </c>
+      <c r="H246" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I246" s="10">
         <f t="shared" si="12"/>
-        <v>4.2898826348881833</v>
+        <v>4.2712632336340288</v>
       </c>
       <c r="J246" s="3">
         <f t="shared" si="13"/>
-        <v>5.13E-5</v>
-      </c>
-      <c r="K246" s="3">
-        <v>0</v>
-      </c>
-      <c r="L246" s="3" t="s">
-        <v>31</v>
+        <v>5.3547199999999994E-5</v>
+      </c>
+      <c r="K246" s="10">
+        <v>0</v>
+      </c>
+      <c r="L246" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="N246" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.Y401S_STX.C11.6</v>
+        <v>ligand_rNaV1.4.D1532N_STX</v>
       </c>
       <c r="O246" s="2">
         <f t="shared" si="15"/>
-        <v>4.2898826348881833</v>
-      </c>
-    </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A247" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B247" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C247" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D247" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E247" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="F247" s="10">
-        <v>107094.39999999999</v>
-      </c>
-      <c r="G247" s="10">
-        <v>0</v>
-      </c>
-      <c r="H247" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I247" s="10">
+        <v>4.2712632336340288</v>
+      </c>
+    </row>
+    <row r="247" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A247" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D247" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E247" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F247" s="3">
+        <v>109645.2</v>
+      </c>
+      <c r="G247" s="3">
+        <v>0</v>
+      </c>
+      <c r="H247" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I247" s="3">
         <f t="shared" si="12"/>
-        <v>4.2712632336340288</v>
+        <v>4.2610403715897203</v>
       </c>
       <c r="J247" s="3">
         <f t="shared" si="13"/>
-        <v>5.3547199999999994E-5</v>
-      </c>
-      <c r="K247" s="10">
-        <v>0</v>
-      </c>
-      <c r="L247" s="10" t="s">
+        <v>5.4822599999999999E-5</v>
+      </c>
+      <c r="K247" s="3">
+        <v>0</v>
+      </c>
+      <c r="L247" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N247" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.D1532N_STX</v>
+        <v>ligand_rNaV1.4.E755A_TTX</v>
       </c>
       <c r="O247" s="2">
         <f t="shared" si="15"/>
-        <v>4.2712632336340288</v>
-      </c>
-    </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.2">
+        <v>4.2610403715897203</v>
+      </c>
+    </row>
+    <row r="248" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A248" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E248" s="4" t="s">
-        <v>215</v>
+        <v>26</v>
+      </c>
+      <c r="E248" s="6" t="s">
+        <v>214</v>
       </c>
       <c r="F248" s="3">
-        <v>109645.2</v>
+        <v>110017.60000000001</v>
       </c>
       <c r="G248" s="3">
         <v>0</v>
@@ -13098,11 +13096,11 @@
       </c>
       <c r="I248" s="3">
         <f t="shared" si="12"/>
-        <v>4.2610403715897203</v>
+        <v>4.259567828947028</v>
       </c>
       <c r="J248" s="3">
         <f t="shared" si="13"/>
-        <v>5.4822599999999999E-5</v>
+        <v>5.5008800000000001E-5</v>
       </c>
       <c r="K248" s="3">
         <v>0</v>
@@ -13112,31 +13110,31 @@
       </c>
       <c r="N248" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.E755A_TTX</v>
+        <v>ligand_rNaV1.4.E403Q_STX</v>
       </c>
       <c r="O248" s="2">
         <f t="shared" si="15"/>
-        <v>4.2610403715897203</v>
-      </c>
-    </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.2">
+        <v>4.259567828947028</v>
+      </c>
+    </row>
+    <row r="249" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A249" s="3" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E249" s="6" t="s">
-        <v>214</v>
+        <v>65</v>
+      </c>
+      <c r="E249" s="4" t="s">
+        <v>222</v>
       </c>
       <c r="F249" s="3">
-        <v>110017.60000000001</v>
+        <v>114193.8</v>
       </c>
       <c r="G249" s="3">
         <v>0</v>
@@ -13146,11 +13144,11 @@
       </c>
       <c r="I249" s="3">
         <f t="shared" si="12"/>
-        <v>4.259567828947028</v>
+        <v>4.2433874705534755</v>
       </c>
       <c r="J249" s="3">
         <f t="shared" si="13"/>
-        <v>5.5008800000000001E-5</v>
+        <v>5.7096899999999999E-5</v>
       </c>
       <c r="K249" s="3">
         <v>0</v>
@@ -13160,62 +13158,62 @@
       </c>
       <c r="N249" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.E403Q_STX</v>
+        <v>ligand_rNaV1.4.M1240K_TTX</v>
       </c>
       <c r="O249" s="2">
         <f t="shared" si="15"/>
-        <v>4.259567828947028</v>
-      </c>
-    </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.2">
+        <v>4.2433874705534755</v>
+      </c>
+    </row>
+    <row r="250" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A250" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="E250" s="4" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="F250" s="3">
-        <v>114193.8</v>
+        <v>126800</v>
       </c>
       <c r="G250" s="3">
-        <v>0</v>
+        <v>1020</v>
       </c>
       <c r="H250" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I250" s="3">
         <f t="shared" si="12"/>
-        <v>4.2433874705534755</v>
+        <v>4.1979107421182675</v>
       </c>
       <c r="J250" s="3">
         <f t="shared" si="13"/>
-        <v>5.7096899999999999E-5</v>
+        <v>6.3399999999999996E-5</v>
       </c>
       <c r="K250" s="3">
         <v>0</v>
       </c>
       <c r="L250" s="3" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="N250" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.M1240K_TTX</v>
+        <v>ligand_rNaV1.4.Y401S_STX.C10.1</v>
       </c>
       <c r="O250" s="2">
         <f t="shared" si="15"/>
-        <v>4.2433874705534755</v>
-      </c>
-    </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.2">
+        <v>4.1979107421182675</v>
+      </c>
+    </row>
+    <row r="251" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A251" s="3" t="s">
         <v>5</v>
       </c>
@@ -13226,27 +13224,27 @@
         <v>11</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E251" s="4" t="s">
-        <v>207</v>
+        <v>33</v>
+      </c>
+      <c r="E251" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="F251" s="3">
-        <v>126800</v>
+        <v>129900</v>
       </c>
       <c r="G251" s="3">
-        <v>1020</v>
+        <v>13600</v>
       </c>
       <c r="H251" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I251" s="3">
         <f t="shared" si="12"/>
-        <v>4.1979107421182675</v>
+        <v>4.1874208445909531</v>
       </c>
       <c r="J251" s="3">
         <f t="shared" si="13"/>
-        <v>6.3399999999999996E-5</v>
+        <v>6.4950000000000007E-5</v>
       </c>
       <c r="K251" s="3">
         <v>0</v>
@@ -13256,113 +13254,65 @@
       </c>
       <c r="N251" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.Y401S_STX.C10.1</v>
+        <v>ligand_rNaV1.4.E403D.M1240T.D1241I_STX.C10.1</v>
       </c>
       <c r="O251" s="2">
         <f t="shared" si="15"/>
-        <v>4.1979107421182675</v>
-      </c>
-    </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.2">
+        <v>4.1874208445909531</v>
+      </c>
+    </row>
+    <row r="252" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A252" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="E252" s="6" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="F252" s="3">
-        <v>129900</v>
+        <v>257000</v>
       </c>
       <c r="G252" s="3">
-        <v>13600</v>
+        <v>14000</v>
       </c>
       <c r="H252" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I252" s="3">
         <f t="shared" si="12"/>
-        <v>4.1874208445909531</v>
+        <v>3.8910968723326866</v>
       </c>
       <c r="J252" s="3">
         <f t="shared" si="13"/>
-        <v>6.4950000000000007E-5</v>
+        <v>1.2850000000000001E-4</v>
       </c>
       <c r="K252" s="3">
         <v>0</v>
       </c>
       <c r="L252" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N252" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.E403D.M1240T.D1241I_STX.C10.1</v>
+        <v>ligand_rNaV1.4_STX.C12.1</v>
       </c>
       <c r="O252" s="2">
         <f t="shared" si="15"/>
-        <v>4.1874208445909531</v>
-      </c>
-    </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A253" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B253" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C253" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D253" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E253" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="F253" s="3">
-        <v>257000</v>
-      </c>
-      <c r="G253" s="3">
-        <v>14000</v>
-      </c>
-      <c r="H253" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I253" s="3">
-        <f t="shared" si="12"/>
         <v>3.8910968723326866</v>
       </c>
-      <c r="J253" s="3">
-        <f t="shared" si="13"/>
-        <v>1.2850000000000001E-4</v>
-      </c>
-      <c r="K253" s="3">
-        <v>0</v>
-      </c>
-      <c r="L253" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="N253" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4_STX.C12.1</v>
-      </c>
-      <c r="O253" s="2">
-        <f t="shared" si="15"/>
-        <v>3.8910968723326866</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M253">
-    <sortCondition ref="F2:F253"/>
-    <sortCondition ref="D2:D253"/>
+  <sortState ref="A2:M252">
+    <sortCondition ref="F2:F252"/>
+    <sortCondition ref="D2:D252"/>
   </sortState>
   <dataConsolidate function="average" topLabels="1">
     <dataRefs count="3">
@@ -13372,22 +13322,22 @@
     </dataRefs>
   </dataConsolidate>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B271:B1048576 E271:E1048576 A1:L254 N1:XFD1048576">
+  <conditionalFormatting sqref="B270:B1048576 E270:E1048576 A1:L253 N1:XFD1048576">
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>AND(INDIRECT(ADDRESS(ROW()-1,B))=INDIRECT(ADDRESS(ROW(),B)), INDIRECT(ADDRESS(ROW()-1,D))=INDIRECT(ADDRESS(ROW(),D)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A271:A1048576">
+  <conditionalFormatting sqref="A270:A1048576">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>AND(INDIRECT(ADDRESS(ROW()-1,B))=INDIRECT(ADDRESS(ROW(),B)), INDIRECT(ADDRESS(ROW()-1,D))=INDIRECT(ADDRESS(ROW(),D)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C271:D1048576">
+  <conditionalFormatting sqref="C270:D1048576">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>AND(INDIRECT(ADDRESS(ROW()-1,B))=INDIRECT(ADDRESS(ROW(),B)), INDIRECT(ADDRESS(ROW()-1,D))=INDIRECT(ADDRESS(ROW(),D)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F271:L1048576">
+  <conditionalFormatting sqref="F270:L1048576">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND(INDIRECT(ADDRESS(ROW()-1,B))=INDIRECT(ADDRESS(ROW(),B)), INDIRECT(ADDRESS(ROW()-1,D))=INDIRECT(ADDRESS(ROW(),D)))</formula>
     </cfRule>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11202"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janet Liu\Documents\2019-2020\CS221\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B566C7-D0DA-4A08-A4B9-91A0BE7E076E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE4EA14-A525-2049-95EA-324157450E11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14746" xr2:uid="{8ACADFD3-D4EE-4ABF-AACA-8F0EE7039D4B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22700" windowHeight="14740" xr2:uid="{8ACADFD3-D4EE-4ABF-AACA-8F0EE7039D4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1217,23 +1219,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81FC3777-24FE-4B88-BA57-2E8BD12CE519}">
   <dimension ref="A1:O252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C140" zoomScale="72" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="D166" sqref="D166"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="K147" sqref="K147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="18.796875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="111.796875" style="3" customWidth="1"/>
+    <col min="1" max="2" width="18.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="111.83203125" style="3" customWidth="1"/>
     <col min="4" max="4" width="34.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="30.46484375" style="4" customWidth="1"/>
-    <col min="6" max="12" width="18.796875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="30.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="28.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="27.6640625" style="3" customWidth="1"/>
+    <col min="8" max="12" width="18.83203125" style="3" customWidth="1"/>
     <col min="14" max="14" width="49.6640625" style="2" customWidth="1"/>
     <col min="15" max="15" width="15" style="2" customWidth="1"/>
     <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="14.65" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -1277,7 +1281,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -1311,6 +1315,7 @@
         <v>3.0500000000000001E-12</v>
       </c>
       <c r="K2" s="3">
+        <f>INT(F2&lt;500)</f>
         <v>1</v>
       </c>
       <c r="L2" s="3" t="s">
@@ -1325,7 +1330,7 @@
         <v>11.515700160653214</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -1359,21 +1364,22 @@
         <v>3.2500000000000004E-11</v>
       </c>
       <c r="K3" s="3">
+        <f t="shared" ref="K3:K66" si="2">INT(F3&lt;500)</f>
         <v>1</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N3" s="2" t="str">
-        <f t="shared" ref="N3:N66" si="2">CONCATENATE("ligand_",SUBSTITUTE(SUBSTITUTE(D3," ","."),"/","."),"_",B3)</f>
+        <f t="shared" ref="N3:N66" si="3">CONCATENATE("ligand_",SUBSTITUTE(SUBSTITUTE(D3," ","."),"/","."),"_",B3)</f>
         <v>ligand_rNaV1.2_ZTX</v>
       </c>
       <c r="O3" s="2">
-        <f t="shared" ref="O3:O66" si="3">I3</f>
+        <f t="shared" ref="O3:O66" si="4">I3</f>
         <v>10.488116639021126</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -1407,21 +1413,22 @@
         <v>1.4000000000000001E-10</v>
       </c>
       <c r="K4" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N4" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ligand_hNaV1.5_ZTX</v>
       </c>
       <c r="O4" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.8538719643217618</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
@@ -1455,21 +1462,22 @@
         <v>5.0000000000000003E-10</v>
       </c>
       <c r="K5" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N5" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ligand_rNaV1.5_ZTX</v>
       </c>
       <c r="O5" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.3010299956639813</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
@@ -1502,22 +1510,23 @@
         <f t="shared" si="1"/>
         <v>6E-10</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>44</v>
       </c>
       <c r="N6" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ligand_rNaV1.2_STX</v>
       </c>
       <c r="O6" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.2218487496163561</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1551,21 +1560,22 @@
         <v>6E-10</v>
       </c>
       <c r="K7" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N7" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ligand_rNaV1.4.A1245C_STX</v>
       </c>
       <c r="O7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.2218487496163561</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1599,21 +1609,22 @@
         <v>6.5000000000000003E-10</v>
       </c>
       <c r="K8" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N8" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ligand_rNaV1.4.D1241E_STX</v>
       </c>
       <c r="O8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.1870866433571443</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
@@ -1647,21 +1658,22 @@
         <v>6.5000000000000003E-10</v>
       </c>
       <c r="K9" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N9" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ligand_rNaV1.5.C374Y_TTX</v>
       </c>
       <c r="O9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.1870866433571443</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -1695,21 +1707,22 @@
         <v>8.0000000000000003E-10</v>
       </c>
       <c r="K10" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N10" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ligand_rNaV1.4.M1240I_STX</v>
       </c>
       <c r="O10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.0969100130080562</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
@@ -1743,21 +1756,22 @@
         <v>8.9999999999999999E-10</v>
       </c>
       <c r="K11" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N11" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ligand_rNaV1.4.1242C_STX</v>
       </c>
       <c r="O11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.0457574905606748</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
@@ -1791,21 +1805,22 @@
         <v>9.5000000000000003E-10</v>
       </c>
       <c r="K12" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N12" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ligand_rNaV1.4_STX.N21.1</v>
       </c>
       <c r="O12" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.0222763947111524</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
@@ -1839,21 +1854,22 @@
         <v>1.0000000000000001E-9</v>
       </c>
       <c r="K13" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N13" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ligand_rNaV1.4.K1252C_STX</v>
       </c>
       <c r="O13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1887,21 +1903,22 @@
         <v>1.0500000000000001E-9</v>
       </c>
       <c r="K14" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N14" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ligand_rNaV1.4.L1534A_STX.N21.1</v>
       </c>
       <c r="O14" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.9788107009300617</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>5</v>
       </c>
@@ -1935,18 +1952,19 @@
         <v>1.15E-9</v>
       </c>
       <c r="K15" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="N15" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ligand_hNaV1.7.T1398M.I1399D_STX</v>
       </c>
       <c r="O15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.9393021596463882</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>5</v>
       </c>
@@ -1979,22 +1997,23 @@
         <f t="shared" si="1"/>
         <v>1.45E-9</v>
       </c>
-      <c r="K16" s="10">
+      <c r="K16" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L16" s="10" t="s">
         <v>31</v>
       </c>
       <c r="N16" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ligand_rNaV1.4_STX</v>
       </c>
       <c r="O16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.8386319977650256</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>5</v>
       </c>
@@ -2028,21 +2047,22 @@
         <v>1.55E-9</v>
       </c>
       <c r="K17" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N17" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ligand_rNaV1.4.T759C_STX</v>
       </c>
       <c r="O17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.8096683018297082</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>5</v>
       </c>
@@ -2076,21 +2096,22 @@
         <v>1.6499999999999999E-9</v>
       </c>
       <c r="K18" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N18" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ligand_rNaV1.4.M1240V_STX</v>
       </c>
       <c r="O18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.7825160557860933</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>5</v>
       </c>
@@ -2124,21 +2145,22 @@
         <v>2.2000000000000003E-9</v>
       </c>
       <c r="K19" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L19" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N19" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ligand_rNaV1.4.L1534A_STX</v>
       </c>
       <c r="O19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.6575773191777934</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>5</v>
       </c>
@@ -2172,21 +2194,22 @@
         <v>2.2499999999999999E-9</v>
       </c>
       <c r="K20" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N20" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ligand_rNaV1.4_STX.N21.2</v>
       </c>
       <c r="O20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.6478174818886373</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>5</v>
       </c>
@@ -2220,21 +2243,22 @@
         <v>2.2999999999999999E-9</v>
       </c>
       <c r="K21" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N21" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ligand_rNaV1.4.L1534A_STX.N21.2</v>
       </c>
       <c r="O21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.6382721639824069</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>5</v>
       </c>
@@ -2268,21 +2292,22 @@
         <v>2.45E-9</v>
       </c>
       <c r="K22" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N22" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ligand_rNaV1.4.D1241I_STX.N21.2</v>
       </c>
       <c r="O22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.6108339156354674</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>19</v>
       </c>
@@ -2316,18 +2341,19 @@
         <v>2.5000000000000001E-9</v>
       </c>
       <c r="K23" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="N23" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ligand_hNaV1.7.T1398M.I1399D_TTX</v>
       </c>
       <c r="O23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.6020599913279625</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>5</v>
       </c>
@@ -2361,21 +2387,22 @@
         <v>2.8500000000000003E-9</v>
       </c>
       <c r="K24" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N24" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ligand_rNaV1.4.M1240C_STX</v>
       </c>
       <c r="O24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.5451551399914898</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>5</v>
       </c>
@@ -2409,21 +2436,22 @@
         <v>3.05E-9</v>
       </c>
       <c r="K25" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L25" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N25" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ligand_rNaV1.4_STX.C13.4</v>
       </c>
       <c r="O25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.5157001606532141</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>5</v>
       </c>
@@ -2457,21 +2485,22 @@
         <v>3.1500000000000001E-9</v>
       </c>
       <c r="K26" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N26" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ligand_rNaV1.4.I757A_STX.N21.1</v>
       </c>
       <c r="O26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.5016894462103991</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>5</v>
       </c>
@@ -2505,21 +2534,22 @@
         <v>3.6E-9</v>
       </c>
       <c r="K27" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N27" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ligand_rNaV1.4.D1241E_STX.C13.1</v>
       </c>
       <c r="O27" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.4436974992327123</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>19</v>
       </c>
@@ -2553,21 +2583,22 @@
         <v>3.9000000000000002E-9</v>
       </c>
       <c r="K28" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L28" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N28" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ligand_hNaV1.6_TTX.C4.1</v>
       </c>
       <c r="O28" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.4089353929735005</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>19</v>
       </c>
@@ -2601,21 +2632,22 @@
         <v>3.9000000000000002E-9</v>
       </c>
       <c r="K29" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N29" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ligand_rNaV1.6_TTX.C4.1</v>
       </c>
       <c r="O29" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.4089353929735005</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>5</v>
       </c>
@@ -2649,21 +2681,22 @@
         <v>4.0999999999999995E-9</v>
       </c>
       <c r="K30" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L30" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N30" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ligand_rNaV1.4.M1240T.D1241I_STX.C13.4</v>
       </c>
       <c r="O30" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.3872161432802645</v>
       </c>
     </row>
-    <row r="31" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>19</v>
       </c>
@@ -2697,19 +2730,20 @@
         <v>4.3499999999999992E-9</v>
       </c>
       <c r="K31" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L31" s="3"/>
       <c r="N31" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ligand_rNaV1.4.D1241I_TTX</v>
       </c>
       <c r="O31" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.361510743045363</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>5</v>
       </c>
@@ -2742,22 +2776,23 @@
         <f t="shared" si="1"/>
         <v>4.4999999999999998E-9</v>
       </c>
-      <c r="K32" s="7">
+      <c r="K32" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>44</v>
       </c>
       <c r="N32" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ligand_rNaV1.4_STX.N21.23</v>
       </c>
       <c r="O32" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.346787486224656</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>5</v>
       </c>
@@ -2791,21 +2826,22 @@
         <v>4.5999999999999998E-9</v>
       </c>
       <c r="K33" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N33" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ligand_rNaV1.4.M1240I_STX.C13.2</v>
       </c>
       <c r="O33" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.3372421683184257</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>5</v>
       </c>
@@ -2839,21 +2875,22 @@
         <v>5.0000000000000001E-9</v>
       </c>
       <c r="K34" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N34" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ligand_rNaV1.2_STX.N21.15</v>
       </c>
       <c r="O34" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.3010299956639813</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>5</v>
       </c>
@@ -2887,21 +2924,22 @@
         <v>5.4999999999999996E-9</v>
       </c>
       <c r="K35" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N35" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ligand_rNaV1.4_STX.C11.6</v>
       </c>
       <c r="O35" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.2596373105057559</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>5</v>
       </c>
@@ -2935,21 +2973,22 @@
         <v>6E-9</v>
       </c>
       <c r="K36" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L36" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N36" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ligand_rNaV1.4.A1245C_STX.N21.3</v>
       </c>
       <c r="O36" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.2218487496163561</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>5</v>
       </c>
@@ -2983,21 +3022,22 @@
         <v>6.5000000000000003E-9</v>
       </c>
       <c r="K37" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L37" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N37" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ligand_rNaV1.4.I757A_STX.N21.2</v>
       </c>
       <c r="O37" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.1870866433571443</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>5</v>
       </c>
@@ -3031,21 +3071,22 @@
         <v>6.9999999999999998E-9</v>
       </c>
       <c r="K38" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N38" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ligand_rNaV1.4.M1240N_STX</v>
       </c>
       <c r="O38" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.1549019599857431</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>17</v>
       </c>
@@ -3078,22 +3119,23 @@
         <f t="shared" si="1"/>
         <v>7.4500000000000005E-9</v>
       </c>
-      <c r="K39" s="7">
+      <c r="K39" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L39" s="7" t="s">
         <v>58</v>
       </c>
       <c r="N39" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ligand_rNaV1.4_GTX.3</v>
       </c>
       <c r="O39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.1278437272517063</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>5</v>
       </c>
@@ -3127,21 +3169,22 @@
         <v>7.4999999999999993E-9</v>
       </c>
       <c r="K40" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N40" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ligand_rNaV1.4.I757A_STX</v>
       </c>
       <c r="O40" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.1249387366082999</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>5</v>
       </c>
@@ -3175,21 +3218,22 @@
         <v>8.5E-9</v>
       </c>
       <c r="K41" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N41" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ligand_rNaV1.4_STX.C11.7</v>
       </c>
       <c r="O41" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.0705810742857071</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>5</v>
       </c>
@@ -3223,21 +3267,22 @@
         <v>8.5E-9</v>
       </c>
       <c r="K42" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N42" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ligand_rNaV1.4.W756A_STX.N21.1</v>
       </c>
       <c r="O42" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.0705810742857071</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
         <v>19</v>
       </c>
@@ -3270,22 +3315,23 @@
         <f t="shared" si="1"/>
         <v>8.5500000000000005E-9</v>
       </c>
-      <c r="K43" s="10">
+      <c r="K43" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L43" s="10" t="s">
         <v>44</v>
       </c>
       <c r="N43" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ligand_rNaV1.4_TTX</v>
       </c>
       <c r="O43" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.0680338852718272</v>
       </c>
     </row>
-    <row r="44" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>19</v>
       </c>
@@ -3318,22 +3364,23 @@
         <f t="shared" si="1"/>
         <v>9.3000000000000006E-9</v>
       </c>
-      <c r="K44" s="7">
+      <c r="K44" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L44" s="7" t="s">
         <v>44</v>
       </c>
       <c r="N44" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ligand_hNaV1.7_TTX</v>
       </c>
       <c r="O44" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.0315170514460643</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>5</v>
       </c>
@@ -3367,21 +3414,22 @@
         <v>9.5000000000000007E-9</v>
       </c>
       <c r="K45" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N45" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ligand_hNaV1.7_STX.C13.2</v>
       </c>
       <c r="O45" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.0222763947111524</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>5</v>
       </c>
@@ -3415,21 +3463,22 @@
         <v>9.5000000000000007E-9</v>
       </c>
       <c r="K46" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N46" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ligand_rNaV1.4.1242C_STX.N21.3</v>
       </c>
       <c r="O46" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.0222763947111524</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>5</v>
       </c>
@@ -3463,21 +3512,22 @@
         <v>9.5000000000000007E-9</v>
       </c>
       <c r="K47" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N47" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ligand_rNaV1.4_STX.N21.6</v>
       </c>
       <c r="O47" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.0222763947111524</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>5</v>
       </c>
@@ -3511,21 +3561,22 @@
         <v>1.05E-8</v>
       </c>
       <c r="K48" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N48" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ligand_rNaV1.4.D1241A_STX.N21.1</v>
       </c>
       <c r="O48" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.9788107009300617</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>5</v>
       </c>
@@ -3559,21 +3610,22 @@
         <v>1.05E-8</v>
       </c>
       <c r="K49" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N49" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ligand_rNaV1.4.K1252C_STX.N21.3</v>
       </c>
       <c r="O49" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.9788107009300617</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>17</v>
       </c>
@@ -3607,21 +3659,22 @@
         <v>1.0999999999999999E-8</v>
       </c>
       <c r="K50" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L50" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N50" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ligand_hNaV1.7.T1398M.I1399D_GTX.3</v>
       </c>
       <c r="O50" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.9586073148417746</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>17</v>
       </c>
@@ -3655,21 +3708,22 @@
         <v>1.0999999999999999E-8</v>
       </c>
       <c r="K51" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L51" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N51" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ligand_rNaV1.4_GTX.2</v>
       </c>
       <c r="O51" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.9586073148417746</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>5</v>
       </c>
@@ -3703,21 +3757,22 @@
         <v>1.15E-8</v>
       </c>
       <c r="K52" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N52" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ligand_rNaV1.4.D1241A_STX</v>
       </c>
       <c r="O52" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.9393021596463882</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>5</v>
       </c>
@@ -3751,21 +3806,22 @@
         <v>1.15E-8</v>
       </c>
       <c r="K53" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L53" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N53" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ligand_rNaV1.4.D1241A_STX.N21.2</v>
       </c>
       <c r="O53" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.9393021596463882</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>5</v>
       </c>
@@ -3799,21 +3855,22 @@
         <v>1.15E-8</v>
       </c>
       <c r="K54" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N54" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ligand_rNaV1.4.D1241N_STX</v>
       </c>
       <c r="O54" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.9393021596463882</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>5</v>
       </c>
@@ -3847,21 +3904,22 @@
         <v>1.2E-8</v>
       </c>
       <c r="K55" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L55" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N55" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ligand_rNaV1.2_STX.N21.13</v>
       </c>
       <c r="O55" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.9208187539523749</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>5</v>
       </c>
@@ -3895,21 +3953,22 @@
         <v>1.2E-8</v>
       </c>
       <c r="K56" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L56" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N56" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ligand_rNaV1.4.M1240T_STX.C13.2</v>
       </c>
       <c r="O56" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.9208187539523749</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>5</v>
       </c>
@@ -3943,21 +4002,22 @@
         <v>1.2499999999999999E-8</v>
       </c>
       <c r="K57" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N57" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ligand_rNaV1.4.M1240V_STX.C13.2</v>
       </c>
       <c r="O57" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.9030899869919438</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
         <v>5</v>
       </c>
@@ -3990,22 +4050,23 @@
         <f t="shared" si="1"/>
         <v>1.3000000000000001E-8</v>
       </c>
-      <c r="K58" s="7">
+      <c r="K58" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L58" s="7" t="s">
         <v>53</v>
       </c>
       <c r="N58" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ligand_rNaV1.4_STX.N21.4</v>
       </c>
       <c r="O58" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.8860566476931631</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>5</v>
       </c>
@@ -4039,21 +4100,22 @@
         <v>1.3000000000000001E-8</v>
       </c>
       <c r="K59" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N59" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ligand_rNaV1.4.M1240T.D1241I_STX.C13.2</v>
       </c>
       <c r="O59" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.8860566476931631</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>5</v>
       </c>
@@ -4087,21 +4149,22 @@
         <v>1.4500000000000001E-8</v>
       </c>
       <c r="K60" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L60" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N60" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ligand_rNaV1.4.T759C_STX.N21.3</v>
       </c>
       <c r="O60" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.8386319977650247</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>5</v>
       </c>
@@ -4135,21 +4198,22 @@
         <v>1.6000000000000001E-8</v>
       </c>
       <c r="K61" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L61" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N61" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ligand_rNaV1.2_STX.C13.2</v>
       </c>
       <c r="O61" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.795880017344075</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>5</v>
       </c>
@@ -4183,21 +4247,22 @@
         <v>1.7E-8</v>
       </c>
       <c r="K62" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N62" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ligand_rNaV1.4_STX.N21.26</v>
       </c>
       <c r="O62" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.7695510786217259</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>5</v>
       </c>
@@ -4231,21 +4296,22 @@
         <v>1.7500000000000001E-8</v>
       </c>
       <c r="K63" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L63" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N63" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ligand_rNaV1.4_STX.C13.1</v>
       </c>
       <c r="O63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.7569619513137056</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>5</v>
       </c>
@@ -4279,21 +4345,22 @@
         <v>1.7500000000000001E-8</v>
       </c>
       <c r="K64" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L64" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N64" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ligand_rNaV1.4_STX.N21.27</v>
       </c>
       <c r="O64" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.7569619513137056</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>5</v>
       </c>
@@ -4327,21 +4394,22 @@
         <v>1.7999999999999999E-8</v>
       </c>
       <c r="K65" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L65" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N65" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ligand_rNaV1.4.M1240A_STX.N21.1</v>
       </c>
       <c r="O65" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.7447274948966935</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>5</v>
       </c>
@@ -4367,29 +4435,30 @@
         <v>7</v>
       </c>
       <c r="I66" s="3">
-        <f t="shared" ref="I66:I129" si="4">-LOG(J66)</f>
+        <f t="shared" ref="I66:I129" si="5">-LOG(J66)</f>
         <v>7.7212463990471711</v>
       </c>
       <c r="J66" s="3">
-        <f t="shared" ref="J66:J129" si="5">F66/2/10^9</f>
+        <f t="shared" ref="J66:J129" si="6">F66/2/10^9</f>
         <v>1.9000000000000001E-8</v>
       </c>
       <c r="K66" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L66" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N66" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ligand_rNaV1.2_STX.N21.12</v>
       </c>
       <c r="O66" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.7212463990471711</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>5</v>
       </c>
@@ -4415,29 +4484,30 @@
         <v>7</v>
       </c>
       <c r="I67" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.7212463990471711</v>
       </c>
       <c r="J67" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9000000000000001E-8</v>
       </c>
       <c r="K67" s="3">
+        <f t="shared" ref="K67:K130" si="7">INT(F67&lt;500)</f>
         <v>1</v>
       </c>
       <c r="L67" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N67" s="2" t="str">
-        <f t="shared" ref="N67:N130" si="6">CONCATENATE("ligand_",SUBSTITUTE(SUBSTITUTE(D67," ","."),"/","."),"_",B67)</f>
+        <f t="shared" ref="N67:N130" si="8">CONCATENATE("ligand_",SUBSTITUTE(SUBSTITUTE(D67," ","."),"/","."),"_",B67)</f>
         <v>ligand_rNaV1.2_STX.N21.14</v>
       </c>
       <c r="O67" s="2">
-        <f t="shared" ref="O67:O130" si="7">I67</f>
+        <f t="shared" ref="O67:O130" si="9">I67</f>
         <v>7.7212463990471711</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>5</v>
       </c>
@@ -4463,29 +4533,30 @@
         <v>7</v>
       </c>
       <c r="I68" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.7212463990471711</v>
       </c>
       <c r="J68" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9000000000000001E-8</v>
       </c>
       <c r="K68" s="3">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L68" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N68" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ligand_rNaV1.2_STX.N21.3</v>
       </c>
       <c r="O68" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.7212463990471711</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>17</v>
       </c>
@@ -4511,29 +4582,30 @@
         <v>7</v>
       </c>
       <c r="I69" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.7212463990471711</v>
       </c>
       <c r="J69" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9000000000000001E-8</v>
       </c>
       <c r="K69" s="3">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L69" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N69" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ligand_rNaV1.4.D1241I_GTX.3</v>
       </c>
       <c r="O69" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.7212463990471711</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>5</v>
       </c>
@@ -4559,29 +4631,30 @@
         <v>7</v>
       </c>
       <c r="I70" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.7099653886374817</v>
       </c>
       <c r="J70" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9499999999999999E-8</v>
       </c>
       <c r="K70" s="3">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L70" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N70" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ligand_rNaV1.4.W756A_STX.N21.2</v>
       </c>
       <c r="O70" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.7099653886374817</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>5</v>
       </c>
@@ -4607,29 +4680,30 @@
         <v>7</v>
       </c>
       <c r="I71" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.6882461389442458</v>
       </c>
       <c r="J71" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.0500000000000002E-8</v>
       </c>
       <c r="K71" s="3">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L71" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N71" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ligand_rNaV1.4.M1240A_STX</v>
       </c>
       <c r="O71" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.6882461389442458</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>5</v>
       </c>
@@ -4655,29 +4729,30 @@
         <v>7</v>
       </c>
       <c r="I72" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.6777807052660805</v>
       </c>
       <c r="J72" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.0999999999999999E-8</v>
       </c>
       <c r="K72" s="3">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N72" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ligand_rNaV1.4.L1534A_STX.C13.1</v>
       </c>
       <c r="O72" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.6777807052660805</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>5</v>
       </c>
@@ -4703,29 +4778,30 @@
         <v>7</v>
       </c>
       <c r="I73" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.6675615400843951</v>
       </c>
       <c r="J73" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.1500000000000001E-8</v>
       </c>
       <c r="K73" s="3">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L73" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N73" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ligand_rNaV1.4.W756A_STX</v>
       </c>
       <c r="O73" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.6675615400843951</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>5</v>
       </c>
@@ -4751,29 +4827,30 @@
         <v>7</v>
       </c>
       <c r="I74" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.6575773191777934</v>
       </c>
       <c r="J74" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.1999999999999998E-8</v>
       </c>
       <c r="K74" s="3">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L74" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N74" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ligand_rNaV1.4.M1240T_STX.N21.2</v>
       </c>
       <c r="O74" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.6575773191777934</v>
       </c>
     </row>
-    <row r="75" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>5</v>
       </c>
@@ -4799,29 +4876,30 @@
         <v>7</v>
       </c>
       <c r="I75" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.6382721639824069</v>
       </c>
       <c r="J75" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.3000000000000001E-8</v>
       </c>
       <c r="K75" s="3">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L75" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N75" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ligand_rNaV1.4_STX.N21.25</v>
       </c>
       <c r="O75" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.6382721639824069</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>5</v>
       </c>
@@ -4847,29 +4925,30 @@
         <v>7</v>
       </c>
       <c r="I76" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.6197887582883936</v>
       </c>
       <c r="J76" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.4E-8</v>
       </c>
       <c r="K76" s="3">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N76" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ligand_rNaV1.4.D1241T_STX</v>
       </c>
       <c r="O76" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.6197887582883936</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>5</v>
       </c>
@@ -4895,29 +4974,30 @@
         <v>7</v>
       </c>
       <c r="I77" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.5686362358410131</v>
       </c>
       <c r="J77" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.7E-8</v>
       </c>
       <c r="K77" s="3">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L77" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N77" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ligand_rNaV1.4_STX.N21.3</v>
       </c>
       <c r="O77" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.5686362358410131</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>5</v>
       </c>
@@ -4943,29 +5023,30 @@
         <v>7</v>
       </c>
       <c r="I78" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.5528419686577806</v>
       </c>
       <c r="J78" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.7999999999999999E-8</v>
       </c>
       <c r="K78" s="3">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L78" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N78" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ligand_rNaV1.2_STX.N21.21</v>
       </c>
       <c r="O78" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.5528419686577806</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
         <v>5</v>
       </c>
@@ -4991,29 +5072,30 @@
         <v>7</v>
       </c>
       <c r="I79" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.5016894462103991</v>
       </c>
       <c r="J79" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.1499999999999998E-8</v>
       </c>
-      <c r="K79" s="7">
+      <c r="K79" s="3">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L79" s="7" t="s">
         <v>31</v>
       </c>
       <c r="N79" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ligand_rNaV1.4.D1241I_STX</v>
       </c>
       <c r="O79" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.5016894462103991</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>5</v>
       </c>
@@ -5039,29 +5121,30 @@
         <v>7</v>
       </c>
       <c r="I80" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.4814860601221129</v>
       </c>
       <c r="J80" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.2999999999999998E-8</v>
       </c>
       <c r="K80" s="3">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L80" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N80" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ligand_rNaV1.2_STX.N21.16</v>
       </c>
       <c r="O80" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.4814860601221129</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>5</v>
       </c>
@@ -5087,29 +5170,30 @@
         <v>7</v>
       </c>
       <c r="I81" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.4749551929631544</v>
       </c>
       <c r="J81" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.3500000000000002E-8</v>
       </c>
       <c r="K81" s="3">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N81" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ligand_rNaV1.4.M1240T.D1241A_STX.N21.2</v>
       </c>
       <c r="O81" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.4749551929631544</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>5</v>
       </c>
@@ -5135,29 +5219,30 @@
         <v>7</v>
       </c>
       <c r="I82" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.414539270491499</v>
       </c>
       <c r="J82" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.8500000000000001E-8</v>
       </c>
       <c r="K82" s="3">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L82" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N82" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ligand_rNaV1.4.M1240I_STX.C13.1</v>
       </c>
       <c r="O82" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.414539270491499</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>5</v>
       </c>
@@ -5183,29 +5268,30 @@
         <v>7</v>
       </c>
       <c r="I83" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.4089353929735005</v>
       </c>
       <c r="J83" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.8999999999999998E-8</v>
       </c>
       <c r="K83" s="3">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N83" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ligand_rNaV1.4_STX.N21.35</v>
       </c>
       <c r="O83" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.4089353929735005</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>5</v>
       </c>
@@ -5231,29 +5317,30 @@
         <v>7</v>
       </c>
       <c r="I84" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.4089353929735005</v>
       </c>
       <c r="J84" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.8999999999999998E-8</v>
       </c>
       <c r="K84" s="3">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L84" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N84" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ligand_rNaV1.4.M1240A_STX.N21.2</v>
       </c>
       <c r="O84" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.4089353929735005</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>5</v>
       </c>
@@ -5279,29 +5366,30 @@
         <v>7</v>
       </c>
       <c r="I85" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.3979400086720375</v>
       </c>
       <c r="J85" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.0000000000000001E-8</v>
       </c>
       <c r="K85" s="3">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L85" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N85" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ligand_rNaV1.4.D1241I_STX.C13.1</v>
       </c>
       <c r="O85" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.3979400086720375</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>5</v>
       </c>
@@ -5327,29 +5415,30 @@
         <v>7</v>
       </c>
       <c r="I86" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.3979400086720375</v>
       </c>
       <c r="J86" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.0000000000000001E-8</v>
       </c>
       <c r="K86" s="3">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L86" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N86" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ligand_rNaV1.4.M1240V_STX.C13.1</v>
       </c>
       <c r="O86" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.3979400086720375</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>5</v>
       </c>
@@ -5375,29 +5464,30 @@
         <v>7</v>
       </c>
       <c r="I87" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.3819519032879075</v>
       </c>
       <c r="J87" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.1500000000000001E-8</v>
       </c>
       <c r="K87" s="3">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L87" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N87" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ligand_rNaV1.4_STX.C13.2</v>
       </c>
       <c r="O87" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.3819519032879075</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
         <v>5</v>
       </c>
@@ -5423,29 +5513,30 @@
         <v>7</v>
       </c>
       <c r="I88" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.3819519032879075</v>
       </c>
       <c r="J88" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.1500000000000001E-8</v>
       </c>
-      <c r="K88" s="10">
+      <c r="K88" s="3">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L88" s="10" t="s">
         <v>44</v>
       </c>
       <c r="N88" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ligand_rNaV1.4_STX.N21.24</v>
       </c>
       <c r="O88" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.3819519032879075</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
         <v>5</v>
       </c>
@@ -5471,29 +5562,30 @@
         <v>7</v>
       </c>
       <c r="I89" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.3767507096020992</v>
       </c>
       <c r="J89" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.1999999999999999E-8</v>
       </c>
-      <c r="K89" s="7">
+      <c r="K89" s="3">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L89" s="7" t="s">
         <v>31</v>
       </c>
       <c r="N89" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ligand_rNaV1.4.M1240T_STX</v>
       </c>
       <c r="O89" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.3767507096020992</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>5</v>
       </c>
@@ -5519,29 +5611,30 @@
         <v>7</v>
       </c>
       <c r="I90" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.3665315444204138</v>
       </c>
       <c r="J90" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.3000000000000001E-8</v>
       </c>
       <c r="K90" s="3">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L90" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N90" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ligand_rNaV1.4_STX.N21.29</v>
       </c>
       <c r="O90" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.3665315444204138</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>5</v>
       </c>
@@ -5567,29 +5660,30 @@
         <v>7</v>
       </c>
       <c r="I91" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.361510743045363</v>
       </c>
       <c r="J91" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.3499999999999999E-8</v>
       </c>
       <c r="K91" s="3">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N91" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ligand_rNaV1.4_STX.N21.33</v>
       </c>
       <c r="O91" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.361510743045363</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
         <v>19</v>
       </c>
@@ -5615,29 +5709,30 @@
         <v>7</v>
       </c>
       <c r="I92" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.346787486224656</v>
       </c>
       <c r="J92" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.4999999999999999E-8</v>
       </c>
-      <c r="K92" s="10">
+      <c r="K92" s="3">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L92" s="10" t="s">
         <v>44</v>
       </c>
       <c r="N92" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ligand_rNaV1.4.M1240T.D1241I_TTX</v>
       </c>
       <c r="O92" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.346787486224656</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
         <v>5</v>
       </c>
@@ -5663,29 +5758,30 @@
         <v>7</v>
       </c>
       <c r="I93" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.3372421683184257</v>
       </c>
       <c r="J93" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.6000000000000002E-8</v>
       </c>
-      <c r="K93" s="10">
+      <c r="K93" s="3">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L93" s="10" t="s">
         <v>54</v>
       </c>
       <c r="N93" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ligand_rNaV1.2_STX.N21.9</v>
       </c>
       <c r="O93" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.3372421683184257</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>5</v>
       </c>
@@ -5711,29 +5807,30 @@
         <v>7</v>
       </c>
       <c r="I94" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.3372421683184257</v>
       </c>
       <c r="J94" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.6000000000000002E-8</v>
       </c>
       <c r="K94" s="3">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N94" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ligand_rNaV1.4_STX.N21.28</v>
       </c>
       <c r="O94" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.3372421683184257</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>5</v>
       </c>
@@ -5759,29 +5856,30 @@
         <v>7</v>
       </c>
       <c r="I95" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.3372421683184257</v>
       </c>
       <c r="J95" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.6000000000000002E-8</v>
       </c>
       <c r="K95" s="3">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L95" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N95" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ligand_rNaV1.4.M1240C_STX.N21.3</v>
       </c>
       <c r="O95" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.3372421683184257</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>5</v>
       </c>
@@ -5807,29 +5905,30 @@
         <v>7</v>
       </c>
       <c r="I96" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.3372421683184257</v>
       </c>
       <c r="J96" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.6000000000000002E-8</v>
       </c>
       <c r="K96" s="3">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L96" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N96" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ligand_rNaV1.9_STX.N21.14</v>
       </c>
       <c r="O96" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.3372421683184257</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>5</v>
       </c>
@@ -5855,29 +5954,30 @@
         <v>7</v>
       </c>
       <c r="I97" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.3010299956639813</v>
       </c>
       <c r="J97" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.9999999999999998E-8</v>
       </c>
       <c r="K97" s="3">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L97" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N97" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ligand_rNaV1.4.D1241E_STX.C13.2</v>
       </c>
       <c r="O97" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.3010299956639813</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>5</v>
       </c>
@@ -5903,29 +6003,30 @@
         <v>7</v>
       </c>
       <c r="I98" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.2924298239020633</v>
       </c>
       <c r="J98" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.1E-8</v>
       </c>
       <c r="K98" s="3">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L98" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N98" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ligand_rNaV1.4.D1241A_STX.C13.1</v>
       </c>
       <c r="O98" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.2924298239020633</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>5</v>
       </c>
@@ -5951,29 +6052,30 @@
         <v>7</v>
       </c>
       <c r="I99" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.2636034977233574</v>
       </c>
       <c r="J99" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.4499999999999998E-8</v>
       </c>
       <c r="K99" s="3">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L99" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N99" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ligand_rNaV1.4.L1534A_STX.C13.2</v>
       </c>
       <c r="O99" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.2636034977233574</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>5</v>
       </c>
@@ -5999,29 +6101,30 @@
         <v>7</v>
       </c>
       <c r="I100" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.2111248842245832</v>
       </c>
       <c r="J100" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.1500000000000001E-8</v>
       </c>
       <c r="K100" s="3">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N100" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ligand_rNaV1.4.D1241N_STX.C13.1</v>
       </c>
       <c r="O100" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.2111248842245832</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>5</v>
       </c>
@@ -6047,29 +6150,30 @@
         <v>7</v>
       </c>
       <c r="I101" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.2076083105017466</v>
       </c>
       <c r="J101" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.1999999999999999E-8</v>
       </c>
       <c r="K101" s="3">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N101" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ligand_rNaV1.4_STX.N21.34</v>
       </c>
       <c r="O101" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.2076083105017466</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>5</v>
       </c>
@@ -6095,29 +6199,30 @@
         <v>7</v>
       </c>
       <c r="I102" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.2006594505464188</v>
       </c>
       <c r="J102" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.2999999999999995E-8</v>
       </c>
       <c r="K102" s="3">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N102" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ligand_rNaV1.2_STX.N21.7</v>
       </c>
       <c r="O102" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.2006594505464188</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>5</v>
       </c>
@@ -6143,29 +6248,30 @@
         <v>7</v>
       </c>
       <c r="I103" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.2006594505464188</v>
       </c>
       <c r="J103" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.2999999999999995E-8</v>
       </c>
       <c r="K103" s="3">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L103" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N103" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ligand_rNaV1.4_STX.N21.22</v>
       </c>
       <c r="O103" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.2006594505464188</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>5</v>
       </c>
@@ -6191,29 +6297,30 @@
         <v>7</v>
       </c>
       <c r="I104" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.1804560644581317</v>
       </c>
       <c r="J104" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.5999999999999995E-8</v>
       </c>
       <c r="K104" s="3">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L104" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N104" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ligand_rNaV1.4.D1241I_STX.C13.2</v>
       </c>
       <c r="O104" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.1804560644581317</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>5</v>
       </c>
@@ -6239,29 +6346,30 @@
         <v>7</v>
       </c>
       <c r="I105" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.1706962271689747</v>
       </c>
       <c r="J105" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.7500000000000002E-8</v>
       </c>
       <c r="K105" s="3">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L105" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N105" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ligand_rNaV1.4_STX.N21.5</v>
       </c>
       <c r="O105" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.1706962271689747</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>5</v>
       </c>
@@ -6287,29 +6395,30 @@
         <v>7</v>
       </c>
       <c r="I106" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.1220530483708115</v>
       </c>
       <c r="J106" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.5499999999999994E-8</v>
       </c>
       <c r="K106" s="3">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L106" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N106" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ligand_rNaV1.4.D1241N_STX.C13.2</v>
       </c>
       <c r="O106" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.1220530483708115</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>5</v>
       </c>
@@ -6335,29 +6444,30 @@
         <v>7</v>
       </c>
       <c r="I107" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.1051303432547472</v>
       </c>
       <c r="J107" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.8499999999999995E-8</v>
       </c>
       <c r="K107" s="3">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L107" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N107" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ligand_rNaV1.4.M1240T.D1241A_STX.C13.2</v>
       </c>
       <c r="O107" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.1051303432547472</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>5</v>
       </c>
@@ -6383,29 +6493,30 @@
         <v>7</v>
       </c>
       <c r="I108" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.0835460514500745</v>
       </c>
       <c r="J108" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.2500000000000004E-8</v>
       </c>
       <c r="K108" s="3">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L108" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N108" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ligand_rNaV1.4.M1240T.D1241I_STX.N21.2</v>
       </c>
       <c r="O108" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.0835460514500745</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>17</v>
       </c>
@@ -6431,29 +6542,30 @@
         <v>7</v>
       </c>
       <c r="I109" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.0457574905606748</v>
       </c>
       <c r="J109" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.9999999999999999E-8</v>
       </c>
       <c r="K109" s="3">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L109" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N109" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ligand_rNaV1.4_GTX.5</v>
       </c>
       <c r="O109" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.0457574905606748</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>5</v>
       </c>
@@ -6479,29 +6591,30 @@
         <v>7</v>
       </c>
       <c r="I110" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.0457574905606748</v>
       </c>
       <c r="J110" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.9999999999999999E-8</v>
       </c>
       <c r="K110" s="3">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L110" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N110" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ligand_rNaV1.4_STX.N21.7</v>
       </c>
       <c r="O110" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.0457574905606748</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>5</v>
       </c>
@@ -6527,29 +6640,30 @@
         <v>7</v>
       </c>
       <c r="I111" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.0409586076789061</v>
       </c>
       <c r="J111" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.0999999999999994E-8</v>
       </c>
       <c r="K111" s="3">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L111" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N111" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ligand_rNaV1.4.M1240S_STX</v>
       </c>
       <c r="O111" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.0409586076789061</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>5</v>
       </c>
@@ -6575,29 +6689,30 @@
         <v>7</v>
       </c>
       <c r="I112" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.991399828238082</v>
       </c>
       <c r="J112" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.02E-7</v>
       </c>
       <c r="K112" s="3">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L112" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N112" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ligand_rNaV1.4.E403D_STX.N21.1</v>
       </c>
       <c r="O112" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.991399828238082</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>5</v>
       </c>
@@ -6623,14 +6738,15 @@
         <v>7</v>
       </c>
       <c r="I113" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.9788107009300617</v>
       </c>
       <c r="J113" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.05E-7</v>
       </c>
       <c r="K113" s="3">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L113" s="3" t="s">
@@ -6638,15 +6754,15 @@
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ligand_rNaV1.4_STX.N21.37</v>
       </c>
       <c r="O113" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.9788107009300617</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>5</v>
       </c>
@@ -6672,29 +6788,30 @@
         <v>7</v>
       </c>
       <c r="I114" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.9685915357483754</v>
       </c>
       <c r="J114" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.075E-7</v>
       </c>
       <c r="K114" s="3">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L114" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N114" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ligand_rNaV1.4_STX.C10.1</v>
       </c>
       <c r="O114" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.9685915357483754</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>17</v>
       </c>
@@ -6720,29 +6837,30 @@
         <v>7</v>
       </c>
       <c r="I115" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.9430951486635273</v>
       </c>
       <c r="J115" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.14E-7</v>
       </c>
       <c r="K115" s="3">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L115" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N115" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ligand_rNaV1.4.M1240T_GTX.3</v>
       </c>
       <c r="O115" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.9430951486635273</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>5</v>
       </c>
@@ -6768,29 +6886,30 @@
         <v>7</v>
       </c>
       <c r="I116" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.9336740746379624</v>
       </c>
       <c r="J116" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.165E-7</v>
       </c>
       <c r="K116" s="3">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L116" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N116" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ligand_rNaV1.4.D1241T_STX.C13.1</v>
       </c>
       <c r="O116" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.9336740746379624</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>5</v>
       </c>
@@ -6816,29 +6935,30 @@
         <v>7</v>
       </c>
       <c r="I117" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.9190129530891129</v>
       </c>
       <c r="J117" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.205E-7</v>
       </c>
       <c r="K117" s="3">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L117" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N117" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ligand_rNaV1.4.M1240T_STX.C13.1</v>
       </c>
       <c r="O117" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.9190129530891129</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>5</v>
       </c>
@@ -6864,29 +6984,30 @@
         <v>7</v>
       </c>
       <c r="I118" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.9013562741829428</v>
       </c>
       <c r="J118" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.2550000000000001E-7</v>
       </c>
       <c r="K118" s="3">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L118" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N118" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ligand_rNaV1.4.L1534A_STX.C10.1</v>
       </c>
       <c r="O118" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.9013562741829428</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
         <v>5</v>
       </c>
@@ -6912,29 +7033,30 @@
         <v>7</v>
       </c>
       <c r="I119" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.8927900303521312</v>
       </c>
       <c r="J119" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.2800000000000001E-7</v>
       </c>
-      <c r="K119" s="10">
+      <c r="K119" s="3">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L119" s="10" t="s">
         <v>44</v>
       </c>
       <c r="N119" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ligand_hNaV1.5_STX</v>
       </c>
       <c r="O119" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.8927900303521312</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>5</v>
       </c>
@@ -6960,29 +7082,30 @@
         <v>7</v>
       </c>
       <c r="I120" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.8927900303521312</v>
       </c>
       <c r="J120" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.2800000000000001E-7</v>
       </c>
       <c r="K120" s="3">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L120" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N120" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ligand_rNaV1.4.D1241T_STX.C13.2</v>
       </c>
       <c r="O120" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.8927900303521312</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>5</v>
       </c>
@@ -7008,29 +7131,30 @@
         <v>7</v>
       </c>
       <c r="I121" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.8910968723326871</v>
       </c>
       <c r="J121" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.2849999999999999E-7</v>
       </c>
       <c r="K121" s="3">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L121" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N121" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ligand_rNaV1.2_STX.N21.10</v>
       </c>
       <c r="O121" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.8910968723326871</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>5</v>
       </c>
@@ -7056,29 +7180,30 @@
         <v>7</v>
       </c>
       <c r="I122" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.8843894883257004</v>
       </c>
       <c r="J122" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3050000000000001E-7</v>
       </c>
       <c r="K122" s="3">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L122" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N122" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ligand_rNaV1.4.I757A_STX.C13.1</v>
       </c>
       <c r="O122" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.8843894883257004</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>5</v>
       </c>
@@ -7104,29 +7229,30 @@
         <v>7</v>
       </c>
       <c r="I123" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.8728952016351927</v>
       </c>
       <c r="J123" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3400000000000001E-7</v>
       </c>
       <c r="K123" s="3">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L123" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N123" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ligand_rNaV1.4.M1240C_STX.N21.9</v>
       </c>
       <c r="O123" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.8728952016351927</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>5</v>
       </c>
@@ -7152,29 +7278,30 @@
         <v>7</v>
       </c>
       <c r="I124" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.8013429130455769</v>
       </c>
       <c r="J124" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.5800000000000001E-7</v>
       </c>
       <c r="K124" s="3">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L124" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N124" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ligand_rNaV1.4.M1240A.D1241A_STX.N21.2</v>
       </c>
       <c r="O124" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.8013429130455769</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>5</v>
       </c>
@@ -7200,29 +7327,30 @@
         <v>7</v>
       </c>
       <c r="I125" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.79317412396815</v>
       </c>
       <c r="J125" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.61E-7</v>
       </c>
       <c r="K125" s="3">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L125" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N125" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ligand_rNaV1.4.I757A_STX.C13.2</v>
       </c>
       <c r="O125" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.79317412396815</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>5</v>
       </c>
@@ -7248,29 +7376,30 @@
         <v>7</v>
       </c>
       <c r="I126" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.7904849854573692</v>
       </c>
       <c r="J126" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.6199999999999999E-7</v>
       </c>
       <c r="K126" s="3">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L126" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N126" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ligand_rNaV1.2_STX.N21.8</v>
       </c>
       <c r="O126" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.7904849854573692</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>5</v>
       </c>
@@ -7296,29 +7425,30 @@
         <v>7</v>
       </c>
       <c r="I127" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.7721132953863261</v>
       </c>
       <c r="J127" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.6899999999999999E-7</v>
       </c>
       <c r="K127" s="3">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L127" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N127" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ligand_rNaV1.4_STX.C13.3</v>
       </c>
       <c r="O127" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.7721132953863261</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>5</v>
       </c>
@@ -7344,29 +7474,30 @@
         <v>7</v>
       </c>
       <c r="I128" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.7644715530924513</v>
       </c>
       <c r="J128" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.72E-7</v>
       </c>
       <c r="K128" s="3">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L128" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N128" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ligand_hNaV1.5_STX.N21.14</v>
       </c>
       <c r="O128" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.7644715530924513</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>5</v>
       </c>
@@ -7392,29 +7523,30 @@
         <v>7</v>
       </c>
       <c r="I129" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.7607005208731072</v>
       </c>
       <c r="J129" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.7350000000000001E-7</v>
       </c>
       <c r="K129" s="3">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L129" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N129" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ligand_rNaV1.4.M1240T.D1241I_STX.C13.1</v>
       </c>
       <c r="O129" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.7607005208731072</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>5</v>
       </c>
@@ -7440,29 +7572,30 @@
         <v>7</v>
       </c>
       <c r="I130" s="3">
-        <f t="shared" ref="I130:I192" si="8">-LOG(J130)</f>
+        <f t="shared" ref="I130:I192" si="10">-LOG(J130)</f>
         <v>6.7328282715969863</v>
       </c>
       <c r="J130" s="3">
-        <f t="shared" ref="J130:J192" si="9">F130/2/10^9</f>
+        <f t="shared" ref="J130:J192" si="11">F130/2/10^9</f>
         <v>1.85E-7</v>
       </c>
       <c r="K130" s="3">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L130" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N130" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ligand_rNaV1.4_STX.N7.1</v>
       </c>
       <c r="O130" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.7328282715969863</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>5</v>
       </c>
@@ -7488,29 +7621,30 @@
         <v>7</v>
       </c>
       <c r="I131" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.7133190306450699</v>
       </c>
       <c r="J131" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.9350000000000001E-7</v>
       </c>
       <c r="K131" s="3">
+        <f t="shared" ref="K131:K194" si="12">INT(F131&lt;500)</f>
         <v>1</v>
       </c>
       <c r="L131" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N131" s="2" t="str">
-        <f t="shared" ref="N131:N193" si="10">CONCATENATE("ligand_",SUBSTITUTE(SUBSTITUTE(D131," ","."),"/","."),"_",B131)</f>
+        <f t="shared" ref="N131:N193" si="13">CONCATENATE("ligand_",SUBSTITUTE(SUBSTITUTE(D131," ","."),"/","."),"_",B131)</f>
         <v>ligand_rNaV1.4.E403D_STX.N21.2</v>
       </c>
       <c r="O131" s="2">
-        <f t="shared" ref="O131:O193" si="11">I131</f>
+        <f t="shared" ref="O131:O193" si="14">I131</f>
         <v>6.7133190306450699</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>5</v>
       </c>
@@ -7536,29 +7670,30 @@
         <v>7</v>
       </c>
       <c r="I132" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.7044329000375207</v>
       </c>
       <c r="J132" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.9749999999999999E-7</v>
       </c>
       <c r="K132" s="3">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="L132" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N132" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>ligand_rNaV1.4.M1240A_STX.C13.2</v>
       </c>
       <c r="O132" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6.7044329000375207</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>5</v>
       </c>
@@ -7581,29 +7716,30 @@
         <v>7</v>
       </c>
       <c r="I133" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.6989700043360187</v>
       </c>
       <c r="J133" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.9999999999999999E-7</v>
       </c>
       <c r="K133" s="3">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="L133" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N133" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>ligand_rNaV1.4_STX.N21.32</v>
       </c>
       <c r="O133" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6.6989700043360187</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>5</v>
       </c>
@@ -7629,29 +7765,30 @@
         <v>7</v>
       </c>
       <c r="I134" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.6625407387093443</v>
       </c>
       <c r="J134" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.1750000000000001E-7</v>
       </c>
       <c r="K134" s="3">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="L134" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N134" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>ligand_rNaV1.4.M1240N_STX.C13.2</v>
       </c>
       <c r="O134" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6.6625407387093443</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>5</v>
       </c>
@@ -7677,29 +7814,30 @@
         <v>7</v>
       </c>
       <c r="I135" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.6401645176601116</v>
       </c>
       <c r="J135" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.29E-7</v>
       </c>
       <c r="K135" s="3">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="L135" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N135" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>ligand_rNaV1.4.M1240S_STX.C13.2</v>
       </c>
       <c r="O135" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6.6401645176601116</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="7" t="s">
         <v>19</v>
       </c>
@@ -7725,29 +7863,30 @@
         <v>7</v>
       </c>
       <c r="I136" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.6326440789739811</v>
       </c>
       <c r="J136" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.3300000000000001E-7</v>
       </c>
-      <c r="K136" s="7">
+      <c r="K136" s="3">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="L136" s="7" t="s">
         <v>58</v>
       </c>
       <c r="N136" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>ligand_rNaV1.4.M1240T_TTX</v>
       </c>
       <c r="O136" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6.6326440789739811</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>5</v>
       </c>
@@ -7773,29 +7912,30 @@
         <v>7</v>
       </c>
       <c r="I137" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.6170828649124687</v>
       </c>
       <c r="J137" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.4149999999999999E-7</v>
       </c>
       <c r="K137" s="3">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="L137" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N137" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>ligand_rNaV1.7_STX.N21.17</v>
       </c>
       <c r="O137" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6.6170828649124687</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>5</v>
       </c>
@@ -7821,29 +7961,30 @@
         <v>7</v>
       </c>
       <c r="I138" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.6081830763867515</v>
       </c>
       <c r="J138" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.4649999999999999E-7</v>
       </c>
       <c r="K138" s="3">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="L138" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N138" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>ligand_rNaV1.4.E403D_STX</v>
       </c>
       <c r="O138" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6.6081830763867515</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>5</v>
       </c>
@@ -7869,29 +8010,30 @@
         <v>7</v>
       </c>
       <c r="I139" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.5767541260631921</v>
       </c>
       <c r="J139" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.65E-7</v>
       </c>
       <c r="K139" s="3">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L139" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N139" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>ligand_rNaV1.4_STX.N21.38</v>
       </c>
       <c r="O139" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6.5767541260631921</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>5</v>
       </c>
@@ -7917,29 +8059,30 @@
         <v>7</v>
       </c>
       <c r="I140" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.5767541260631921</v>
       </c>
       <c r="J140" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.65E-7</v>
       </c>
       <c r="K140" s="3">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L140" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N140" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>ligand_rNaV1.6_STX.N21.20</v>
       </c>
       <c r="O140" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6.5767541260631921</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>5</v>
       </c>
@@ -7965,26 +8108,30 @@
         <v>7</v>
       </c>
       <c r="I141" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.5710557099644253</v>
       </c>
       <c r="J141" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.685E-7</v>
       </c>
+      <c r="K141" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="L141" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N141" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>ligand_rNaV1.4.M1240N_STX.C13.1</v>
       </c>
       <c r="O141" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6.5710557099644253</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>5</v>
       </c>
@@ -8010,29 +8157,30 @@
         <v>7</v>
       </c>
       <c r="I142" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.5451551399914898</v>
       </c>
       <c r="J142" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.8500000000000002E-7</v>
       </c>
       <c r="K142" s="3">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L142" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N142" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>ligand_rNaV1.4_STX.C11.3</v>
       </c>
       <c r="O142" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6.5451551399914898</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>5</v>
       </c>
@@ -8058,29 +8206,30 @@
         <v>7</v>
       </c>
       <c r="I143" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.5301779840218375</v>
       </c>
       <c r="J143" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.9499999999999998E-7</v>
       </c>
       <c r="K143" s="3">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L143" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N143" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>ligand_rNaV1.2_STX.N21.17</v>
       </c>
       <c r="O143" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6.5301779840218375</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>5</v>
       </c>
@@ -8106,29 +8255,30 @@
         <v>7</v>
       </c>
       <c r="I144" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.4743074754949888</v>
       </c>
       <c r="J144" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3.3550000000000001E-7</v>
       </c>
       <c r="K144" s="3">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L144" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N144" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>ligand_rNaV1.4.M1240A_STX.C13.1</v>
       </c>
       <c r="O144" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6.4743074754949888</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>5</v>
       </c>
@@ -8154,29 +8304,30 @@
         <v>7</v>
       </c>
       <c r="I145" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.4621809049267256</v>
       </c>
       <c r="J145" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3.4499999999999998E-7</v>
       </c>
       <c r="K145" s="3">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L145" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N145" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>ligand_rNaV1.4.Y401A_STX.N21.1</v>
       </c>
       <c r="O145" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6.4621809049267256</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>5</v>
       </c>
@@ -8202,29 +8353,30 @@
         <v>7</v>
       </c>
       <c r="I146" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.4546928835341761</v>
       </c>
       <c r="J146" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3.5100000000000001E-7</v>
       </c>
       <c r="K146" s="3">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L146" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N146" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>ligand_hNaV1.7_STX</v>
       </c>
       <c r="O146" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6.4546928835341761</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>5</v>
       </c>
@@ -8250,29 +8402,30 @@
         <v>7</v>
       </c>
       <c r="I147" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.435926021022853</v>
       </c>
       <c r="J147" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3.6650000000000001E-7</v>
       </c>
       <c r="K147" s="3">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L147" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N147" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>ligand_rNaV1.4.D1241A_STX.C13.2</v>
       </c>
       <c r="O147" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6.435926021022853</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>5</v>
       </c>
@@ -8298,29 +8451,30 @@
         <v>7</v>
       </c>
       <c r="I148" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.4347426565797861</v>
       </c>
       <c r="J148" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3.6749999999999998E-7</v>
       </c>
       <c r="K148" s="3">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L148" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N148" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>ligand_rNaV1.4.M1240S_STX.C13.1</v>
       </c>
       <c r="O148" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6.4347426565797861</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" s="7" t="s">
         <v>19</v>
       </c>
@@ -8346,29 +8500,30 @@
         <v>7</v>
       </c>
       <c r="I149" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.434565429692241</v>
       </c>
       <c r="J149" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3.6764999999999999E-7</v>
       </c>
-      <c r="K149" s="7">
+      <c r="K149" s="3">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L149" s="7" t="s">
         <v>58</v>
       </c>
       <c r="N149" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>ligand_rNaV1.4.D1532N_TTX</v>
       </c>
       <c r="O149" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6.434565429692241</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>5</v>
       </c>
@@ -8394,29 +8549,30 @@
         <v>7</v>
       </c>
       <c r="I150" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.4265481779645146</v>
       </c>
       <c r="J150" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3.7450000000000002E-7</v>
       </c>
       <c r="K150" s="3">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L150" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N150" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>ligand_rNaV1.4.I757A_STX.C10.1</v>
       </c>
       <c r="O150" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6.4265481779645146</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>5</v>
       </c>
@@ -8442,29 +8598,30 @@
         <v>7</v>
       </c>
       <c r="I151" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.4072682336060378</v>
       </c>
       <c r="J151" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3.9149999999999998E-7</v>
       </c>
       <c r="K151" s="3">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L151" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N151" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>ligand_rNaV1.4.L1534A_STX.N7.1</v>
       </c>
       <c r="O151" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6.4072682336060378</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>5</v>
       </c>
@@ -8490,29 +8647,30 @@
         <v>7</v>
       </c>
       <c r="I152" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.4067139329795424</v>
       </c>
       <c r="J152" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3.9200000000000002E-7</v>
       </c>
       <c r="K152" s="3">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L152" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N152" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>ligand_rNaV1.4.M1240A.D1241A_STX</v>
       </c>
       <c r="O152" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6.4067139329795424</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>5</v>
       </c>
@@ -8538,29 +8696,30 @@
         <v>7</v>
       </c>
       <c r="I153" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.3570411205902095</v>
       </c>
       <c r="J153" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4.3949999999999998E-7</v>
       </c>
       <c r="K153" s="3">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L153" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N153" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>ligand_rNaV1.4_STX.N9.1</v>
       </c>
       <c r="O153" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6.3570411205902095</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>5</v>
       </c>
@@ -8586,29 +8745,30 @@
         <v>7</v>
       </c>
       <c r="I154" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.3531063758322546</v>
       </c>
       <c r="J154" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4.4350000000000002E-7</v>
       </c>
       <c r="K154" s="3">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L154" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N154" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>ligand_rNaV1.4.W756A_STX.C13.1</v>
       </c>
       <c r="O154" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6.3531063758322546</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>5</v>
       </c>
@@ -8634,29 +8794,30 @@
         <v>7</v>
       </c>
       <c r="I155" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.3386606599939599</v>
       </c>
       <c r="J155" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4.5849999999999998E-7</v>
       </c>
       <c r="K155" s="3">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L155" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N155" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>ligand_rNaV1.4.Y401A_STX.N21.2</v>
       </c>
       <c r="O155" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6.3386606599939599</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>19</v>
       </c>
@@ -8682,29 +8843,30 @@
         <v>7</v>
       </c>
       <c r="I156" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.3233063903751336</v>
       </c>
       <c r="J156" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4.75E-7</v>
       </c>
       <c r="K156" s="3">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L156" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N156" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>ligand_rNaV1.5_TTX</v>
       </c>
       <c r="O156" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6.3233063903751336</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
         <v>5</v>
       </c>
@@ -8730,29 +8892,30 @@
         <v>7</v>
       </c>
       <c r="I157" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.3102473038608435</v>
       </c>
       <c r="J157" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4.8950000000000004E-7</v>
       </c>
       <c r="K157" s="3">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L157" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N157" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>ligand_rNaV1.4.Y401A_STX</v>
       </c>
       <c r="O157" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6.3102473038608435</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>5</v>
       </c>
@@ -8778,29 +8941,30 @@
         <v>7</v>
       </c>
       <c r="I158" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.3062730510763529</v>
       </c>
       <c r="J158" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4.9399999999999995E-7</v>
       </c>
       <c r="K158" s="3">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L158" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N158" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>ligand_rNaV1.4.M1240A.D1241A_STX.C13.1</v>
       </c>
       <c r="O158" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6.3062730510763529</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>5</v>
       </c>
@@ -8826,29 +8990,30 @@
         <v>7</v>
       </c>
       <c r="I159" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.3010299956639813</v>
       </c>
       <c r="J159" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4.9999999999999998E-7</v>
       </c>
       <c r="K159" s="3">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L159" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N159" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>ligand_rNaV1.4_STX.C11.3.N21.30</v>
       </c>
       <c r="O159" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6.3010299956639813</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
         <v>5</v>
       </c>
@@ -8874,29 +9039,30 @@
         <v>7</v>
       </c>
       <c r="I160" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.2839966563652006</v>
       </c>
       <c r="J160" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5.2E-7</v>
       </c>
       <c r="K160" s="3">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L160" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N160" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>ligand_rNaV1.4_STX.N21.36</v>
       </c>
       <c r="O160" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6.2839966563652006</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
         <v>5</v>
       </c>
@@ -8922,29 +9088,30 @@
         <v>7</v>
       </c>
       <c r="I161" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.2823294969977379</v>
       </c>
       <c r="J161" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5.2200000000000004E-7</v>
       </c>
       <c r="K161" s="3">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L161" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N161" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>ligand_rNaV1.4.W756A_STX.C10.1</v>
       </c>
       <c r="O161" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6.2823294969977379</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
         <v>5</v>
       </c>
@@ -8970,29 +9137,30 @@
         <v>7</v>
       </c>
       <c r="I162" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.2724587429714438</v>
       </c>
       <c r="J162" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5.3399999999999999E-7</v>
       </c>
       <c r="K162" s="3">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L162" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N162" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>ligand_rNaV1.4.M1240T.D1241I_STX</v>
       </c>
       <c r="O162" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6.2724587429714438</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
         <v>17</v>
       </c>
@@ -9018,29 +9186,30 @@
         <v>7</v>
       </c>
       <c r="I163" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.2660007134616134</v>
       </c>
       <c r="J163" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5.4199999999999996E-7</v>
       </c>
       <c r="K163" s="3">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L163" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N163" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>ligand_rNaV1.4.M1240T.D1241I_GTX.3</v>
       </c>
       <c r="O163" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6.2660007134616134</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
         <v>5</v>
       </c>
@@ -9066,29 +9235,30 @@
         <v>7</v>
       </c>
       <c r="I164" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.263205245075639</v>
       </c>
       <c r="J164" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5.4550000000000001E-7</v>
       </c>
       <c r="K164" s="3">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L164" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N164" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>ligand_rNaV1.4.W756A_STX.C13.2</v>
       </c>
       <c r="O164" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6.263205245075639</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
         <v>5</v>
       </c>
@@ -9114,29 +9284,30 @@
         <v>7</v>
       </c>
       <c r="I165" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.261615876487844</v>
       </c>
       <c r="J165" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5.4750000000000005E-7</v>
       </c>
       <c r="K165" s="3">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L165" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N165" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>ligand_rNaV1.4.M1240T.D1241A_STX</v>
       </c>
       <c r="O165" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6.261615876487844</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
         <v>5</v>
       </c>
@@ -9162,29 +9333,30 @@
         <v>7</v>
       </c>
       <c r="I166" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.2604276555499085</v>
       </c>
       <c r="J166" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5.4899999999999995E-7</v>
       </c>
       <c r="K166" s="3">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L166" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N166" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>ligand_rNaV1.4.D1241A_STX.C10.1</v>
       </c>
       <c r="O166" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6.2604276555499085</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
         <v>5</v>
       </c>
@@ -9210,29 +9382,30 @@
         <v>7</v>
       </c>
       <c r="I167" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.2437443512457662</v>
       </c>
       <c r="J167" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5.7049999999999998E-7</v>
       </c>
       <c r="K167" s="3">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L167" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N167" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>ligand_rNaV1.4.L1534A_STX.N9.1</v>
       </c>
       <c r="O167" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6.2437443512457662</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
         <v>5</v>
       </c>
@@ -9258,29 +9431,30 @@
         <v>7</v>
       </c>
       <c r="I168" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.2218487496163561</v>
       </c>
       <c r="J168" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5.9999999999999997E-7</v>
       </c>
       <c r="K168" s="3">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L168" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N168" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>ligand_rNaV1.4_STX.C10.1.C13.2</v>
       </c>
       <c r="O168" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6.2218487496163561</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
         <v>5</v>
       </c>
@@ -9306,29 +9480,30 @@
         <v>7</v>
       </c>
       <c r="I169" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.209714835966758</v>
       </c>
       <c r="J169" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>6.1699999999999998E-7</v>
       </c>
       <c r="K169" s="3">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L169" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N169" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>ligand_rNaV1.4.M1240A_STX.C10.1</v>
       </c>
       <c r="O169" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6.209714835966758</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
         <v>5</v>
       </c>
@@ -9354,29 +9529,30 @@
         <v>7</v>
       </c>
       <c r="I170" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.2016947179780235</v>
       </c>
       <c r="J170" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>6.285E-7</v>
       </c>
       <c r="K170" s="3">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L170" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N170" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>ligand_rNaV1.4.M1240T.D1241I_STX.C10.1.C13.2</v>
       </c>
       <c r="O170" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6.2016947179780235</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
         <v>5</v>
       </c>
@@ -9402,29 +9578,30 @@
         <v>7</v>
       </c>
       <c r="I171" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.1549019599857431</v>
       </c>
       <c r="J171" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>6.9999999999999997E-7</v>
       </c>
       <c r="K171" s="3">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L171" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N171" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>ligand_hNaV1.5_STX.N21.25</v>
       </c>
       <c r="O171" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6.1549019599857431</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
         <v>17</v>
       </c>
@@ -9450,26 +9627,27 @@
         <v>7</v>
       </c>
       <c r="I172" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.1211910676407948</v>
       </c>
       <c r="J172" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>7.5649999999999998E-7</v>
       </c>
       <c r="K172" s="3">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N172" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>ligand_hNaV1.7_GTX.3</v>
       </c>
       <c r="O172" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6.1211910676407948</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
         <v>5</v>
       </c>
@@ -9495,29 +9673,30 @@
         <v>7</v>
       </c>
       <c r="I173" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.0566044234910459</v>
       </c>
       <c r="J173" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>8.7779999999999999E-7</v>
       </c>
       <c r="K173" s="3">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L173" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N173" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>ligand_rNaV1.4.D400A_STX</v>
       </c>
       <c r="O173" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6.0566044234910459</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
         <v>5</v>
       </c>
@@ -9543,29 +9722,30 @@
         <v>7</v>
       </c>
       <c r="I174" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.0355046604449072</v>
       </c>
       <c r="J174" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9.2149999999999999E-7</v>
       </c>
       <c r="K174" s="3">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L174" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N174" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>ligand_rNaV1.4.D1241A_STX.N7.1</v>
       </c>
       <c r="O174" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6.0355046604449072</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
         <v>5</v>
       </c>
@@ -9591,29 +9771,30 @@
         <v>7</v>
       </c>
       <c r="I175" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.0280287236002437</v>
       </c>
       <c r="J175" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9.3750000000000002E-7</v>
       </c>
       <c r="K175" s="3">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L175" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N175" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>ligand_rNaV1.4.D1241I_STX.C10.1</v>
       </c>
       <c r="O175" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6.0280287236002437</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
         <v>17</v>
       </c>
@@ -9639,29 +9820,30 @@
         <v>7</v>
       </c>
       <c r="I176" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.0245681914907374</v>
       </c>
       <c r="J176" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9.4499999999999995E-7</v>
       </c>
       <c r="K176" s="3">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L176" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N176" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>ligand_rNaV1.4_GTX.3.1</v>
       </c>
       <c r="O176" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6.0245681914907374</v>
       </c>
     </row>
-    <row r="177" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
         <v>5</v>
       </c>
@@ -9687,29 +9869,30 @@
         <v>7</v>
       </c>
       <c r="I177" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.0241088635982072</v>
       </c>
       <c r="J177" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9.4600000000000003E-7</v>
       </c>
       <c r="K177" s="3">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L177" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N177" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>ligand_rNaV1.4.W1239A_STX</v>
       </c>
       <c r="O177" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6.0241088635982072</v>
       </c>
     </row>
-    <row r="178" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
         <v>5</v>
       </c>
@@ -9735,29 +9918,30 @@
         <v>7</v>
       </c>
       <c r="I178" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.0062993051796498</v>
       </c>
       <c r="J178" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9.8559999999999993E-7</v>
       </c>
       <c r="K178" s="3">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L178" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N178" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>ligand_rNaV1.4.M1240E_STX</v>
       </c>
       <c r="O178" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6.0062993051796498</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
         <v>5</v>
       </c>
@@ -9783,29 +9967,30 @@
         <v>7</v>
       </c>
       <c r="I179" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.9651710843441634</v>
       </c>
       <c r="J179" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.0835000000000001E-6</v>
       </c>
       <c r="K179" s="3">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L179" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N179" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>ligand_rNaV1.4.M1240T.D1241A_STX.C13.3</v>
       </c>
       <c r="O179" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5.9651710843441634</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" s="10" t="s">
         <v>5</v>
       </c>
@@ -9831,29 +10016,30 @@
         <v>7</v>
       </c>
       <c r="I180" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.9469215565165801</v>
       </c>
       <c r="J180" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.13E-6</v>
       </c>
-      <c r="K180" s="10">
+      <c r="K180" s="3">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L180" s="10" t="s">
         <v>58</v>
       </c>
       <c r="N180" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>ligand_rNaV1.4_STX.C11.1</v>
       </c>
       <c r="O180" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5.9469215565165801</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
         <v>5</v>
       </c>
@@ -9879,29 +10065,30 @@
         <v>7</v>
       </c>
       <c r="I181" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.9240882385172222</v>
       </c>
       <c r="J181" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.1909999999999999E-6</v>
       </c>
       <c r="K181" s="3">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L181" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N181" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>ligand_rNaV1.4.M1240T_STX.C10.1</v>
       </c>
       <c r="O181" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5.9240882385172222</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
         <v>5</v>
       </c>
@@ -9927,29 +10114,30 @@
         <v>7</v>
       </c>
       <c r="I182" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.8986654267798206</v>
       </c>
       <c r="J182" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.2628E-6</v>
       </c>
       <c r="K182" s="3">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L182" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N182" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>ligand_rNaV1.4.K1237A_STX</v>
       </c>
       <c r="O182" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5.8986654267798206</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
         <v>19</v>
       </c>
@@ -9975,29 +10163,30 @@
         <v>7</v>
       </c>
       <c r="I183" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.8427246035459648</v>
       </c>
       <c r="J183" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.4364000000000001E-6</v>
       </c>
       <c r="K183" s="3">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L183" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N183" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>ligand_rNaV1.4.D400A_TTX</v>
       </c>
       <c r="O183" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5.8427246035459648</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" s="10" t="s">
         <v>19</v>
       </c>
@@ -10023,29 +10212,30 @@
         <v>7</v>
       </c>
       <c r="I184" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.8274846369892277</v>
       </c>
       <c r="J184" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.4877E-6</v>
       </c>
-      <c r="K184" s="10">
+      <c r="K184" s="3">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L184" s="10" t="s">
         <v>58</v>
       </c>
       <c r="N184" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>ligand_rNaV1.4.E758Q_TTX</v>
       </c>
       <c r="O184" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5.8274846369892277</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
         <v>5</v>
       </c>
@@ -10071,29 +10261,30 @@
         <v>7</v>
       </c>
       <c r="I185" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.8263767423019184</v>
       </c>
       <c r="J185" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.4915E-6</v>
       </c>
       <c r="K185" s="3">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L185" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N185" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>ligand_rNaV1.4.W1239A_STX.N21.1</v>
       </c>
       <c r="O185" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5.8263767423019184</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
         <v>5</v>
       </c>
@@ -10119,29 +10310,30 @@
         <v>7</v>
       </c>
       <c r="I186" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.8211668826408838</v>
       </c>
       <c r="J186" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.5094999999999999E-6</v>
       </c>
       <c r="K186" s="3">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L186" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N186" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>ligand_rNaV1.4.Y401A_STX.C13.1</v>
       </c>
       <c r="O186" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5.8211668826408838</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
         <v>5</v>
       </c>
@@ -10167,29 +10359,30 @@
         <v>7</v>
       </c>
       <c r="I187" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.809388202186395</v>
       </c>
       <c r="J187" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.5510000000000001E-6</v>
       </c>
       <c r="K187" s="3">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L187" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N187" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>ligand_rNaV1.4.E403D.M1240T.D1241I_STX.C13.2</v>
       </c>
       <c r="O187" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5.809388202186395</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
         <v>5</v>
       </c>
@@ -10215,29 +10408,30 @@
         <v>7</v>
       </c>
       <c r="I188" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.7670038896078459</v>
       </c>
       <c r="J188" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.7099999999999999E-6</v>
       </c>
       <c r="K188" s="3">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L188" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N188" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>ligand_rNaV1.4.I757A_STX.N7.1</v>
       </c>
       <c r="O188" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5.7670038896078459</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
         <v>5</v>
       </c>
@@ -10263,29 +10457,30 @@
         <v>7</v>
       </c>
       <c r="I189" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.7418418066592061</v>
       </c>
       <c r="J189" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.812E-6</v>
       </c>
       <c r="K189" s="3">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L189" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N189" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>ligand_rNaV1.4.I757A_STX.N9.1</v>
       </c>
       <c r="O189" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5.7418418066592061</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
         <v>5</v>
       </c>
@@ -10311,29 +10506,30 @@
         <v>7</v>
       </c>
       <c r="I190" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.7239980100379499</v>
       </c>
       <c r="J190" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.888E-6</v>
       </c>
       <c r="K190" s="3">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L190" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N190" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>ligand_rNaV1.4.W756A_STX.N7.1</v>
       </c>
       <c r="O190" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5.7239980100379499</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
         <v>5</v>
       </c>
@@ -10359,29 +10555,30 @@
         <v>7</v>
       </c>
       <c r="I191" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.7212463990471711</v>
       </c>
       <c r="J191" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.9E-6</v>
       </c>
       <c r="K191" s="3">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L191" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N191" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>ligand_rNaV1.4_STX.2</v>
       </c>
       <c r="O191" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5.7212463990471711</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
         <v>5</v>
       </c>
@@ -10407,29 +10604,30 @@
         <v>7</v>
       </c>
       <c r="I192" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.7154564770412497</v>
       </c>
       <c r="J192" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.9255E-6</v>
       </c>
       <c r="K192" s="3">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L192" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N192" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>ligand_rNaV1.4.M1240A.D1241A_STX.C13.3</v>
       </c>
       <c r="O192" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5.7154564770412497</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
         <v>5</v>
       </c>
@@ -10455,29 +10653,30 @@
         <v>7</v>
       </c>
       <c r="I193" s="3">
-        <f t="shared" ref="I193:I252" si="12">-LOG(J193)</f>
+        <f t="shared" ref="I193:I252" si="15">-LOG(J193)</f>
         <v>5.7020207558406373</v>
       </c>
       <c r="J193" s="3">
-        <f t="shared" ref="J193:J252" si="13">F193/2/10^9</f>
+        <f t="shared" ref="J193:J252" si="16">F193/2/10^9</f>
         <v>1.9860000000000001E-6</v>
       </c>
       <c r="K193" s="3">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L193" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N193" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>ligand_rNaV1.4.E403D_STX.C10.1</v>
       </c>
       <c r="O193" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5.7020207558406373</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
         <v>5</v>
       </c>
@@ -10503,29 +10702,30 @@
         <v>7</v>
       </c>
       <c r="I194" s="3">
+        <f t="shared" si="15"/>
+        <v>5.6976690713156009</v>
+      </c>
+      <c r="J194" s="3">
+        <f t="shared" si="16"/>
+        <v>2.0059999999999999E-6</v>
+      </c>
+      <c r="K194" s="3">
         <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L194" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N194" s="2" t="str">
+        <f t="shared" ref="N194:N252" si="17">CONCATENATE("ligand_",SUBSTITUTE(SUBSTITUTE(D194," ","."),"/","."),"_",B194)</f>
+        <v>ligand_rNaV1.4.M1240A.D1241A_STX.C13.2</v>
+      </c>
+      <c r="O194" s="2">
+        <f t="shared" ref="O194:O252" si="18">I194</f>
         <v>5.6976690713156009</v>
       </c>
-      <c r="J194" s="3">
-        <f t="shared" si="13"/>
-        <v>2.0059999999999999E-6</v>
-      </c>
-      <c r="K194" s="3">
-        <v>0</v>
-      </c>
-      <c r="L194" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N194" s="2" t="str">
-        <f t="shared" ref="N194:N252" si="14">CONCATENATE("ligand_",SUBSTITUTE(SUBSTITUTE(D194," ","."),"/","."),"_",B194)</f>
-        <v>ligand_rNaV1.4.M1240A.D1241A_STX.C13.2</v>
-      </c>
-      <c r="O194" s="2">
-        <f t="shared" ref="O194:O252" si="15">I194</f>
-        <v>5.6976690713156009</v>
-      </c>
-    </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
         <v>5</v>
       </c>
@@ -10551,29 +10751,30 @@
         <v>7</v>
       </c>
       <c r="I195" s="3">
-        <f t="shared" si="12"/>
-        <v>5.6888821573374946</v>
-      </c>
-      <c r="J195" s="3">
-        <f t="shared" si="13"/>
-        <v>2.0470000000000001E-6</v>
-      </c>
-      <c r="K195" s="3">
-        <v>0</v>
-      </c>
-      <c r="L195" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N195" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.M1240T.D1241I_STX.C13.3</v>
-      </c>
-      <c r="O195" s="2">
         <f t="shared" si="15"/>
         <v>5.6888821573374946</v>
       </c>
-    </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="J195" s="3">
+        <f t="shared" si="16"/>
+        <v>2.0470000000000001E-6</v>
+      </c>
+      <c r="K195" s="3">
+        <f t="shared" ref="K195:K251" si="19">INT(F195&lt;500)</f>
+        <v>0</v>
+      </c>
+      <c r="L195" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N195" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>ligand_rNaV1.4.M1240T.D1241I_STX.C13.3</v>
+      </c>
+      <c r="O195" s="2">
+        <f t="shared" si="18"/>
+        <v>5.6888821573374946</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
         <v>5</v>
       </c>
@@ -10599,29 +10800,30 @@
         <v>7</v>
       </c>
       <c r="I196" s="3">
-        <f t="shared" si="12"/>
-        <v>5.6861327796308467</v>
-      </c>
-      <c r="J196" s="3">
-        <f t="shared" si="13"/>
-        <v>2.0600000000000002E-6</v>
-      </c>
-      <c r="K196" s="3">
-        <v>0</v>
-      </c>
-      <c r="L196" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N196" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.Y401A_STX.C10.1</v>
-      </c>
-      <c r="O196" s="2">
         <f t="shared" si="15"/>
         <v>5.6861327796308467</v>
       </c>
-    </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="J196" s="3">
+        <f t="shared" si="16"/>
+        <v>2.0600000000000002E-6</v>
+      </c>
+      <c r="K196" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L196" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N196" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>ligand_rNaV1.4.Y401A_STX.C10.1</v>
+      </c>
+      <c r="O196" s="2">
+        <f t="shared" si="18"/>
+        <v>5.6861327796308467</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
         <v>5</v>
       </c>
@@ -10647,29 +10849,30 @@
         <v>7</v>
       </c>
       <c r="I197" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>5.6478174818886373</v>
       </c>
       <c r="J197" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2.2500000000000001E-6</v>
       </c>
       <c r="K197" s="3">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L197" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N197" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>ligand_hNaV1.5_STX.N21.3</v>
       </c>
       <c r="O197" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>5.6478174818886373</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
         <v>5</v>
       </c>
@@ -10695,29 +10898,30 @@
         <v>7</v>
       </c>
       <c r="I198" s="3">
-        <f t="shared" si="12"/>
-        <v>5.6414940885097646</v>
-      </c>
-      <c r="J198" s="3">
-        <f t="shared" si="13"/>
-        <v>2.283E-6</v>
-      </c>
-      <c r="K198" s="3">
-        <v>0</v>
-      </c>
-      <c r="L198" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N198" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>ligand_hNaV1.5_STX.C13.2</v>
-      </c>
-      <c r="O198" s="2">
         <f t="shared" si="15"/>
         <v>5.6414940885097646</v>
       </c>
-    </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="J198" s="3">
+        <f t="shared" si="16"/>
+        <v>2.283E-6</v>
+      </c>
+      <c r="K198" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L198" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N198" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>ligand_hNaV1.5_STX.C13.2</v>
+      </c>
+      <c r="O198" s="2">
+        <f t="shared" si="18"/>
+        <v>5.6414940885097646</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
         <v>5</v>
       </c>
@@ -10743,29 +10947,30 @@
         <v>7</v>
       </c>
       <c r="I199" s="3">
-        <f t="shared" si="12"/>
-        <v>5.6378946807062267</v>
-      </c>
-      <c r="J199" s="3">
-        <f t="shared" si="13"/>
-        <v>2.3020000000000002E-6</v>
-      </c>
-      <c r="K199" s="3">
-        <v>0</v>
-      </c>
-      <c r="L199" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N199" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.W1239A_STX.C13.1</v>
-      </c>
-      <c r="O199" s="2">
         <f t="shared" si="15"/>
         <v>5.6378946807062267</v>
       </c>
-    </row>
-    <row r="200" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="J199" s="3">
+        <f t="shared" si="16"/>
+        <v>2.3020000000000002E-6</v>
+      </c>
+      <c r="K199" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L199" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N199" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>ligand_rNaV1.4.W1239A_STX.C13.1</v>
+      </c>
+      <c r="O199" s="2">
+        <f t="shared" si="18"/>
+        <v>5.6378946807062267</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
         <v>5</v>
       </c>
@@ -10791,29 +10996,30 @@
         <v>7</v>
       </c>
       <c r="I200" s="3">
-        <f t="shared" si="12"/>
-        <v>5.6045862325249818</v>
-      </c>
-      <c r="J200" s="3">
-        <f t="shared" si="13"/>
-        <v>2.4855000000000002E-6</v>
-      </c>
-      <c r="K200" s="3">
-        <v>0</v>
-      </c>
-      <c r="L200" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N200" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.D1241A_STX.N9.1</v>
-      </c>
-      <c r="O200" s="2">
         <f t="shared" si="15"/>
         <v>5.6045862325249818</v>
       </c>
-    </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="J200" s="3">
+        <f t="shared" si="16"/>
+        <v>2.4855000000000002E-6</v>
+      </c>
+      <c r="K200" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L200" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N200" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>ligand_rNaV1.4.D1241A_STX.N9.1</v>
+      </c>
+      <c r="O200" s="2">
+        <f t="shared" si="18"/>
+        <v>5.6045862325249818</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
         <v>5</v>
       </c>
@@ -10839,29 +11045,30 @@
         <v>7</v>
       </c>
       <c r="I201" s="3">
-        <f t="shared" si="12"/>
-        <v>5.5483670525430089</v>
-      </c>
-      <c r="J201" s="3">
-        <f t="shared" si="13"/>
-        <v>2.8289999999999999E-6</v>
-      </c>
-      <c r="K201" s="3">
-        <v>0</v>
-      </c>
-      <c r="L201" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N201" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.E758D_STX.N21.1</v>
-      </c>
-      <c r="O201" s="2">
         <f t="shared" si="15"/>
         <v>5.5483670525430089</v>
       </c>
-    </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="J201" s="3">
+        <f t="shared" si="16"/>
+        <v>2.8289999999999999E-6</v>
+      </c>
+      <c r="K201" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L201" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N201" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>ligand_rNaV1.4.E758D_STX.N21.1</v>
+      </c>
+      <c r="O201" s="2">
+        <f t="shared" si="18"/>
+        <v>5.5483670525430089</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
         <v>5</v>
       </c>
@@ -10887,29 +11094,30 @@
         <v>7</v>
       </c>
       <c r="I202" s="3">
-        <f t="shared" si="12"/>
-        <v>5.4841923647619462</v>
-      </c>
-      <c r="J202" s="3">
-        <f t="shared" si="13"/>
-        <v>3.2795000000000001E-6</v>
-      </c>
-      <c r="K202" s="3">
-        <v>0</v>
-      </c>
-      <c r="L202" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N202" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.E403D_STX.C13.1</v>
-      </c>
-      <c r="O202" s="2">
         <f t="shared" si="15"/>
         <v>5.4841923647619462</v>
       </c>
-    </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="J202" s="3">
+        <f t="shared" si="16"/>
+        <v>3.2795000000000001E-6</v>
+      </c>
+      <c r="K202" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L202" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N202" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>ligand_rNaV1.4.E403D_STX.C13.1</v>
+      </c>
+      <c r="O202" s="2">
+        <f t="shared" si="18"/>
+        <v>5.4841923647619462</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
         <v>5</v>
       </c>
@@ -10935,29 +11143,30 @@
         <v>7</v>
       </c>
       <c r="I203" s="3">
-        <f t="shared" si="12"/>
-        <v>5.4662279416152817</v>
-      </c>
-      <c r="J203" s="3">
-        <f t="shared" si="13"/>
-        <v>3.4180000000000001E-6</v>
-      </c>
-      <c r="K203" s="3">
-        <v>0</v>
-      </c>
-      <c r="L203" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N203" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.W1239A_STX.N21.2</v>
-      </c>
-      <c r="O203" s="2">
         <f t="shared" si="15"/>
         <v>5.4662279416152817</v>
       </c>
-    </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="J203" s="3">
+        <f t="shared" si="16"/>
+        <v>3.4180000000000001E-6</v>
+      </c>
+      <c r="K203" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L203" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N203" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>ligand_rNaV1.4.W1239A_STX.N21.2</v>
+      </c>
+      <c r="O203" s="2">
+        <f t="shared" si="18"/>
+        <v>5.4662279416152817</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
         <v>5</v>
       </c>
@@ -10983,29 +11192,30 @@
         <v>7</v>
       </c>
       <c r="I204" s="3">
-        <f t="shared" si="12"/>
-        <v>5.4340931779323416</v>
-      </c>
-      <c r="J204" s="3">
-        <f t="shared" si="13"/>
-        <v>3.6805000000000002E-6</v>
-      </c>
-      <c r="K204" s="3">
-        <v>0</v>
-      </c>
-      <c r="L204" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N204" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.E403D_STX.C13.2</v>
-      </c>
-      <c r="O204" s="2">
         <f t="shared" si="15"/>
         <v>5.4340931779323416</v>
       </c>
-    </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="J204" s="3">
+        <f t="shared" si="16"/>
+        <v>3.6805000000000002E-6</v>
+      </c>
+      <c r="K204" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L204" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N204" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>ligand_rNaV1.4.E403D_STX.C13.2</v>
+      </c>
+      <c r="O204" s="2">
+        <f t="shared" si="18"/>
+        <v>5.4340931779323416</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
         <v>5</v>
       </c>
@@ -11031,29 +11241,30 @@
         <v>7</v>
       </c>
       <c r="I205" s="3">
-        <f t="shared" si="12"/>
-        <v>5.4208454428375479</v>
-      </c>
-      <c r="J205" s="3">
-        <f t="shared" si="13"/>
-        <v>3.7944999999999998E-6</v>
-      </c>
-      <c r="K205" s="3">
-        <v>0</v>
-      </c>
-      <c r="L205" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N205" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.E758D_STX.N21.2</v>
-      </c>
-      <c r="O205" s="2">
         <f t="shared" si="15"/>
         <v>5.4208454428375479</v>
       </c>
-    </row>
-    <row r="206" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="J205" s="3">
+        <f t="shared" si="16"/>
+        <v>3.7944999999999998E-6</v>
+      </c>
+      <c r="K205" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L205" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N205" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>ligand_rNaV1.4.E758D_STX.N21.2</v>
+      </c>
+      <c r="O205" s="2">
+        <f t="shared" si="18"/>
+        <v>5.4208454428375479</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
         <v>17</v>
       </c>
@@ -11079,29 +11290,30 @@
         <v>7</v>
       </c>
       <c r="I206" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>5.3819519032879075</v>
       </c>
       <c r="J206" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>4.1500000000000001E-6</v>
       </c>
       <c r="K206" s="3">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L206" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N206" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>ligand_rNaV1.4_GTX.3.2</v>
       </c>
       <c r="O206" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>5.3819519032879075</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
         <v>5</v>
       </c>
@@ -11127,29 +11339,30 @@
         <v>7</v>
       </c>
       <c r="I207" s="3">
-        <f t="shared" si="12"/>
-        <v>5.3776823391661557</v>
-      </c>
-      <c r="J207" s="3">
-        <f t="shared" si="13"/>
-        <v>4.1910000000000002E-6</v>
-      </c>
-      <c r="K207" s="3">
-        <v>0</v>
-      </c>
-      <c r="L207" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N207" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.M1240A_STX.N7.1</v>
-      </c>
-      <c r="O207" s="2">
         <f t="shared" si="15"/>
         <v>5.3776823391661557</v>
       </c>
-    </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="J207" s="3">
+        <f t="shared" si="16"/>
+        <v>4.1910000000000002E-6</v>
+      </c>
+      <c r="K207" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L207" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N207" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>ligand_rNaV1.4.M1240A_STX.N7.1</v>
+      </c>
+      <c r="O207" s="2">
+        <f t="shared" si="18"/>
+        <v>5.3776823391661557</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
         <v>5</v>
       </c>
@@ -11175,29 +11388,30 @@
         <v>7</v>
       </c>
       <c r="I208" s="3">
-        <f t="shared" si="12"/>
-        <v>5.3185326264662685</v>
-      </c>
-      <c r="J208" s="3">
-        <f t="shared" si="13"/>
-        <v>4.8025000000000002E-6</v>
-      </c>
-      <c r="K208" s="3">
-        <v>0</v>
-      </c>
-      <c r="L208" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N208" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.M1240A_STX.N9.1</v>
-      </c>
-      <c r="O208" s="2">
         <f t="shared" si="15"/>
         <v>5.3185326264662685</v>
       </c>
-    </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="J208" s="3">
+        <f t="shared" si="16"/>
+        <v>4.8025000000000002E-6</v>
+      </c>
+      <c r="K208" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L208" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N208" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>ligand_rNaV1.4.M1240A_STX.N9.1</v>
+      </c>
+      <c r="O208" s="2">
+        <f t="shared" si="18"/>
+        <v>5.3185326264662685</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" s="7" t="s">
         <v>5</v>
       </c>
@@ -11223,29 +11437,30 @@
         <v>7</v>
       </c>
       <c r="I209" s="7">
-        <f t="shared" si="12"/>
-        <v>5.3082997917098389</v>
-      </c>
-      <c r="J209" s="3">
-        <f t="shared" si="13"/>
-        <v>4.9169999999999997E-6</v>
-      </c>
-      <c r="K209" s="7">
-        <v>0</v>
-      </c>
-      <c r="L209" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="N209" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.E758D_STX</v>
-      </c>
-      <c r="O209" s="2">
         <f t="shared" si="15"/>
         <v>5.3082997917098389</v>
       </c>
-    </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="J209" s="3">
+        <f t="shared" si="16"/>
+        <v>4.9169999999999997E-6</v>
+      </c>
+      <c r="K209" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L209" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N209" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>ligand_rNaV1.4.E758D_STX</v>
+      </c>
+      <c r="O209" s="2">
+        <f t="shared" si="18"/>
+        <v>5.3082997917098389</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
         <v>5</v>
       </c>
@@ -11271,29 +11486,30 @@
         <v>7</v>
       </c>
       <c r="I210" s="3">
-        <f t="shared" si="12"/>
-        <v>5.2734357838377557</v>
-      </c>
-      <c r="J210" s="3">
-        <f t="shared" si="13"/>
-        <v>5.3279999999999996E-6</v>
-      </c>
-      <c r="K210" s="3">
-        <v>0</v>
-      </c>
-      <c r="L210" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N210" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.M1240A.D1241A_STX.C10.1</v>
-      </c>
-      <c r="O210" s="2">
         <f t="shared" si="15"/>
         <v>5.2734357838377557</v>
       </c>
-    </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="J210" s="3">
+        <f t="shared" si="16"/>
+        <v>5.3279999999999996E-6</v>
+      </c>
+      <c r="K210" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L210" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N210" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>ligand_rNaV1.4.M1240A.D1241A_STX.C10.1</v>
+      </c>
+      <c r="O210" s="2">
+        <f t="shared" si="18"/>
+        <v>5.2734357838377557</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
         <v>5</v>
       </c>
@@ -11319,29 +11535,30 @@
         <v>7</v>
       </c>
       <c r="I211" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>5.2636034977233574</v>
       </c>
       <c r="J211" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>5.4500000000000003E-6</v>
       </c>
       <c r="K211" s="3">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L211" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N211" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>ligand_rNaV1.8_STX</v>
       </c>
       <c r="O211" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>5.2636034977233574</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
         <v>19</v>
       </c>
@@ -11367,29 +11584,30 @@
         <v>7</v>
       </c>
       <c r="I212" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>5.2611758557530095</v>
       </c>
       <c r="J212" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>5.4805500000000004E-6</v>
       </c>
       <c r="K212" s="3">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L212" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N212" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>ligand_rNaV1.4.K1237A_TTX</v>
       </c>
       <c r="O212" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>5.2611758557530095</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
         <v>5</v>
       </c>
@@ -11415,29 +11633,30 @@
         <v>7</v>
       </c>
       <c r="I213" s="3">
-        <f t="shared" si="12"/>
-        <v>5.1381670023420547</v>
-      </c>
-      <c r="J213" s="3">
-        <f t="shared" si="13"/>
-        <v>7.2749999999999998E-6</v>
-      </c>
-      <c r="K213" s="3">
-        <v>0</v>
-      </c>
-      <c r="L213" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N213" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.E403D.M1240T.D1241I_STX.C10.1.C13.2</v>
-      </c>
-      <c r="O213" s="2">
         <f t="shared" si="15"/>
         <v>5.1381670023420547</v>
       </c>
-    </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="J213" s="3">
+        <f t="shared" si="16"/>
+        <v>7.2749999999999998E-6</v>
+      </c>
+      <c r="K213" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L213" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N213" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>ligand_rNaV1.4.E403D.M1240T.D1241I_STX.C10.1.C13.2</v>
+      </c>
+      <c r="O213" s="2">
+        <f t="shared" si="18"/>
+        <v>5.1381670023420547</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
         <v>5</v>
       </c>
@@ -11463,29 +11682,30 @@
         <v>7</v>
       </c>
       <c r="I214" s="3">
-        <f t="shared" si="12"/>
-        <v>5.128981961483726</v>
-      </c>
-      <c r="J214" s="3">
-        <f t="shared" si="13"/>
-        <v>7.4305000000000003E-6</v>
-      </c>
-      <c r="K214" s="3">
-        <v>0</v>
-      </c>
-      <c r="L214" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N214" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.Y401A_STX.C13.2</v>
-      </c>
-      <c r="O214" s="2">
         <f t="shared" si="15"/>
         <v>5.128981961483726</v>
       </c>
-    </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="J214" s="3">
+        <f t="shared" si="16"/>
+        <v>7.4305000000000003E-6</v>
+      </c>
+      <c r="K214" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L214" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N214" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>ligand_rNaV1.4.Y401A_STX.C13.2</v>
+      </c>
+      <c r="O214" s="2">
+        <f t="shared" si="18"/>
+        <v>5.128981961483726</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
         <v>5</v>
       </c>
@@ -11511,29 +11731,30 @@
         <v>7</v>
       </c>
       <c r="I215" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>5.1249387366082999</v>
       </c>
       <c r="J215" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>7.5000000000000002E-6</v>
       </c>
       <c r="K215" s="3">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L215" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N215" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>ligand_rNaV1.4_STX.C12.2</v>
       </c>
       <c r="O215" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>5.1249387366082999</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
         <v>5</v>
       </c>
@@ -11559,29 +11780,30 @@
         <v>7</v>
       </c>
       <c r="I216" s="3">
-        <f t="shared" si="12"/>
-        <v>4.991399828238082</v>
-      </c>
-      <c r="J216" s="3">
-        <f t="shared" si="13"/>
-        <v>1.0200000000000001E-5</v>
-      </c>
-      <c r="K216" s="3">
-        <v>0</v>
-      </c>
-      <c r="L216" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N216" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.Y401S_STX</v>
-      </c>
-      <c r="O216" s="2">
         <f t="shared" si="15"/>
         <v>4.991399828238082</v>
       </c>
-    </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="J216" s="3">
+        <f t="shared" si="16"/>
+        <v>1.0200000000000001E-5</v>
+      </c>
+      <c r="K216" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L216" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N216" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>ligand_rNaV1.4.Y401S_STX</v>
+      </c>
+      <c r="O216" s="2">
+        <f t="shared" si="18"/>
+        <v>4.991399828238082</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
         <v>5</v>
       </c>
@@ -11607,29 +11829,30 @@
         <v>7</v>
       </c>
       <c r="I217" s="3">
-        <f t="shared" si="12"/>
-        <v>4.9860468506248576</v>
-      </c>
-      <c r="J217" s="3">
-        <f t="shared" si="13"/>
-        <v>1.03265E-5</v>
-      </c>
-      <c r="K217" s="3">
-        <v>0</v>
-      </c>
-      <c r="L217" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N217" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.M1240T.D1241I_STX.C10.1</v>
-      </c>
-      <c r="O217" s="2">
         <f t="shared" si="15"/>
         <v>4.9860468506248576</v>
       </c>
-    </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="J217" s="3">
+        <f t="shared" si="16"/>
+        <v>1.03265E-5</v>
+      </c>
+      <c r="K217" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L217" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N217" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>ligand_rNaV1.4.M1240T.D1241I_STX.C10.1</v>
+      </c>
+      <c r="O217" s="2">
+        <f t="shared" si="18"/>
+        <v>4.9860468506248576</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
         <v>5</v>
       </c>
@@ -11655,29 +11878,30 @@
         <v>7</v>
       </c>
       <c r="I218" s="3">
-        <f t="shared" si="12"/>
-        <v>4.982486696541959</v>
-      </c>
-      <c r="J218" s="3">
-        <f t="shared" si="13"/>
-        <v>1.04115E-5</v>
-      </c>
-      <c r="K218" s="3">
-        <v>0</v>
-      </c>
-      <c r="L218" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N218" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.W1239A_STX.C13.2</v>
-      </c>
-      <c r="O218" s="2">
         <f t="shared" si="15"/>
         <v>4.982486696541959</v>
       </c>
-    </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="J218" s="3">
+        <f t="shared" si="16"/>
+        <v>1.04115E-5</v>
+      </c>
+      <c r="K218" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L218" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N218" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>ligand_rNaV1.4.W1239A_STX.C13.2</v>
+      </c>
+      <c r="O218" s="2">
+        <f t="shared" si="18"/>
+        <v>4.982486696541959</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
         <v>17</v>
       </c>
@@ -11703,29 +11927,30 @@
         <v>7</v>
       </c>
       <c r="I219" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>4.9469215565165801</v>
       </c>
       <c r="J219" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.13E-5</v>
       </c>
       <c r="K219" s="3">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="L219" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N219" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>ligand_rNaV1.4.Y401S_GTX.2</v>
       </c>
       <c r="O219" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>4.9469215565165801</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
         <v>5</v>
       </c>
@@ -11751,29 +11976,30 @@
         <v>7</v>
       </c>
       <c r="I220" s="3">
-        <f t="shared" si="12"/>
-        <v>4.842392146638332</v>
-      </c>
-      <c r="J220" s="3">
-        <f t="shared" si="13"/>
-        <v>1.4375E-5</v>
-      </c>
-      <c r="K220" s="3">
-        <v>0</v>
-      </c>
-      <c r="L220" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N220" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.E403D_STX.C10.1.C13.2</v>
-      </c>
-      <c r="O220" s="2">
         <f t="shared" si="15"/>
         <v>4.842392146638332</v>
       </c>
-    </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="J220" s="3">
+        <f t="shared" si="16"/>
+        <v>1.4375E-5</v>
+      </c>
+      <c r="K220" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L220" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N220" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>ligand_rNaV1.4.E403D_STX.C10.1.C13.2</v>
+      </c>
+      <c r="O220" s="2">
+        <f t="shared" si="18"/>
+        <v>4.842392146638332</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
         <v>5</v>
       </c>
@@ -11799,29 +12025,30 @@
         <v>7</v>
       </c>
       <c r="I221" s="3">
-        <f t="shared" si="12"/>
-        <v>4.7825160557860933</v>
-      </c>
-      <c r="J221" s="3">
-        <f t="shared" si="13"/>
-        <v>1.6500000000000001E-5</v>
-      </c>
-      <c r="K221" s="3">
-        <v>0</v>
-      </c>
-      <c r="L221" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N221" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4_STX.C11.4</v>
-      </c>
-      <c r="O221" s="2">
         <f t="shared" si="15"/>
         <v>4.7825160557860933</v>
       </c>
-    </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="J221" s="3">
+        <f t="shared" si="16"/>
+        <v>1.6500000000000001E-5</v>
+      </c>
+      <c r="K221" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L221" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N221" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>ligand_rNaV1.4_STX.C11.4</v>
+      </c>
+      <c r="O221" s="2">
+        <f t="shared" si="18"/>
+        <v>4.7825160557860933</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
         <v>17</v>
       </c>
@@ -11847,29 +12074,30 @@
         <v>7</v>
       </c>
       <c r="I222" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>4.7670038896078459</v>
       </c>
       <c r="J222" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.7099999999999999E-5</v>
       </c>
       <c r="K222" s="3">
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="L222" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N222" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>ligand_rNaV1.4.Y401S_GTX.3</v>
       </c>
       <c r="O222" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>4.7670038896078459</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
         <v>5</v>
       </c>
@@ -11895,29 +12123,30 @@
         <v>7</v>
       </c>
       <c r="I223" s="3">
-        <f t="shared" si="12"/>
-        <v>4.7564658981679377</v>
-      </c>
-      <c r="J223" s="3">
-        <f t="shared" si="13"/>
-        <v>1.7520000000000002E-5</v>
-      </c>
-      <c r="K223" s="3">
-        <v>0</v>
-      </c>
-      <c r="L223" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N223" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.E403D.M1240T.D1241I_STX</v>
-      </c>
-      <c r="O223" s="2">
         <f t="shared" si="15"/>
         <v>4.7564658981679377</v>
       </c>
-    </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="J223" s="3">
+        <f t="shared" si="16"/>
+        <v>1.7520000000000002E-5</v>
+      </c>
+      <c r="K223" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L223" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N223" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>ligand_rNaV1.4.E403D.M1240T.D1241I_STX</v>
+      </c>
+      <c r="O223" s="2">
+        <f t="shared" si="18"/>
+        <v>4.7564658981679377</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
         <v>19</v>
       </c>
@@ -11943,29 +12172,30 @@
         <v>7</v>
       </c>
       <c r="I224" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>4.6818917763410086</v>
       </c>
       <c r="J224" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2.0802150000000002E-5</v>
       </c>
       <c r="K224" s="3">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L224" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N224" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>ligand_rNaV1.4.M1240E_TTX</v>
       </c>
       <c r="O224" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>4.6818917763410086</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
         <v>5</v>
       </c>
@@ -11991,29 +12221,30 @@
         <v>7</v>
       </c>
       <c r="I225" s="3">
-        <f t="shared" si="12"/>
-        <v>4.6812586095023079</v>
-      </c>
-      <c r="J225" s="3">
-        <f t="shared" si="13"/>
-        <v>2.0832500000000001E-5</v>
-      </c>
-      <c r="K225" s="3">
-        <v>0</v>
-      </c>
-      <c r="L225" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N225" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.W1239A_STX.C10.1</v>
-      </c>
-      <c r="O225" s="2">
         <f t="shared" si="15"/>
         <v>4.6812586095023079</v>
       </c>
-    </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="J225" s="3">
+        <f t="shared" si="16"/>
+        <v>2.0832500000000001E-5</v>
+      </c>
+      <c r="K225" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L225" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N225" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>ligand_rNaV1.4.W1239A_STX.C10.1</v>
+      </c>
+      <c r="O225" s="2">
+        <f t="shared" si="18"/>
+        <v>4.6812586095023079</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A226" s="3" t="s">
         <v>5</v>
       </c>
@@ -12039,29 +12270,30 @@
         <v>7</v>
       </c>
       <c r="I226" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>4.6675615400843951</v>
       </c>
       <c r="J226" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2.1500000000000001E-5</v>
       </c>
       <c r="K226" s="3">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L226" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N226" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>ligand_rNaV1.4_STX.C11.4.N21.31</v>
       </c>
       <c r="O226" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>4.6675615400843951</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
         <v>5</v>
       </c>
@@ -12087,29 +12319,30 @@
         <v>7</v>
       </c>
       <c r="I227" s="3">
-        <f t="shared" si="12"/>
-        <v>4.6020599913279625</v>
-      </c>
-      <c r="J227" s="3">
-        <f t="shared" si="13"/>
-        <v>2.5000000000000001E-5</v>
-      </c>
-      <c r="K227" s="3">
-        <v>0</v>
-      </c>
-      <c r="L227" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N227" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.E403D_STX.N7.1</v>
-      </c>
-      <c r="O227" s="2">
         <f t="shared" si="15"/>
         <v>4.6020599913279625</v>
       </c>
-    </row>
-    <row r="228" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="J227" s="3">
+        <f t="shared" si="16"/>
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="K227" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L227" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N227" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>ligand_rNaV1.4.E403D_STX.N7.1</v>
+      </c>
+      <c r="O227" s="2">
+        <f t="shared" si="18"/>
+        <v>4.6020599913279625</v>
+      </c>
+    </row>
+    <row r="228" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
         <v>5</v>
       </c>
@@ -12135,29 +12368,30 @@
         <v>7</v>
       </c>
       <c r="I228" s="3">
-        <f t="shared" si="12"/>
-        <v>4.6020599913279625</v>
-      </c>
-      <c r="J228" s="3">
-        <f t="shared" si="13"/>
-        <v>2.5000000000000001E-5</v>
-      </c>
-      <c r="K228" s="3">
-        <v>0</v>
-      </c>
-      <c r="L228" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N228" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.E403D_STX.N9.1</v>
-      </c>
-      <c r="O228" s="2">
         <f t="shared" si="15"/>
         <v>4.6020599913279625</v>
       </c>
-    </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="J228" s="3">
+        <f t="shared" si="16"/>
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="K228" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L228" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N228" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>ligand_rNaV1.4.E403D_STX.N9.1</v>
+      </c>
+      <c r="O228" s="2">
+        <f t="shared" si="18"/>
+        <v>4.6020599913279625</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="s">
         <v>5</v>
       </c>
@@ -12183,29 +12417,30 @@
         <v>7</v>
       </c>
       <c r="I229" s="3">
-        <f t="shared" si="12"/>
-        <v>4.6020599913279625</v>
-      </c>
-      <c r="J229" s="3">
-        <f t="shared" si="13"/>
-        <v>2.5000000000000001E-5</v>
-      </c>
-      <c r="K229" s="3">
-        <v>0</v>
-      </c>
-      <c r="L229" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N229" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.E758D_STX.C10.1</v>
-      </c>
-      <c r="O229" s="2">
         <f t="shared" si="15"/>
         <v>4.6020599913279625</v>
       </c>
-    </row>
-    <row r="230" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="J229" s="3">
+        <f t="shared" si="16"/>
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="K229" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L229" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N229" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>ligand_rNaV1.4.E758D_STX.C10.1</v>
+      </c>
+      <c r="O229" s="2">
+        <f t="shared" si="18"/>
+        <v>4.6020599913279625</v>
+      </c>
+    </row>
+    <row r="230" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A230" s="3" t="s">
         <v>5</v>
       </c>
@@ -12231,29 +12466,30 @@
         <v>7</v>
       </c>
       <c r="I230" s="3">
-        <f t="shared" si="12"/>
-        <v>4.6020599913279625</v>
-      </c>
-      <c r="J230" s="3">
-        <f t="shared" si="13"/>
-        <v>2.5000000000000001E-5</v>
-      </c>
-      <c r="K230" s="3">
-        <v>0</v>
-      </c>
-      <c r="L230" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N230" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.E758D_STX.C13.1</v>
-      </c>
-      <c r="O230" s="2">
         <f t="shared" si="15"/>
         <v>4.6020599913279625</v>
       </c>
-    </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="J230" s="3">
+        <f t="shared" si="16"/>
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="K230" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L230" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N230" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>ligand_rNaV1.4.E758D_STX.C13.1</v>
+      </c>
+      <c r="O230" s="2">
+        <f t="shared" si="18"/>
+        <v>4.6020599913279625</v>
+      </c>
+    </row>
+    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
         <v>5</v>
       </c>
@@ -12279,29 +12515,30 @@
         <v>7</v>
       </c>
       <c r="I231" s="3">
-        <f t="shared" si="12"/>
-        <v>4.6020599913279625</v>
-      </c>
-      <c r="J231" s="3">
-        <f t="shared" si="13"/>
-        <v>2.5000000000000001E-5</v>
-      </c>
-      <c r="K231" s="3">
-        <v>0</v>
-      </c>
-      <c r="L231" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N231" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.E758D_STX.C13.2</v>
-      </c>
-      <c r="O231" s="2">
         <f t="shared" si="15"/>
         <v>4.6020599913279625</v>
       </c>
-    </row>
-    <row r="232" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="J231" s="3">
+        <f t="shared" si="16"/>
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="K231" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L231" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N231" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>ligand_rNaV1.4.E758D_STX.C13.2</v>
+      </c>
+      <c r="O231" s="2">
+        <f t="shared" si="18"/>
+        <v>4.6020599913279625</v>
+      </c>
+    </row>
+    <row r="232" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="s">
         <v>5</v>
       </c>
@@ -12327,29 +12564,30 @@
         <v>7</v>
       </c>
       <c r="I232" s="3">
-        <f t="shared" si="12"/>
-        <v>4.6020599913279625</v>
-      </c>
-      <c r="J232" s="3">
-        <f t="shared" si="13"/>
-        <v>2.5000000000000001E-5</v>
-      </c>
-      <c r="K232" s="3">
-        <v>0</v>
-      </c>
-      <c r="L232" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N232" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.E758D_STX.N7.1</v>
-      </c>
-      <c r="O232" s="2">
         <f t="shared" si="15"/>
         <v>4.6020599913279625</v>
       </c>
-    </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="J232" s="3">
+        <f t="shared" si="16"/>
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="K232" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L232" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N232" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>ligand_rNaV1.4.E758D_STX.N7.1</v>
+      </c>
+      <c r="O232" s="2">
+        <f t="shared" si="18"/>
+        <v>4.6020599913279625</v>
+      </c>
+    </row>
+    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
         <v>5</v>
       </c>
@@ -12375,29 +12613,30 @@
         <v>7</v>
       </c>
       <c r="I233" s="3">
-        <f t="shared" si="12"/>
-        <v>4.6020599913279625</v>
-      </c>
-      <c r="J233" s="3">
-        <f t="shared" si="13"/>
-        <v>2.5000000000000001E-5</v>
-      </c>
-      <c r="K233" s="3">
-        <v>0</v>
-      </c>
-      <c r="L233" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N233" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.E758D_STX.N9.1</v>
-      </c>
-      <c r="O233" s="2">
         <f t="shared" si="15"/>
         <v>4.6020599913279625</v>
       </c>
-    </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="J233" s="3">
+        <f t="shared" si="16"/>
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="K233" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L233" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N233" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>ligand_rNaV1.4.E758D_STX.N9.1</v>
+      </c>
+      <c r="O233" s="2">
+        <f t="shared" si="18"/>
+        <v>4.6020599913279625</v>
+      </c>
+    </row>
+    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
         <v>5</v>
       </c>
@@ -12423,317 +12662,324 @@
         <v>7</v>
       </c>
       <c r="I234" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>4.6020599913279625</v>
       </c>
       <c r="J234" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2.5000000000000001E-5</v>
       </c>
       <c r="K234" s="3">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L234" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N234" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>ligand_rNaV1.4.M1240C_STX.N21.11</v>
       </c>
       <c r="O234" s="2">
+        <f t="shared" si="18"/>
+        <v>4.6020599913279625</v>
+      </c>
+    </row>
+    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A235" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D235" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E235" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F235" s="3">
+        <v>50000</v>
+      </c>
+      <c r="G235" s="3">
+        <v>0</v>
+      </c>
+      <c r="H235" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I235" s="3">
         <f t="shared" si="15"/>
         <v>4.6020599913279625</v>
       </c>
-    </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A235" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B235" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C235" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D235" s="3" t="s">
+      <c r="J235" s="3">
+        <f t="shared" si="16"/>
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="K235" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L235" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N235" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>ligand_rNaV1.4.W1239A_STX.N7.1</v>
+      </c>
+      <c r="O235" s="2">
+        <f t="shared" si="18"/>
+        <v>4.6020599913279625</v>
+      </c>
+    </row>
+    <row r="236" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A236" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D236" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E235" s="4" t="s">
+      <c r="E236" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="F235" s="3">
+      <c r="F236" s="3">
         <v>50000</v>
       </c>
-      <c r="G235" s="3">
-        <v>0</v>
-      </c>
-      <c r="H235" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I235" s="3">
-        <f t="shared" si="12"/>
-        <v>4.6020599913279625</v>
-      </c>
-      <c r="J235" s="3">
-        <f t="shared" si="13"/>
-        <v>2.5000000000000001E-5</v>
-      </c>
-      <c r="K235" s="3">
-        <v>0</v>
-      </c>
-      <c r="L235" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N235" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.W1239A_STX.N7.1</v>
-      </c>
-      <c r="O235" s="2">
+      <c r="G236" s="3">
+        <v>0</v>
+      </c>
+      <c r="H236" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I236" s="3">
         <f t="shared" si="15"/>
         <v>4.6020599913279625</v>
       </c>
-    </row>
-    <row r="236" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A236" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B236" s="3" t="s">
+      <c r="J236" s="3">
+        <f t="shared" si="16"/>
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="K236" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L236" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N236" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>ligand_rNaV1.4.W1239A_STX.N9.1</v>
+      </c>
+      <c r="O236" s="2">
+        <f t="shared" si="18"/>
+        <v>4.6020599913279625</v>
+      </c>
+    </row>
+    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A237" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B237" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C236" s="3" t="s">
+      <c r="C237" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D236" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E236" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="F236" s="3">
+      <c r="D237" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E237" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="F237" s="3">
         <v>50000</v>
       </c>
-      <c r="G236" s="3">
-        <v>0</v>
-      </c>
-      <c r="H236" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I236" s="3">
-        <f t="shared" si="12"/>
-        <v>4.6020599913279625</v>
-      </c>
-      <c r="J236" s="3">
-        <f t="shared" si="13"/>
-        <v>2.5000000000000001E-5</v>
-      </c>
-      <c r="K236" s="3">
-        <v>0</v>
-      </c>
-      <c r="L236" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N236" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.W1239A_STX.N9.1</v>
-      </c>
-      <c r="O236" s="2">
+      <c r="G237" s="3">
+        <v>0</v>
+      </c>
+      <c r="H237" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I237" s="3">
         <f t="shared" si="15"/>
         <v>4.6020599913279625</v>
       </c>
-    </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A237" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B237" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C237" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D237" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E237" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="F237" s="3">
+      <c r="J237" s="3">
+        <f t="shared" si="16"/>
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="K237" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L237" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N237" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>ligand_rNaV1.4.W756A_STX.N9.1</v>
+      </c>
+      <c r="O237" s="2">
+        <f t="shared" si="18"/>
+        <v>4.6020599913279625</v>
+      </c>
+    </row>
+    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A238" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D238" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E238" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F238" s="3">
         <v>50000</v>
       </c>
-      <c r="G237" s="3">
-        <v>0</v>
-      </c>
-      <c r="H237" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I237" s="3">
-        <f t="shared" si="12"/>
-        <v>4.6020599913279625</v>
-      </c>
-      <c r="J237" s="3">
-        <f t="shared" si="13"/>
-        <v>2.5000000000000001E-5</v>
-      </c>
-      <c r="K237" s="3">
-        <v>0</v>
-      </c>
-      <c r="L237" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N237" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.W756A_STX.N9.1</v>
-      </c>
-      <c r="O237" s="2">
+      <c r="G238" s="3">
+        <v>0</v>
+      </c>
+      <c r="H238" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I238" s="3">
         <f t="shared" si="15"/>
         <v>4.6020599913279625</v>
       </c>
-    </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A238" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B238" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C238" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D238" s="3" t="s">
+      <c r="J238" s="3">
+        <f t="shared" si="16"/>
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="K238" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L238" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N238" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>ligand_rNaV1.4.Y401A_STX.N7.1</v>
+      </c>
+      <c r="O238" s="2">
+        <f t="shared" si="18"/>
+        <v>4.6020599913279625</v>
+      </c>
+    </row>
+    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A239" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D239" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E238" s="4" t="s">
+      <c r="E239" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="F238" s="3">
+      <c r="F239" s="3">
         <v>50000</v>
       </c>
-      <c r="G238" s="3">
-        <v>0</v>
-      </c>
-      <c r="H238" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I238" s="3">
-        <f t="shared" si="12"/>
-        <v>4.6020599913279625</v>
-      </c>
-      <c r="J238" s="3">
-        <f t="shared" si="13"/>
-        <v>2.5000000000000001E-5</v>
-      </c>
-      <c r="K238" s="3">
-        <v>0</v>
-      </c>
-      <c r="L238" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N238" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.Y401A_STX.N7.1</v>
-      </c>
-      <c r="O238" s="2">
+      <c r="G239" s="3">
+        <v>0</v>
+      </c>
+      <c r="H239" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I239" s="3">
         <f t="shared" si="15"/>
         <v>4.6020599913279625</v>
       </c>
-    </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A239" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B239" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C239" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D239" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E239" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="F239" s="3">
+      <c r="J239" s="3">
+        <f t="shared" si="16"/>
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="K239" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L239" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N239" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>ligand_rNaV1.4.Y401A_STX.N9.1</v>
+      </c>
+      <c r="O239" s="2">
+        <f t="shared" si="18"/>
+        <v>4.6020599913279625</v>
+      </c>
+    </row>
+    <row r="240" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D240" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E240" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F240" s="3">
         <v>50000</v>
       </c>
-      <c r="G239" s="3">
-        <v>0</v>
-      </c>
-      <c r="H239" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I239" s="3">
-        <f t="shared" si="12"/>
-        <v>4.6020599913279625</v>
-      </c>
-      <c r="J239" s="3">
-        <f t="shared" si="13"/>
-        <v>2.5000000000000001E-5</v>
-      </c>
-      <c r="K239" s="3">
-        <v>0</v>
-      </c>
-      <c r="L239" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N239" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.Y401A_STX.N9.1</v>
-      </c>
-      <c r="O239" s="2">
+      <c r="G240" s="3">
+        <v>0</v>
+      </c>
+      <c r="H240" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I240" s="3">
         <f t="shared" si="15"/>
         <v>4.6020599913279625</v>
       </c>
-    </row>
-    <row r="240" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A240" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B240" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C240" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D240" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E240" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="F240" s="3">
-        <v>50000</v>
-      </c>
-      <c r="G240" s="3">
-        <v>0</v>
-      </c>
-      <c r="H240" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I240" s="3">
-        <f t="shared" si="12"/>
-        <v>4.6020599913279625</v>
-      </c>
       <c r="J240" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2.5000000000000001E-5</v>
       </c>
       <c r="K240" s="3">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L240" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N240" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>ligand_rNaV1.4.Y401C.S_TTX</v>
       </c>
       <c r="O240" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>4.6020599913279625</v>
       </c>
     </row>
-    <row r="241" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A241" s="3" t="s">
         <v>5</v>
       </c>
@@ -12759,29 +13005,30 @@
         <v>7</v>
       </c>
       <c r="I241" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>4.6003643458390755</v>
       </c>
       <c r="J241" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2.5097799999999999E-5</v>
       </c>
       <c r="K241" s="3">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L241" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N241" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>ligand_rNaV1.4.E755A_STX</v>
       </c>
       <c r="O241" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>4.6003643458390755</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="s">
         <v>19</v>
       </c>
@@ -12807,29 +13054,30 @@
         <v>7</v>
       </c>
       <c r="I242" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>4.4127993782375334</v>
       </c>
       <c r="J242" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>3.8654550000000004E-5</v>
       </c>
       <c r="K242" s="3">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L242" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N242" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>ligand_rNaV1.4.E403Q_TTX</v>
       </c>
       <c r="O242" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>4.4127993782375334</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A243" s="10" t="s">
         <v>5</v>
       </c>
@@ -12855,29 +13103,30 @@
         <v>7</v>
       </c>
       <c r="I243" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>4.3900834573659262</v>
       </c>
       <c r="J243" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>4.0730199999999998E-5</v>
       </c>
-      <c r="K243" s="10">
+      <c r="K243" s="3">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L243" s="10" t="s">
         <v>58</v>
       </c>
       <c r="N243" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>ligand_rNaV1.4.E758Q_STX</v>
       </c>
       <c r="O243" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>4.3900834573659262</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
         <v>5</v>
       </c>
@@ -12903,29 +13152,30 @@
         <v>7</v>
       </c>
       <c r="I244" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>4.3279982519026099</v>
       </c>
       <c r="J244" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>4.6989600000000002E-5</v>
       </c>
       <c r="K244" s="3">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L244" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N244" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>ligand_rNaV1.4.M1240K_STX</v>
       </c>
       <c r="O244" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>4.3279982519026099</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="s">
         <v>5</v>
       </c>
@@ -12951,29 +13201,30 @@
         <v>7</v>
       </c>
       <c r="I245" s="3">
-        <f t="shared" si="12"/>
-        <v>4.2898826348881833</v>
-      </c>
-      <c r="J245" s="3">
-        <f t="shared" si="13"/>
-        <v>5.13E-5</v>
-      </c>
-      <c r="K245" s="3">
-        <v>0</v>
-      </c>
-      <c r="L245" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N245" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.Y401S_STX.C11.6</v>
-      </c>
-      <c r="O245" s="2">
         <f t="shared" si="15"/>
         <v>4.2898826348881833</v>
       </c>
-    </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="J245" s="3">
+        <f t="shared" si="16"/>
+        <v>5.13E-5</v>
+      </c>
+      <c r="K245" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L245" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N245" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>ligand_rNaV1.4.Y401S_STX.C11.6</v>
+      </c>
+      <c r="O245" s="2">
+        <f t="shared" si="18"/>
+        <v>4.2898826348881833</v>
+      </c>
+    </row>
+    <row r="246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A246" s="10" t="s">
         <v>5</v>
       </c>
@@ -12999,29 +13250,30 @@
         <v>7</v>
       </c>
       <c r="I246" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>4.2712632336340288</v>
       </c>
       <c r="J246" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>5.3547199999999994E-5</v>
       </c>
-      <c r="K246" s="10">
+      <c r="K246" s="3">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L246" s="10" t="s">
         <v>58</v>
       </c>
       <c r="N246" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>ligand_rNaV1.4.D1532N_STX</v>
       </c>
       <c r="O246" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>4.2712632336340288</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
         <v>19</v>
       </c>
@@ -13047,29 +13299,30 @@
         <v>7</v>
       </c>
       <c r="I247" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>4.2610403715897203</v>
       </c>
       <c r="J247" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>5.4822599999999999E-5</v>
       </c>
       <c r="K247" s="3">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L247" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N247" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>ligand_rNaV1.4.E755A_TTX</v>
       </c>
       <c r="O247" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>4.2610403715897203</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
         <v>5</v>
       </c>
@@ -13095,29 +13348,30 @@
         <v>7</v>
       </c>
       <c r="I248" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>4.259567828947028</v>
       </c>
       <c r="J248" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>5.5008800000000001E-5</v>
       </c>
       <c r="K248" s="3">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L248" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N248" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>ligand_rNaV1.4.E403Q_STX</v>
       </c>
       <c r="O248" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>4.259567828947028</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
         <v>19</v>
       </c>
@@ -13143,29 +13397,30 @@
         <v>7</v>
       </c>
       <c r="I249" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>4.2433874705534755</v>
       </c>
       <c r="J249" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>5.7096899999999999E-5</v>
       </c>
       <c r="K249" s="3">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L249" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N249" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>ligand_rNaV1.4.M1240K_TTX</v>
       </c>
       <c r="O249" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>4.2433874705534755</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A250" s="3" t="s">
         <v>5</v>
       </c>
@@ -13191,29 +13446,30 @@
         <v>7</v>
       </c>
       <c r="I250" s="3">
-        <f t="shared" si="12"/>
-        <v>4.1979107421182675</v>
-      </c>
-      <c r="J250" s="3">
-        <f t="shared" si="13"/>
-        <v>6.3399999999999996E-5</v>
-      </c>
-      <c r="K250" s="3">
-        <v>0</v>
-      </c>
-      <c r="L250" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N250" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.Y401S_STX.C10.1</v>
-      </c>
-      <c r="O250" s="2">
         <f t="shared" si="15"/>
         <v>4.1979107421182675</v>
       </c>
-    </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="J250" s="3">
+        <f t="shared" si="16"/>
+        <v>6.3399999999999996E-5</v>
+      </c>
+      <c r="K250" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L250" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N250" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>ligand_rNaV1.4.Y401S_STX.C10.1</v>
+      </c>
+      <c r="O250" s="2">
+        <f t="shared" si="18"/>
+        <v>4.1979107421182675</v>
+      </c>
+    </row>
+    <row r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
         <v>5</v>
       </c>
@@ -13239,29 +13495,30 @@
         <v>7</v>
       </c>
       <c r="I251" s="3">
-        <f t="shared" si="12"/>
-        <v>4.1874208445909531</v>
-      </c>
-      <c r="J251" s="3">
-        <f t="shared" si="13"/>
-        <v>6.4950000000000007E-5</v>
-      </c>
-      <c r="K251" s="3">
-        <v>0</v>
-      </c>
-      <c r="L251" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N251" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>ligand_rNaV1.4.E403D.M1240T.D1241I_STX.C10.1</v>
-      </c>
-      <c r="O251" s="2">
         <f t="shared" si="15"/>
         <v>4.1874208445909531</v>
       </c>
-    </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="J251" s="3">
+        <f t="shared" si="16"/>
+        <v>6.4950000000000007E-5</v>
+      </c>
+      <c r="K251" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L251" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N251" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>ligand_rNaV1.4.E403D.M1240T.D1241I_STX.C10.1</v>
+      </c>
+      <c r="O251" s="2">
+        <f t="shared" si="18"/>
+        <v>4.1874208445909531</v>
+      </c>
+    </row>
+    <row r="252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="s">
         <v>5</v>
       </c>
@@ -13287,30 +13544,31 @@
         <v>7</v>
       </c>
       <c r="I252" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3.8910968723326866</v>
       </c>
       <c r="J252" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2850000000000001E-4</v>
       </c>
       <c r="K252" s="3">
+        <f>INT(F252&lt;500)</f>
         <v>0</v>
       </c>
       <c r="L252" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N252" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>ligand_rNaV1.4_STX.C12.1</v>
       </c>
       <c r="O252" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>3.8910968723326866</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:M252">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M252">
     <sortCondition ref="F2:F252"/>
     <sortCondition ref="D2:D252"/>
   </sortState>
@@ -13322,7 +13580,7 @@
     </dataRefs>
   </dataConsolidate>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B270:B1048576 E270:E1048576 A1:L253 N1:XFD1048576">
+  <conditionalFormatting sqref="B270:B1048576 E270:E1048576 N1:XFD1048576 A1:L253">
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>AND(INDIRECT(ADDRESS(ROW()-1,B))=INDIRECT(ADDRESS(ROW(),B)), INDIRECT(ADDRESS(ROW()-1,D))=INDIRECT(ADDRESS(ROW(),D)))</formula>
     </cfRule>
